--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="860" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="893" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
     <sheet name="更新日志" sheetId="23" r:id="rId2"/>
     <sheet name="账户表" sheetId="44" r:id="rId3"/>
-    <sheet name="用户表" sheetId="4" r:id="rId4"/>
+    <sheet name="用户信息表" sheetId="4" r:id="rId4"/>
     <sheet name="日程事件表" sheetId="9" r:id="rId5"/>
     <sheet name="日程特殊事件表" sheetId="45" r:id="rId6"/>
     <sheet name="日程参与人表" sheetId="10" r:id="rId7"/>
@@ -20,7 +20,7 @@
     <sheet name="群组" sheetId="43" r:id="rId11"/>
     <sheet name="群组参与人关系" sheetId="8" r:id="rId12"/>
     <sheet name="系統設置表" sheetId="29" r:id="rId13"/>
-    <sheet name="用户设置" sheetId="39" r:id="rId14"/>
+    <sheet name="用户偏好" sheetId="39" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="260">
   <si>
     <t>表名</t>
   </si>
@@ -67,9 +67,6 @@
     <t>字段类型</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>用户ID</t>
   </si>
   <si>
@@ -173,74 +170,826 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>系統設置表</t>
+  </si>
+  <si>
+    <t>授权标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权关系人中间表</t>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0无，1男，2女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_C</t>
+  </si>
+  <si>
+    <t>GTD_D</t>
+  </si>
+  <si>
+    <t>GTD_E</t>
+  </si>
+  <si>
+    <t>系统设置名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系群组主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系群组主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_B_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权表主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人别称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0是未授权，1是授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据归属人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是个人，2是群，0未注册用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uCt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ran</t>
+  </si>
+  <si>
+    <t>被授权联系人别称拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rNpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bmi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划ID</t>
+  </si>
+  <si>
+    <t>计划ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji</t>
+  </si>
+  <si>
+    <t>ji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>son</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0非本地；1本地日历 默认非本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否本地</t>
+  </si>
+  <si>
+    <t>是否本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地日程id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0未发送，1同意发送，2拒绝发送，3未注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程发送状态</t>
+  </si>
+  <si>
+    <t>日程发送状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0不可修改，1可修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划名</t>
+  </si>
+  <si>
+    <t>计划描述</t>
+  </si>
+  <si>
+    <t>计划描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划名称表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0是未被添加，1是同意，2是拉黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_J_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据最新需求简化表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张金洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程参与人关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组参与人关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户消息队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：关闭，1：每日，2：每周，3：每月，4：每年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程特殊事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程特殊事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程特殊事件主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程提醒日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：修改，2：删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：日程事件，2：日程特殊事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人账户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>et</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唤醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新消息提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音播报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画面msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(400)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏好设置类型</t>
+  </si>
+  <si>
+    <t>偏好设置类型名称</t>
+  </si>
+  <si>
+    <t>偏好设置名称</t>
+  </si>
+  <si>
+    <t>偏好设置key</t>
+  </si>
+  <si>
+    <t>偏好设置value</t>
+  </si>
+  <si>
+    <t>yi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ytn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户偏好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GTD_A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系統設置表</t>
-  </si>
-  <si>
-    <t>授权标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权关系人中间表</t>
-  </si>
-  <si>
-    <t>修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0无，1男，2女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_C</t>
-  </si>
-  <si>
-    <t>GTD_D</t>
-  </si>
-  <si>
-    <t>GTD_E</t>
-  </si>
-  <si>
-    <t>系统设置自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人ID</t>
+    <t>aN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -248,158 +997,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系群组主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系群组主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群成员主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权表主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人别称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0是未授权，1是授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据归属人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1是个人，2是群，0未注册用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zkv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hIU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,556 +1005,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uCt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ran</t>
-  </si>
-  <si>
-    <t>被授权联系人别称拼音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称拼音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rNpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bmi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划ID</t>
-  </si>
-  <si>
-    <t>计划ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ji</t>
-  </si>
-  <si>
-    <t>ji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>son</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0非本地；1本地日历 默认非本地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否本地</t>
-  </si>
-  <si>
-    <t>是否本地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ib</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地日程id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0未发送，1同意发送，2拒绝发送，3未注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程发送状态</t>
-  </si>
-  <si>
-    <t>日程发送状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0不可修改，1可修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>st</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划名</t>
-  </si>
-  <si>
-    <t>计划描述</t>
-  </si>
-  <si>
-    <t>计划描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划名称表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0是未被添加，1是同意，2是拉黑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_J_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒时间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据最新需求简化表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张金洋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程参与人关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组参与人关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程表重复特殊日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户消息队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：关闭，1：每日，2：每周，3：每月，4：每年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程特殊事件表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_SP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程特殊事件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程特殊事件主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程提醒日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：修改，2：删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：日程事件，2：日程特殊事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人账户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>st</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>et</t>
+    <t>sta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏好主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1449,9 +1521,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1467,103 +1541,107 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>177</v>
+        <v>242</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>166</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>168</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>169</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>171</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>172</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="6"/>
@@ -1597,20 +1675,25 @@
       <c r="A21" s="6"/>
       <c r="B21" s="2"/>
     </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="用户表!A1" display="用户表"/>
-    <hyperlink ref="A3" location="日程事件表!A1" display="日程表"/>
-    <hyperlink ref="A5" location="日程参与人表!A1" display="日程参与人关联"/>
-    <hyperlink ref="A12" location="计划表!A1" display="计划"/>
-    <hyperlink ref="A11" location="参与人!A1" display="参与人"/>
-    <hyperlink ref="A10" location="群组参与人关系!A1" display="群组参与人关系"/>
-    <hyperlink ref="A9" location="群组!A1" display="群组"/>
-    <hyperlink ref="A8" location="系統設置表!A1" display="系统设置"/>
-    <hyperlink ref="A7" location="用户设置!A1" display="用户设置"/>
-    <hyperlink ref="A6" location="提醒时间表!A1" display="提醒时间表"/>
+    <hyperlink ref="A3" location="用户表!A1" display="用户表"/>
     <hyperlink ref="A4" location="日程事件表!A1" display="日程表"/>
+    <hyperlink ref="A6" location="日程参与人表!A1" display="日程参与人关联"/>
+    <hyperlink ref="A13" location="计划表!A1" display="计划"/>
+    <hyperlink ref="A9" location="参与人!A1" display="参与人"/>
+    <hyperlink ref="A11" location="群组参与人关系!A1" display="群组参与人关系"/>
+    <hyperlink ref="A10" location="群组!A1" display="群组"/>
+    <hyperlink ref="A12" location="系統設置表!A1" display="系统设置"/>
+    <hyperlink ref="A8" location="用户设置!A1" display="用户设置"/>
+    <hyperlink ref="A7" location="提醒时间表!A1" display="提醒时间表"/>
+    <hyperlink ref="A5" location="日程事件表!A1" display="日程表"/>
+    <hyperlink ref="A2" location="账户表!A1" display="账户表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -1619,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F20"/>
+  <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1634,22 +1717,22 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1666,209 +1749,361 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>90</v>
+        <v>259</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>66</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> pwI varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> pwI</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _pwI: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,ran varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,ran</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J13" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _ran: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G13" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,ranpy varchar(20) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I13" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,ranpy</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ranpy: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,rI varchar(50) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,rI</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _rI: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>70</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,hiu varchar(200) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,hiu</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _hiu: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,rN varchar(20) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,rN</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _rN: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,rNpy varchar(20) </v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,rNpy</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>private _rNpy: string;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,rC varchar(20) </v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,rC</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>private _rC: string;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>256</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,rF varchar(4) </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,rF</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>private _rF: string;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>256</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ot varchar(4) </v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ot</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ot: string;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>256</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" ref="G14:G15" si="3">" ," &amp; E14 &amp; " " &amp; F14 &amp; " "</f>
+        <v xml:space="preserve"> ,rel varchar(4) </v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" ref="I14:I15" si="4">" ," &amp; E14</f>
+        <v xml:space="preserve"> ,rel</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" ref="J14:J15" si="5">"private _"&amp;E14&amp;": string;"</f>
+        <v>private _rel: string;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> ,uI varchar(50) </v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> ,uI</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="5"/>
+        <v>private _uI: string;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13,G14,G15)</f>
+        <v xml:space="preserve"> pwI varchar(50) PRIMARY KEY ,ran varchar(50)  ,ranpy varchar(20)  ,rI varchar(50)  ,hiu varchar(200)  ,rN varchar(20)  ,rNpy varchar(20)  ,rC varchar(20)  ,rF varchar(4)  ,ot varchar(4)  ,rel varchar(4)  ,uI varchar(50) </v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13,I14,I15)</f>
+        <v xml:space="preserve"> pwI ,ran ,ranpy ,rI ,hiu ,rN ,rNpy ,rC ,rF ,ot ,rel ,uI</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="18" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1886,10 +2121,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F20"/>
+  <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G16" sqref="G16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1901,22 +2136,22 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1933,131 +2168,175 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>66</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> gI varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> gI</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _gI: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,gN varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,gN</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J6" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _gN: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,gM varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,gM</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _gM: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:10">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:10">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:10">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:10">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:10">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:10">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+        <v xml:space="preserve"> gI varchar(50) PRIMARY KEY ,gN varchar(50)  ,gM varchar(50) </v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <v xml:space="preserve"> gI ,gN ,gM</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="18" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2075,10 +2354,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G16" sqref="G16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2090,22 +2369,22 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2122,81 +2401,117 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> bi varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> bi</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _bi: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,bmi varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,bmi</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _bmi: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:10">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:10">
       <c r="A14" s="18" t="s">
-        <v>92</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="G16" t="str">
+        <f>CONCATENATE(G2,G3,G4,G5,G6,G7,G8,G9,G10,G11)</f>
+        <v xml:space="preserve"> bi varchar(50) PRIMARY KEY ,bmi varchar(50) </v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" t="str">
+        <f>CONCATENATE(I2,I3,I4,I5,I6,I7,I8,I9,I10,I11)</f>
+        <v xml:space="preserve"> bi ,bmi</v>
       </c>
     </row>
   </sheetData>
@@ -2214,10 +2529,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F16"/>
+  <dimension ref="A2:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2229,22 +2544,22 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2261,111 +2576,229 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>257</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>51</v>
+        <v>257</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> si varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> si</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _si: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>53</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,st VARCHAR(20) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,st</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J9" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _st: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,stn VARCHAR(20) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I9" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,stn</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _stn: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sn VARCHAR(20) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sn</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sn: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="D8" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,yk VARCHAR(20) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,yk</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _yk: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="D9" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,yv VARCHAR(400) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,yv</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _yv: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:10">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:10">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:10">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="15" spans="1:10">
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="18" t="s">
-        <v>92</v>
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="E17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18" t="s">
+        <v>214</v>
+      </c>
+      <c r="G18" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+        <v xml:space="preserve"> si varchar(50) PRIMARY KEY ,st VARCHAR(20)  ,stn VARCHAR(20)  ,sn VARCHAR(20)  ,yk VARCHAR(20)  ,yv VARCHAR(400) </v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" t="s">
+        <v>215</v>
+      </c>
+      <c r="G19" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <v xml:space="preserve"> si ,st ,stn ,sn ,yk ,yv</v>
       </c>
     </row>
   </sheetData>
@@ -2377,15 +2810,16 @@
     <hyperlink ref="A16" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F19"/>
+  <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2397,22 +2831,22 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>65</v>
+        <v>223</v>
       </c>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2429,124 +2863,251 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>66</v>
+        <v>258</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>66</v>
+        <v>258</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>93</v>
+        <v>222</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> yi varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> yi</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _yi: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>67</v>
+        <v>217</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>67</v>
+        <v>217</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>94</v>
+        <v>224</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,yt VARCHAR(20) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,yt</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J9" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _yt: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>95</v>
+        <v>225</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,ytn VARCHAR(20) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I9" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,ytn</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ytn: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="B7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,yn VARCHAR(20) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,yn</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _yn: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,yk VARCHAR(20) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,yk</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _yk: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>221</v>
+      </c>
       <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="D9" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,yv VARCHAR(400) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,yv</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _yv: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:10">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:10">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="D12" s="8"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:10">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:10">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:10">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:10">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="18" spans="1:7">
+      <c r="G18" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+        <v xml:space="preserve"> yi varchar(50) PRIMARY KEY ,yt VARCHAR(20)  ,ytn VARCHAR(20)  ,yn VARCHAR(20)  ,yk VARCHAR(20)  ,yv VARCHAR(400) </v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="18" t="s">
-        <v>92</v>
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
+        <v>204</v>
+      </c>
+      <c r="G19" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <v xml:space="preserve"> yi ,yt ,ytn ,yn ,yk ,yv</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="F20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="F21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="F22" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2558,6 +3119,7 @@
     <hyperlink ref="A19" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2577,44 +3139,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="B2" s="7">
         <v>43415</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="B3" s="7">
         <v>43528</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2625,10 +3187,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F15"/>
+  <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2640,22 +3202,22 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2672,120 +3234,150 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> aI varchar(50) PRIMARY KEY</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>245</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,aN varchar(10) </v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>247</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G12" si="0">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,aM varchar(11) </v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>248</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,aE varchar(20) </v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="B8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,aT varchar(50) </v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>250</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,aQ varchar(100) </v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="13" spans="1:7">
+      <c r="G13" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
+        <v xml:space="preserve"> aI varchar(50) PRIMARY KEY ,aN varchar(10)  ,aM varchar(11)  ,aE varchar(20)  ,aT varchar(50)  ,aQ varchar(100) </v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="18" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2802,10 +3394,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F18"/>
+  <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2817,7 +3409,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2828,11 +3420,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2849,167 +3441,251 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> uI varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> uI</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,aI varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,aI</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G12" si="0">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,uN varchar(10) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I12" si="1">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,uN</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,hIU varchar(200) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,hIU</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>100</v>
+        <v>252</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,biy varchar(10) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,biy</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,rn varchar(10) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,rn</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,iC varchar(20) </v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,iC</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>256</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,uS varchar(4) </v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,uS</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,uCt varchar(11) </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,uCt</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:9">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:9">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="16" spans="1:9">
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
+        <v xml:space="preserve"> uI varchar(50) PRIMARY KEY ,aI varchar(50)  ,uN varchar(10)  ,hIU varchar(200)  ,biy varchar(10)  ,rn varchar(10)  ,iC varchar(20)  ,uS varchar(4)  ,uCt varchar(11) </v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,)</f>
+        <v xml:space="preserve"> uI ,aI ,uN ,hIU ,biy ,rn ,iC ,uS ,uCt</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="18" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3027,10 +3703,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F20"/>
+  <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3042,7 +3718,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3053,11 +3729,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F2" s="23"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3074,185 +3750,301 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> sI varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> sI</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _sI: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,sN varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,sN</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J12" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _sN: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,uI varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I12" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,uI</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _uI: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>134</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sd varchar(20) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sd</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sd: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="10" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,st varchar(20) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,st</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _st: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ed varchar(20) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ed</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ed: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="10" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="10" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="27">
+        <v>135</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,et varchar(20) </v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,et</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>private _et: string;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="27">
       <c r="A11" s="5" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>256</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,rT varchar(4) </v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,rT</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>private _rT: string;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ji varchar(50) </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ji</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ji: string;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:10">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:10">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:10">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
+        <v xml:space="preserve"> sI varchar(50) PRIMARY KEY ,sN varchar(50)  ,uI varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,rT varchar(4)  ,ji varchar(50) </v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,)</f>
+        <v xml:space="preserve"> sI ,sN ,uI ,sd ,st ,ed ,et ,rT ,ji</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="18" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3270,10 +4062,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F19"/>
+  <dimension ref="A2:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3285,22 +4077,22 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="F2" s="23"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3317,186 +4109,316 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> spI varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> spI</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _spI: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,sI varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,sI</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J13" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _sI: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,spN varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I12" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,spN</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _spN: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>134</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sd varchar(20) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sd</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sd: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="10" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,st varchar(20) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,st</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _st: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ed varchar(20) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ed</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ed: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="10" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="10" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,et varchar(20) </v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,et</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>private _et: string;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ji varchar(50) </v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ji</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ji: string;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,bz varchar(50) </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,bz</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>private _bz: string;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>147</v>
+        <v>254</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>256</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" ref="G13" si="3">" ," &amp; E13 &amp; " " &amp; F13 &amp; " "</f>
+        <v xml:space="preserve"> ,sta varchar(4) </v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ref="I13" si="4">" ," &amp; E13</f>
+        <v xml:space="preserve"> ,sta</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sta: string;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:10">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:10">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+        <v xml:space="preserve"> spI varchar(50) PRIMARY KEY ,sI varchar(50)  ,spN varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,ji varchar(50)  ,bz varchar(50)  ,sta varchar(4) </v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <v xml:space="preserve"> spI ,sI ,spN ,sd ,st ,ed ,et ,ji ,bz ,sta</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="18" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3508,15 +4430,16 @@
     <hyperlink ref="A19" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F15"/>
+  <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G4" sqref="G4:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3528,7 +4451,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3539,11 +4462,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3560,152 +4483,272 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> pI varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> pI</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _pI: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,sI varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,sI</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J13" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _sI: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G13" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,sT varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I13" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,sT</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sT: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,son varchar(50) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,son</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _son: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>255</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sa varchar(4) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sa</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sa: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,aI varchar(50) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,aI</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _aI: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>255</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ib varchar(4) </v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ib</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ib: string;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,bi varchar(50) </v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,bi</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>private _bi: string;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>255</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sdt varchar(4) </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sdt</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sdt: string;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="18" t="s">
-        <v>92</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+        <v xml:space="preserve"> pI varchar(50) PRIMARY KEY ,sI varchar(50)  ,sT varchar(50)  ,son varchar(50)  ,sa varchar(4)  ,aI varchar(50)  ,ib varchar(4)  ,bi varchar(50)  ,sdt varchar(4) </v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <v xml:space="preserve"> pI ,sI ,sT ,son ,sa ,aI ,ib ,bi ,sdt</v>
       </c>
     </row>
   </sheetData>
@@ -3723,10 +4766,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F16"/>
+  <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3738,7 +4781,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3749,11 +4792,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3770,121 +4813,191 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> wI varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> wI</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _wI: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,sI varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,sI</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J9" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _sI: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,sT varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I9" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,sT</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sT: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>134</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,wD varchar(20) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,wD</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _wD: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>134</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,wT varchar(20) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,wT</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _wT: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:10">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:10">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:10">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:10">
       <c r="A16" s="18" t="s">
-        <v>92</v>
+        <v>77</v>
+      </c>
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+        <v xml:space="preserve"> wI varchar(50) PRIMARY KEY ,sI varchar(50)  ,sT varchar(50)  ,wD varchar(20)  ,wT varchar(20) </v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <v xml:space="preserve"> wI ,sI ,sT ,wD ,wT</v>
       </c>
     </row>
   </sheetData>
@@ -3896,15 +5009,16 @@
     <hyperlink ref="A16" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G15" sqref="G15:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3915,22 +5029,22 @@
     <col min="6" max="6" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="F1" s="21"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -3947,109 +5061,157 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="B3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>52</v>
+      </c>
+      <c r="G3" t="str">
+        <f>" " &amp; E3 &amp; " " &amp; F3 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> ji VARCHAR(50) PRIMARY KEY</v>
+      </c>
+      <c r="I3" t="str">
+        <f>" " &amp; E3</f>
+        <v xml:space="preserve"> ji</v>
+      </c>
+      <c r="J3" t="str">
+        <f>"private _"&amp;E3&amp;": string;"</f>
+        <v>private _ji: string;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>131</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" ," &amp; E4 &amp; " " &amp; F4 &amp; " "</f>
+        <v xml:space="preserve"> ,jn VARCHAR(100) </v>
+      </c>
+      <c r="I4" t="str">
+        <f>" ," &amp; E4</f>
+        <v xml:space="preserve"> ,jn</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J5" si="0">"private _"&amp;E4&amp;": string;"</f>
+        <v>private _jn: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5" si="1">" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,jg VARCHAR(100) </v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" ref="I5" si="2">" ," &amp; E5</f>
+        <v xml:space="preserve"> ,jg</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>private _jg: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:10">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:10">
       <c r="A14" s="18" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="G15" t="str">
+        <f>CONCATENATE(G3,G4,G5,G6,G7,G8,G9,G10,G11,G12)</f>
+        <v xml:space="preserve"> ji VARCHAR(50) PRIMARY KEY ,jn VARCHAR(100)  ,jg VARCHAR(100) </v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="G16" t="str">
+        <f>CONCATENATE(I3,I4,I5,I6,I7,I8,I9,I10,I11,I12)</f>
+        <v xml:space="preserve"> ji ,jn ,jg</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4060,5 +5222,6 @@
     <hyperlink ref="A14" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="893" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="893" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="263">
   <si>
     <t>表名</t>
   </si>
@@ -1030,6 +1030,18 @@
   </si>
   <si>
     <t>pwI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划颜色标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1513,7 +1525,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1704,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2357,7 +2369,7 @@
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:G17"/>
+      <selection activeCell="D24" sqref="D24:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3287,7 +3299,7 @@
         <v>247</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" ref="G6:G12" si="0">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <f t="shared" ref="G6:G9" si="0">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
         <v xml:space="preserve"> ,aM varchar(11) </v>
       </c>
     </row>
@@ -4533,7 +4545,7 @@
         <v xml:space="preserve"> ,sI</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J13" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <f t="shared" ref="J5:J12" si="0">"private _"&amp;E5&amp;": string;"</f>
         <v>private _sI: string;</v>
       </c>
     </row>
@@ -4554,11 +4566,11 @@
         <v>30</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" ref="G6:G13" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
         <v xml:space="preserve"> ,sT varchar(50) </v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" ref="I6:I13" si="2">" ," &amp; E6</f>
+        <f t="shared" ref="I6:I12" si="2">" ," &amp; E6</f>
         <v xml:space="preserve"> ,sT</v>
       </c>
       <c r="J6" t="str">
@@ -4863,7 +4875,7 @@
         <v xml:space="preserve"> ,sI</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J9" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <f t="shared" ref="J5:J8" si="0">"private _"&amp;E5&amp;": string;"</f>
         <v>private _sI: string;</v>
       </c>
     </row>
@@ -4884,11 +4896,11 @@
         <v>30</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <f t="shared" ref="G6:G8" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
         <v xml:space="preserve"> ,sT varchar(50) </v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" ref="I6:I9" si="2">" ," &amp; E6</f>
+        <f t="shared" ref="I6:I8" si="2">" ," &amp; E6</f>
         <v xml:space="preserve"> ,sT</v>
       </c>
       <c r="J6" t="str">
@@ -5017,8 +5029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5143,11 +5155,19 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>260</v>
+      </c>
       <c r="B6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5"/>

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="893" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="893"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="群组参与人关系" sheetId="8" r:id="rId12"/>
     <sheet name="系統設置表" sheetId="29" r:id="rId13"/>
     <sheet name="用户偏好" sheetId="39" r:id="rId14"/>
+    <sheet name="系統設置表数据" sheetId="46" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="300">
   <si>
     <t>表名</t>
   </si>
@@ -188,15 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GTD_C</t>
-  </si>
-  <si>
-    <t>GTD_D</t>
-  </si>
-  <si>
-    <t>GTD_E</t>
-  </si>
-  <si>
     <t>系统设置名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,10 +229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GTD_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关系群组主键ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,10 +249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GTD_B_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>授权表主键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,30 +305,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uCt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ran</t>
   </si>
   <si>
@@ -360,30 +324,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hiu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rNpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -396,14 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -434,14 +370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>son</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -558,26 +486,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GTD_J_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提醒时间表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>v0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -626,10 +538,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GTD_U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>账户ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -646,18 +554,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>token</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>联系方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -674,10 +574,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0：关闭，1：每日，2：每周，3：每月，4：每年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -686,14 +582,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GTD_SP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -714,34 +602,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日程提醒日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日程事件类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1：修改，2：删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -754,42 +622,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GTD_G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>组名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参与人账户ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开始日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -810,10 +654,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>唤醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -834,14 +674,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系统设置类型名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>语音</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -854,194 +686,489 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>系统版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(400)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏好设置类型</t>
+  </si>
+  <si>
+    <t>偏好设置类型名称</t>
+  </si>
+  <si>
+    <t>偏好设置名称</t>
+  </si>
+  <si>
+    <t>偏好设置key</t>
+  </si>
+  <si>
+    <t>偏好设置value</t>
+  </si>
+  <si>
+    <t>yi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ytn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户偏好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏好主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划颜色标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>di</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头部信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统数据完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>语音</t>
+  </si>
+  <si>
     <t>画面msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>系统版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(400)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏好设置类型</t>
-  </si>
-  <si>
-    <t>偏好设置类型名称</t>
-  </si>
-  <si>
-    <t>偏好设置名称</t>
-  </si>
-  <si>
-    <t>偏好设置key</t>
-  </si>
-  <si>
-    <t>偏好设置value</t>
-  </si>
-  <si>
-    <t>yi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ytn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户偏好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hIU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头部信息</t>
+  </si>
+  <si>
+    <t>speech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formmsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysversion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品ID</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>产品版本</t>
+  </si>
+  <si>
+    <t>pv</t>
+  </si>
+  <si>
+    <t>设备ID</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>帐户ID</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>设备类型</t>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>lt</t>
+  </si>
+  <si>
+    <t>init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：系统 2：自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程关联ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>hiu</t>
   </si>
   <si>
     <t>biy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏好主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划颜色标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(10)</t>
+  </si>
+  <si>
+    <t>rn</t>
+  </si>
+  <si>
+    <t>ic</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>uct</t>
+  </si>
+  <si>
+    <t>gtd_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_j_h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rnpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_b_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j_h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1525,7 +1652,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1535,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1553,106 +1680,106 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>229</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>231</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>233</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>143</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>234</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>236</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>237</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>144</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>241</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1717,7 +1844,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1740,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
       <c r="F2" s="21"/>
     </row>
@@ -1763,41 +1890,41 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> pwI varchar(50) PRIMARY KEY</v>
+        <v xml:space="preserve"> pwi varchar(50) PRIMARY KEY</v>
       </c>
       <c r="I4" t="str">
         <f>" " &amp; E4</f>
-        <v xml:space="preserve"> pwI</v>
+        <v xml:space="preserve"> pwi</v>
       </c>
       <c r="J4" t="str">
         <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _pwI: string;</v>
+        <v>private _pwi: string;</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>30</v>
@@ -1817,14 +1944,14 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>39</v>
@@ -1844,44 +1971,44 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>89</v>
+        <v>278</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,rI varchar(50) </v>
+        <v xml:space="preserve"> ,ri varchar(50) </v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,rI</v>
+        <v xml:space="preserve"> ,ri</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>private _rI: string;</v>
+        <v>private _ri: string;</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -1898,83 +2025,83 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,rN varchar(20) </v>
+        <v xml:space="preserve"> ,rn varchar(20) </v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,rN</v>
+        <v xml:space="preserve"> ,rn</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>private _rN: string;</v>
+        <v>private _rn: string;</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>92</v>
+        <v>279</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,rNpy varchar(20) </v>
+        <v xml:space="preserve"> ,rnpy varchar(20) </v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,rNpy</v>
+        <v xml:space="preserve"> ,rnpy</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>private _rNpy: string;</v>
+        <v>private _rnpy: string;</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>93</v>
+        <v>280</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,rC varchar(20) </v>
+        <v xml:space="preserve"> ,rc varchar(20) </v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,rC</v>
+        <v xml:space="preserve"> ,rc</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>private _rC: string;</v>
+        <v>private _rc: string;</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1982,45 +2109,45 @@
         <v>41</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>94</v>
+        <v>281</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,rF varchar(4) </v>
+        <v xml:space="preserve"> ,rf varchar(4) </v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,rF</v>
+        <v xml:space="preserve"> ,rf</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>private _rF: string;</v>
+        <v>private _rf: string;</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
@@ -2037,19 +2164,19 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" ref="G14:G15" si="3">" ," &amp; E14 &amp; " " &amp; F14 &amp; " "</f>
@@ -2066,29 +2193,29 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> ,uI varchar(50) </v>
+        <v xml:space="preserve"> ,ui varchar(50) </v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> ,uI</v>
+        <v xml:space="preserve"> ,ui</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="5"/>
-        <v>private _uI: string;</v>
+        <v>private _ui: string;</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2099,7 +2226,7 @@
       <c r="F16" s="4"/>
       <c r="G16" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13,G14,G15)</f>
-        <v xml:space="preserve"> pwI varchar(50) PRIMARY KEY ,ran varchar(50)  ,ranpy varchar(20)  ,rI varchar(50)  ,hiu varchar(200)  ,rN varchar(20)  ,rNpy varchar(20)  ,rC varchar(20)  ,rF varchar(4)  ,ot varchar(4)  ,rel varchar(4)  ,uI varchar(50) </v>
+        <v xml:space="preserve"> pwi varchar(50) PRIMARY KEY ,ran varchar(50)  ,ranpy varchar(20)  ,ri varchar(50)  ,hiu varchar(200)  ,rn varchar(20)  ,rnpy varchar(20)  ,rc varchar(20)  ,rf varchar(4)  ,ot varchar(4)  ,rel varchar(4)  ,ui varchar(50) </v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2110,12 +2237,12 @@
       <c r="F17" s="4"/>
       <c r="G17" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13,I14,I15)</f>
-        <v xml:space="preserve"> pwI ,ran ,ranpy ,rI ,hiu ,rN ,rNpy ,rC ,rF ,ot ,rel ,uI</v>
+        <v xml:space="preserve"> pwi ,ran ,ranpy ,ri ,hiu ,rn ,rnpy ,rc ,rf ,ot ,rel ,ui</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2136,7 +2263,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:G17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2153,13 +2280,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>189</v>
+        <v>282</v>
       </c>
       <c r="F2" s="21"/>
     </row>
@@ -2182,83 +2309,83 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>191</v>
+        <v>283</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> gI varchar(50) PRIMARY KEY</v>
+        <v xml:space="preserve"> gi varchar(50) PRIMARY KEY</v>
       </c>
       <c r="I4" t="str">
         <f>" " &amp; E4</f>
-        <v xml:space="preserve"> gI</v>
+        <v xml:space="preserve"> gi</v>
       </c>
       <c r="J4" t="str">
         <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _gI: string;</v>
+        <v>private _gi: string;</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>192</v>
+        <v>284</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,gN varchar(50) </v>
+        <v xml:space="preserve"> ,gn varchar(50) </v>
       </c>
       <c r="I5" t="str">
         <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,gN</v>
+        <v xml:space="preserve"> ,gn</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" ref="J5:J6" si="0">"private _"&amp;E5&amp;": string;"</f>
-        <v>private _gN: string;</v>
+        <v>private _gn: string;</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>194</v>
+        <v>285</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,gM varchar(50) </v>
+        <v xml:space="preserve"> ,gm varchar(50) </v>
       </c>
       <c r="I6" t="str">
         <f t="shared" ref="I6" si="2">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,gM</v>
+        <v xml:space="preserve"> ,gm</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>private _gM: string;</v>
+        <v>private _gm: string;</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2332,7 +2459,7 @@
       <c r="F16" s="4"/>
       <c r="G16" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
-        <v xml:space="preserve"> gI varchar(50) PRIMARY KEY ,gN varchar(50)  ,gM varchar(50) </v>
+        <v xml:space="preserve"> gi varchar(50) PRIMARY KEY ,gn varchar(50)  ,gm varchar(50) </v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2343,12 +2470,12 @@
       <c r="F17" s="4"/>
       <c r="G17" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
-        <v xml:space="preserve"> gI ,gN ,gM</v>
+        <v xml:space="preserve"> gi ,gn ,gm</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2369,7 +2496,7 @@
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:E25"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2392,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>64</v>
+        <v>286</v>
       </c>
       <c r="F2" s="21"/>
     </row>
@@ -2415,17 +2542,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -2442,17 +2569,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -2511,7 +2638,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2541,10 +2668,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J19"/>
+  <dimension ref="A2:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2567,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>195</v>
+        <v>287</v>
       </c>
       <c r="F2" s="21"/>
     </row>
@@ -2590,14 +2717,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -2617,17 +2744,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -2646,13 +2773,13 @@
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -2669,17 +2796,17 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -2696,17 +2823,17 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -2725,13 +2852,13 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -2776,29 +2903,23 @@
     </row>
     <row r="15" spans="1:10">
       <c r="D15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="5:7">
-      <c r="E18" t="s">
-        <v>214</v>
-      </c>
       <c r="G18" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
         <v xml:space="preserve"> si varchar(50) PRIMARY KEY ,st VARCHAR(20)  ,stn VARCHAR(20)  ,sn VARCHAR(20)  ,yk VARCHAR(20)  ,yv VARCHAR(400) </v>
@@ -2806,11 +2927,73 @@
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="G19" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
         <v xml:space="preserve"> si ,st ,stn ,sn ,yk ,yv</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20" t="s">
+        <v>214</v>
+      </c>
+      <c r="F20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="F21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7">
+      <c r="F22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7">
+      <c r="F23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="F24" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="F25" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7">
+      <c r="E26" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2831,7 +3014,7 @@
   <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2848,13 +3031,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="F2" s="21"/>
     </row>
@@ -2877,14 +3060,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -2904,17 +3087,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -2931,17 +3114,17 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -2958,17 +3141,17 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -2985,17 +3168,17 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -3012,17 +3195,17 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -3094,13 +3277,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="G19" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
@@ -3109,17 +3292,17 @@
     </row>
     <row r="20" spans="1:7">
       <c r="F20" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="F21" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="F22" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3132,6 +3315,175 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3165,7 +3517,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B2" s="7">
         <v>43415</v>
@@ -3179,16 +3531,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B3" s="7">
         <v>43528</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3202,7 +3554,7 @@
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3219,13 +3571,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F2" s="21"/>
     </row>
@@ -3248,116 +3600,116 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> aI varchar(50) PRIMARY KEY</v>
+        <v xml:space="preserve"> ai varchar(50) PRIMARY KEY</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>245</v>
+        <v>189</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,aN varchar(10) </v>
+        <v xml:space="preserve"> ,an varchar(10) </v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G9" si="0">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,aM varchar(11) </v>
+        <v xml:space="preserve"> ,am varchar(11) </v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> ,aE varchar(20) </v>
+        <v xml:space="preserve"> ,ae varchar(20) </v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="B8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> ,aT varchar(50) </v>
+        <v xml:space="preserve"> ,at varchar(50) </v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>84</v>
+        <v>254</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> ,aQ varchar(100) </v>
+        <v xml:space="preserve"> ,aq varchar(100) </v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3384,12 +3736,12 @@
     <row r="13" spans="1:7">
       <c r="G13" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
-        <v xml:space="preserve"> aI varchar(50) PRIMARY KEY ,aN varchar(10)  ,aM varchar(11)  ,aE varchar(20)  ,aT varchar(50)  ,aQ varchar(100) </v>
+        <v xml:space="preserve"> ai varchar(50) PRIMARY KEY ,an varchar(10)  ,am varchar(11)  ,ae varchar(20)  ,at varchar(50)  ,aq varchar(100) </v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3409,7 +3761,7 @@
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3432,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="F2" s="21"/>
     </row>
@@ -3461,42 +3813,42 @@
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>79</v>
+      <c r="E4" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> uI varchar(50) PRIMARY KEY</v>
+        <v xml:space="preserve"> ui varchar(50) PRIMARY KEY</v>
       </c>
       <c r="I4" t="str">
         <f>" " &amp; E4</f>
-        <v xml:space="preserve"> uI</v>
+        <v xml:space="preserve"> ui</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>162</v>
+        <v>134</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,aI varchar(50) </v>
+        <v xml:space="preserve"> ,ai varchar(50) </v>
       </c>
       <c r="I5" t="str">
         <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,aI</v>
+        <v xml:space="preserve"> ,ai</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3507,19 +3859,19 @@
       <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>80</v>
+      <c r="E6" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G12" si="0">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,uN varchar(10) </v>
+        <v xml:space="preserve"> ,un varchar(10) </v>
       </c>
       <c r="I6" t="str">
         <f t="shared" ref="I6:I12" si="1">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,uN</v>
+        <v xml:space="preserve"> ,un</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3530,19 +3882,19 @@
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>251</v>
+      <c r="E7" s="5" t="s">
+        <v>258</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> ,hIU varchar(200) </v>
+        <v xml:space="preserve"> ,hiu varchar(200) </v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,hIU</v>
+        <v xml:space="preserve"> ,hiu</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3553,8 +3905,8 @@
       <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>252</v>
+      <c r="E8" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>14</v>
@@ -3576,8 +3928,8 @@
       <c r="D9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>81</v>
+      <c r="E9" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>14</v>
@@ -3599,19 +3951,19 @@
       <c r="D10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>82</v>
+      <c r="E10" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> ,iC varchar(20) </v>
+        <v xml:space="preserve"> ,ic varchar(20) </v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,iC</v>
+        <v xml:space="preserve"> ,ic</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3624,42 +3976,42 @@
       <c r="D11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>253</v>
+      <c r="E11" s="5" t="s">
+        <v>262</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> ,uS varchar(4) </v>
+        <v xml:space="preserve"> ,us varchar(4) </v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,uS</v>
+        <v xml:space="preserve"> ,us</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>83</v>
+        <v>139</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> ,uCt varchar(11) </v>
+        <v xml:space="preserve"> ,uct varchar(11) </v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,uCt</v>
+        <v xml:space="preserve"> ,uct</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3686,18 +4038,18 @@
     <row r="16" spans="1:9">
       <c r="G16" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
-        <v xml:space="preserve"> uI varchar(50) PRIMARY KEY ,aI varchar(50)  ,uN varchar(10)  ,hIU varchar(200)  ,biy varchar(10)  ,rn varchar(10)  ,iC varchar(20)  ,uS varchar(4)  ,uCt varchar(11) </v>
+        <v xml:space="preserve"> ui varchar(50) PRIMARY KEY ,ai varchar(50)  ,un varchar(10)  ,hiu varchar(200)  ,biy varchar(10)  ,rn varchar(10)  ,ic varchar(20)  ,us varchar(4)  ,uct varchar(11) </v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="G17" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,)</f>
-        <v xml:space="preserve"> uI ,aI ,uN ,hIU ,biy ,rn ,iC ,uS ,uCt</v>
+        <v xml:space="preserve"> ui ,ai ,un ,hiu ,biy ,rn ,ic ,us ,uct</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3718,7 +4070,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3741,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="F2" s="23"/>
     </row>
@@ -3771,92 +4123,92 @@
         <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> sI varchar(50) PRIMARY KEY</v>
+        <v xml:space="preserve"> si varchar(50) PRIMARY KEY</v>
       </c>
       <c r="I4" t="str">
         <f>" " &amp; E4</f>
-        <v xml:space="preserve"> sI</v>
+        <v xml:space="preserve"> si</v>
       </c>
       <c r="J4" t="str">
         <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _sI: string;</v>
+        <v>private _si: string;</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,sN varchar(50) </v>
+        <v xml:space="preserve"> ,sn varchar(50) </v>
       </c>
       <c r="I5" t="str">
         <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,sN</v>
+        <v xml:space="preserve"> ,sn</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J12" si="0">"private _"&amp;E5&amp;": string;"</f>
-        <v>private _sN: string;</v>
+        <f t="shared" ref="J5:J13" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _sn: string;</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,uI varchar(50) </v>
+        <v xml:space="preserve"> ,ui varchar(50) </v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" ref="I6:I12" si="2">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,uI</v>
+        <f t="shared" ref="I6:I13" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,ui</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>private _uI: string;</v>
+        <v>private _ui: string;</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -3873,15 +4225,15 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="10" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>39</v>
@@ -3901,15 +4253,15 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>39</v>
@@ -3929,18 +4281,18 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="10" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="10" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
@@ -3957,43 +4309,43 @@
     </row>
     <row r="11" spans="1:10" ht="27">
       <c r="A11" s="5" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>169</v>
+        <v>266</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,rT varchar(4) </v>
+        <v xml:space="preserve"> ,rt varchar(4) </v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,rT</v>
+        <v xml:space="preserve"> ,rt</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>private _rT: string;</v>
+        <v>private _rt: string;</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>30</v>
@@ -4012,11 +4364,27 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>247</v>
+      </c>
       <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="D13" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sr</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sr: string;</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5"/>
@@ -4040,7 +4408,7 @@
       <c r="F16" s="4"/>
       <c r="G16" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
-        <v xml:space="preserve"> sI varchar(50) PRIMARY KEY ,sN varchar(50)  ,uI varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,rT varchar(4)  ,ji varchar(50) </v>
+        <v xml:space="preserve"> si varchar(50) PRIMARY KEY ,sn varchar(50)  ,ui varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,rt varchar(4)  ,ji varchar(50) </v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4051,12 +4419,12 @@
       <c r="F17" s="4"/>
       <c r="G17" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,)</f>
-        <v xml:space="preserve"> sI ,sN ,uI ,sd ,st ,ed ,et ,rT ,ji</v>
+        <v xml:space="preserve"> si ,sn ,ui ,sd ,st ,ed ,et ,rt ,ji</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4077,7 +4445,7 @@
   <dimension ref="A2:J19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:J13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4094,13 +4462,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>172</v>
+        <v>267</v>
       </c>
       <c r="F2" s="23"/>
     </row>
@@ -4123,29 +4491,29 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> spI varchar(50) PRIMARY KEY</v>
+        <v xml:space="preserve"> spi varchar(50) PRIMARY KEY</v>
       </c>
       <c r="I4" t="str">
         <f>" " &amp; E4</f>
-        <v xml:space="preserve"> spI</v>
+        <v xml:space="preserve"> spi</v>
       </c>
       <c r="J4" t="str">
         <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _spI: string;</v>
+        <v>private _spi: string;</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4157,65 +4525,65 @@
         <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,sI varchar(50) </v>
+        <v xml:space="preserve"> ,si varchar(50) </v>
       </c>
       <c r="I5" t="str">
         <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,sI</v>
+        <v xml:space="preserve"> ,si</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" ref="J5:J13" si="0">"private _"&amp;E5&amp;": string;"</f>
-        <v>private _sI: string;</v>
+        <v>private _si: string;</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,spN varchar(50) </v>
+        <v xml:space="preserve"> ,spn varchar(50) </v>
       </c>
       <c r="I6" t="str">
         <f t="shared" ref="I6:I12" si="2">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,spN</v>
+        <v xml:space="preserve"> ,spn</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>private _spN: string;</v>
+        <v>private _spn: string;</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -4232,15 +4600,15 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="10" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>39</v>
@@ -4260,15 +4628,15 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>39</v>
@@ -4288,15 +4656,15 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="10" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="10" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>39</v>
@@ -4316,14 +4684,14 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>30</v>
@@ -4343,14 +4711,14 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>30</v>
@@ -4370,19 +4738,19 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ref="G13" si="3">" ," &amp; E13 &amp; " " &amp; F13 &amp; " "</f>
@@ -4419,18 +4787,18 @@
       <c r="F16" s="4"/>
       <c r="G16" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
-        <v xml:space="preserve"> spI varchar(50) PRIMARY KEY ,sI varchar(50)  ,spN varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,ji varchar(50)  ,bz varchar(50)  ,sta varchar(4) </v>
+        <v xml:space="preserve"> spi varchar(50) PRIMARY KEY ,si varchar(50)  ,spn varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,ji varchar(50)  ,bz varchar(50)  ,sta varchar(4) </v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="G17" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
-        <v xml:space="preserve"> spI ,sI ,spN ,sd ,st ,ed ,et ,ji ,bz ,sta</v>
+        <v xml:space="preserve"> spi ,si ,spn ,sd ,st ,ed ,et ,ji ,bz ,sta</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4451,7 +4819,7 @@
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:J9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4474,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>46</v>
+        <v>270</v>
       </c>
       <c r="F2" s="21"/>
     </row>
@@ -4504,78 +4872,78 @@
         <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> pI varchar(50) PRIMARY KEY</v>
+        <v xml:space="preserve"> pi varchar(50) PRIMARY KEY</v>
       </c>
       <c r="I4" t="str">
         <f>" " &amp; E4</f>
-        <v xml:space="preserve"> pI</v>
+        <v xml:space="preserve"> pi</v>
       </c>
       <c r="J4" t="str">
         <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _pI: string;</v>
+        <v>private _pi: string;</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,sI varchar(50) </v>
+        <v xml:space="preserve"> ,si varchar(50) </v>
       </c>
       <c r="I5" t="str">
         <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,sI</v>
+        <v xml:space="preserve"> ,si</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" ref="J5:J12" si="0">"private _"&amp;E5&amp;": string;"</f>
-        <v>private _sI: string;</v>
+        <v>private _si: string;</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,sT varchar(50) </v>
+        <v xml:space="preserve"> ,st varchar(50) </v>
       </c>
       <c r="I6" t="str">
         <f t="shared" ref="I6:I12" si="2">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,sT</v>
+        <v xml:space="preserve"> ,st</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>private _sT: string;</v>
+        <v>private _st: string;</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4587,7 +4955,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>29</v>
@@ -4610,16 +4978,16 @@
         <v>43</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -4636,46 +5004,46 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,aI varchar(50) </v>
+        <v xml:space="preserve"> ,ai varchar(50) </v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,aI</v>
+        <v xml:space="preserve"> ,ai</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>private _aI: string;</v>
+        <v>private _ai: string;</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
@@ -4692,14 +5060,14 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>29</v>
@@ -4719,19 +5087,19 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
@@ -4748,19 +5116,19 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="G16" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
-        <v xml:space="preserve"> pI varchar(50) PRIMARY KEY ,sI varchar(50)  ,sT varchar(50)  ,son varchar(50)  ,sa varchar(4)  ,aI varchar(50)  ,ib varchar(4)  ,bi varchar(50)  ,sdt varchar(4) </v>
+        <v xml:space="preserve"> pi varchar(50) PRIMARY KEY ,si varchar(50)  ,st varchar(50)  ,son varchar(50)  ,sa varchar(4)  ,ai varchar(50)  ,ib varchar(4)  ,bi varchar(50)  ,sdt varchar(4) </v>
       </c>
     </row>
     <row r="17" spans="7:7">
       <c r="G17" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
-        <v xml:space="preserve"> pI ,sI ,sT ,son ,sa ,aI ,ib ,bi ,sdt</v>
+        <v xml:space="preserve"> pi ,si ,st ,son ,sa ,ai ,ib ,bi ,sdt</v>
       </c>
     </row>
   </sheetData>
@@ -4781,7 +5149,7 @@
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4804,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>47</v>
+        <v>271</v>
       </c>
       <c r="F2" s="21"/>
     </row>
@@ -4834,22 +5202,22 @@
         <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>180</v>
+        <v>272</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> wI varchar(50) PRIMARY KEY</v>
+        <v xml:space="preserve"> wi varchar(50) PRIMARY KEY</v>
       </c>
       <c r="I4" t="str">
         <f>" " &amp; E4</f>
-        <v xml:space="preserve"> wI</v>
+        <v xml:space="preserve"> wi</v>
       </c>
       <c r="J4" t="str">
         <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _wI: string;</v>
+        <v>private _wi: string;</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4861,78 +5229,78 @@
         <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,sI varchar(50) </v>
+        <v xml:space="preserve"> ,si varchar(50) </v>
       </c>
       <c r="I5" t="str">
         <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,sI</v>
+        <v xml:space="preserve"> ,si</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" ref="J5:J8" si="0">"private _"&amp;E5&amp;": string;"</f>
-        <v>private _sI: string;</v>
+        <v>private _si: string;</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G8" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,sT varchar(50) </v>
+        <v xml:space="preserve"> ,st varchar(50) </v>
       </c>
       <c r="I6" t="str">
         <f t="shared" ref="I6:I8" si="2">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,sT</v>
+        <v xml:space="preserve"> ,st</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>private _sT: string;</v>
+        <v>private _st: string;</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>182</v>
+        <v>273</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,wD varchar(20) </v>
+        <v xml:space="preserve"> ,wd varchar(20) </v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,wD</v>
+        <v xml:space="preserve"> ,wd</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>private _wD: string;</v>
+        <v>private _wd: string;</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4944,22 +5312,22 @@
         <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>183</v>
+        <v>274</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,wT varchar(20) </v>
+        <v xml:space="preserve"> ,wt varchar(20) </v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,wT</v>
+        <v xml:space="preserve"> ,wt</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>private _wT: string;</v>
+        <v>private _wt: string;</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4999,17 +5367,17 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G16" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
-        <v xml:space="preserve"> wI varchar(50) PRIMARY KEY ,sI varchar(50)  ,sT varchar(50)  ,wD varchar(20)  ,wT varchar(20) </v>
+        <v xml:space="preserve"> wi varchar(50) PRIMARY KEY ,si varchar(50)  ,st varchar(50)  ,wd varchar(20)  ,wt varchar(20) </v>
       </c>
     </row>
     <row r="17" spans="7:7">
       <c r="G17" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
-        <v xml:space="preserve"> wI ,sI ,sT ,wD ,wT</v>
+        <v xml:space="preserve"> wi ,si ,st ,wd ,wt</v>
       </c>
     </row>
   </sheetData>
@@ -5029,8 +5397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5046,13 +5414,13 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>140</v>
+        <v>275</v>
       </c>
       <c r="F1" s="21"/>
     </row>
@@ -5075,17 +5443,17 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="B3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G3" t="str">
         <f>" " &amp; E3 &amp; " " &amp; F3 &amp; " PRIMARY KEY"</f>
@@ -5102,17 +5470,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="G4" t="str">
         <f>" ," &amp; E4 &amp; " " &amp; F4 &amp; " "</f>
@@ -5129,17 +5497,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ref="G5" si="1">" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -5156,25 +5524,35 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="A7" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5"/>
@@ -5216,7 +5594,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="18" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="893"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="301">
   <si>
     <t>表名</t>
   </si>
@@ -444,731 +444,736 @@
   </si>
   <si>
     <t>计划描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划名称表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0是未被添加，1是同意，2是拉黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友状态标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据最新需求简化表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张金洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程参与人关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组参与人关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户消息队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：关闭，1：每日，2：每周，3：每月，4：每年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程特殊事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程特殊事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程特殊事件主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程提醒日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：修改，2：删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：日程事件，2：日程特殊事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>et</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唤醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新消息提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音播报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(400)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏好设置类型</t>
+  </si>
+  <si>
+    <t>偏好设置类型名称</t>
+  </si>
+  <si>
+    <t>偏好设置名称</t>
+  </si>
+  <si>
+    <t>偏好设置key</t>
+  </si>
+  <si>
+    <t>偏好设置value</t>
+  </si>
+  <si>
+    <t>yi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ytn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户偏好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏好主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划颜色标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>di</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头部信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统数据完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>语音</t>
+  </si>
+  <si>
+    <t>画面msg</t>
+  </si>
+  <si>
+    <t>系统版本</t>
+  </si>
+  <si>
+    <t>头部信息</t>
+  </si>
+  <si>
+    <t>speech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formmsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysversion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品ID</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>产品版本</t>
+  </si>
+  <si>
+    <t>pv</t>
+  </si>
+  <si>
+    <t>设备ID</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>帐户ID</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>设备类型</t>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>lt</t>
+  </si>
+  <si>
+    <t>init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：系统 2：自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程关联ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>hiu</t>
+  </si>
+  <si>
+    <t>biy</t>
+  </si>
+  <si>
+    <t>rn</t>
+  </si>
+  <si>
+    <t>ic</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>uct</t>
+  </si>
+  <si>
+    <t>gtd_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_j_h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rnpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_b_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j_h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>计划描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划名称表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0是未被添加，1是同意，2是拉黑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒时间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据最新需求简化表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张金洋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程参与人关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组参与人关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户消息队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：关闭，1：每日，2：每周，3：每月，4：每年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程特殊事件表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程特殊事件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程特殊事件主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程提醒日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：修改，2：删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：日程事件，2：日程特殊事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人账户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>st</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>et</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唤醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新消息提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音播报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>震动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(400)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏好设置类型</t>
-  </si>
-  <si>
-    <t>偏好设置类型名称</t>
-  </si>
-  <si>
-    <t>偏好设置名称</t>
-  </si>
-  <si>
-    <t>偏好设置key</t>
-  </si>
-  <si>
-    <t>偏好设置value</t>
-  </si>
-  <si>
-    <t>yi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ytn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户偏好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏好主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划颜色标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帐户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>di</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头部信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统数据完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>语音</t>
-  </si>
-  <si>
-    <t>画面msg</t>
-  </si>
-  <si>
-    <t>系统版本</t>
-  </si>
-  <si>
-    <t>头部信息</t>
-  </si>
-  <si>
-    <t>speech</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>formmsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysversion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品ID</t>
-  </si>
-  <si>
-    <t>pi</t>
-  </si>
-  <si>
-    <t>产品版本</t>
-  </si>
-  <si>
-    <t>pv</t>
-  </si>
-  <si>
-    <t>设备ID</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>帐户ID</t>
-  </si>
-  <si>
-    <t>ai</t>
-  </si>
-  <si>
-    <t>设备类型</t>
-  </si>
-  <si>
-    <t>dt</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>lt</t>
-  </si>
-  <si>
-    <t>init</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：系统 2：自定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程关联ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>an</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>am</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_u</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>hiu</t>
-  </si>
-  <si>
-    <t>biy</t>
-  </si>
-  <si>
-    <t>rn</t>
-  </si>
-  <si>
-    <t>ic</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>uct</t>
-  </si>
-  <si>
-    <t>gtd_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_sp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_j_h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ri</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rnpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_b_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>j_h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1223,12 +1228,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -1305,7 +1316,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1376,6 +1387,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1652,7 +1672,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1662,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1680,106 +1700,106 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" t="s">
         <v>130</v>
-      </c>
-      <c r="C1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1844,7 +1864,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1867,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F2" s="21"/>
     </row>
@@ -1897,7 +1917,7 @@
         <v>60</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>61</v>
@@ -1970,17 +1990,18 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>30</v>
       </c>
       <c r="G7" t="str">
@@ -2059,7 +2080,7 @@
         <v>77</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>39</v>
@@ -2086,7 +2107,7 @@
         <v>68</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>39</v>
@@ -2105,20 +2126,21 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>195</v>
+      <c r="E12" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
@@ -2134,20 +2156,21 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>195</v>
+      <c r="E13" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
@@ -2176,7 +2199,7 @@
         <v>80</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" ref="G14:G15" si="3">" ," &amp; E14 &amp; " " &amp; F14 &amp; " "</f>
@@ -2200,7 +2223,7 @@
         <v>70</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>30</v>
@@ -2280,13 +2303,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F2" s="21"/>
     </row>
@@ -2316,7 +2339,7 @@
         <v>55</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>61</v>
@@ -2336,14 +2359,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>57</v>
@@ -2363,14 +2386,14 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>57</v>
@@ -2519,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F2" s="21"/>
     </row>
@@ -2694,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F2" s="21"/>
     </row>
@@ -2717,11 +2740,11 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>104</v>
@@ -2773,10 +2796,10 @@
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>48</v>
@@ -2800,7 +2823,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>105</v>
@@ -2827,10 +2850,10 @@
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>48</v>
@@ -2852,13 +2875,13 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -2906,7 +2929,7 @@
         <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2916,7 +2939,7 @@
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="5:7">
@@ -2927,7 +2950,7 @@
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G19" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
@@ -2936,64 +2959,64 @@
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="F21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="F22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="F23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="F24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="F25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3037,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F2" s="21"/>
     </row>
@@ -3060,14 +3083,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -3087,14 +3110,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>48</v>
@@ -3114,14 +3137,14 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>48</v>
@@ -3141,14 +3164,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>48</v>
@@ -3168,14 +3191,14 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>48</v>
@@ -3195,17 +3218,17 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -3283,7 +3306,7 @@
         <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G19" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
@@ -3292,17 +3315,17 @@
     </row>
     <row r="20" spans="1:7">
       <c r="F20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="F21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="F22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3333,152 +3356,152 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" t="s">
         <v>226</v>
       </c>
-      <c r="C6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D6" t="s">
-        <v>228</v>
-      </c>
       <c r="E6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" t="s">
         <v>215</v>
-      </c>
-      <c r="E12" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3517,7 +3540,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="7">
         <v>43415</v>
@@ -3531,16 +3554,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="7">
         <v>43528</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" t="s">
         <v>123</v>
-      </c>
-      <c r="D3" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3571,13 +3594,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F2" s="21"/>
     </row>
@@ -3600,14 +3623,14 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>30</v>
@@ -3619,17 +3642,17 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -3638,17 +3661,17 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G9" si="0">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -3657,17 +3680,17 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -3676,14 +3699,14 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>30</v>
@@ -3695,17 +3718,17 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -3784,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F2" s="21"/>
     </row>
@@ -3814,7 +3837,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>30</v>
@@ -3830,14 +3853,14 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>30</v>
@@ -3860,7 +3883,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>14</v>
@@ -3883,7 +3906,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>16</v>
@@ -3906,7 +3929,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>14</v>
@@ -3929,7 +3952,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>14</v>
@@ -3952,7 +3975,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>39</v>
@@ -3977,10 +4000,10 @@
         <v>18</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
@@ -3993,14 +4016,14 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
@@ -4069,8 +4092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4093,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F2" s="23"/>
     </row>
@@ -4143,11 +4166,11 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>105</v>
@@ -4177,7 +4200,7 @@
         <v>51</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>30</v>
@@ -4197,18 +4220,18 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>85</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -4233,7 +4256,7 @@
         <v>83</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>39</v>
@@ -4253,12 +4276,12 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>86</v>
@@ -4289,10 +4312,10 @@
         <v>84</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
@@ -4309,19 +4332,19 @@
     </row>
     <row r="11" spans="1:10" ht="27">
       <c r="A11" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
@@ -4365,14 +4388,14 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>30</v>
@@ -4387,11 +4410,19 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="B14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="D14" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5"/>
@@ -4444,8 +4475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4462,13 +4493,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F2" s="23"/>
     </row>
@@ -4491,14 +4522,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>30</v>
@@ -4545,14 +4576,14 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>30</v>
@@ -4572,18 +4603,18 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>85</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -4608,7 +4639,7 @@
         <v>83</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>39</v>
@@ -4628,7 +4659,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
@@ -4664,7 +4695,7 @@
         <v>84</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>39</v>
@@ -4711,14 +4742,14 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>30</v>
@@ -4738,19 +4769,19 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ref="G13" si="3">" ," &amp; E13 &amp; " " &amp; F13 &amp; " "</f>
@@ -4819,7 +4850,7 @@
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4842,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F2" s="21"/>
     </row>
@@ -4872,7 +4903,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -4892,7 +4923,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -4919,13 +4950,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>106</v>
@@ -4987,7 +5018,7 @@
         <v>92</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -5004,14 +5035,14 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>157</v>
+        <v>298</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>157</v>
+        <v>298</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>29</v>
@@ -5043,7 +5074,7 @@
         <v>96</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
@@ -5099,7 +5130,7 @@
         <v>99</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
@@ -5172,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F2" s="21"/>
     </row>
@@ -5202,7 +5233,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -5249,13 +5280,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>106</v>
@@ -5278,17 +5309,17 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -5312,10 +5343,10 @@
         <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -5398,7 +5429,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5414,13 +5445,13 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F1" s="21"/>
     </row>
@@ -5443,11 +5474,11 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>89</v>
@@ -5474,13 +5505,13 @@
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>109</v>
+        <v>299</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>107</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G4" t="str">
         <f>" ," &amp; E4 &amp; " " &amp; F4 &amp; " "</f>
@@ -5497,11 +5528,11 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>108</v>
@@ -5524,34 +5555,34 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5594,7 +5625,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IdeaProjects\GTD2\A-开发相关文档素材\6.二期文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -23,9 +28,9 @@
     <sheet name="用户偏好" sheetId="39" r:id="rId14"/>
     <sheet name="系統設置表数据" sheetId="46" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="312">
   <si>
     <t>表名</t>
   </si>
@@ -147,10 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户授权表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日程提醒时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,10 +175,6 @@
     <t>系統設置表</t>
   </si>
   <si>
-    <t>授权标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>授权关系人中间表</t>
   </si>
   <si>
@@ -209,10 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被授权联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>创建者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,14 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关系群组主键ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,46 +234,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>授权表主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被授权联系人别称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(200)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0是未授权，1是授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据归属人ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,14 +265,6 @@
     <t>ran</t>
   </si>
   <si>
-    <t>被授权联系人别称拼音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称拼音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ranpy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -607,580 +552,673 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日程事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：日程事件，2：日程特殊事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>et</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唤醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新消息提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音播报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(400)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏好设置类型</t>
+  </si>
+  <si>
+    <t>偏好设置类型名称</t>
+  </si>
+  <si>
+    <t>偏好设置名称</t>
+  </si>
+  <si>
+    <t>偏好设置key</t>
+  </si>
+  <si>
+    <t>偏好设置value</t>
+  </si>
+  <si>
+    <t>yi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ytn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户偏好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏好主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划颜色标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>di</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头部信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统数据完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>语音</t>
+  </si>
+  <si>
+    <t>画面msg</t>
+  </si>
+  <si>
+    <t>系统版本</t>
+  </si>
+  <si>
+    <t>头部信息</t>
+  </si>
+  <si>
+    <t>speech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formmsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysversion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品ID</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>产品版本</t>
+  </si>
+  <si>
+    <t>pv</t>
+  </si>
+  <si>
+    <t>设备ID</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>帐户ID</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>设备类型</t>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>lt</t>
+  </si>
+  <si>
+    <t>init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：系统 2：自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程关联ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>hiu</t>
+  </si>
+  <si>
+    <t>biy</t>
+  </si>
+  <si>
+    <t>rn</t>
+  </si>
+  <si>
+    <t>ic</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>uct</t>
+  </si>
+  <si>
+    <t>gtd_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_j_h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rnpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_b_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j_h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表主键</t>
+  </si>
+  <si>
+    <t>被联系人别称</t>
+  </si>
+  <si>
+    <t>被联系人别称拼音</t>
+  </si>
+  <si>
+    <t>被联系人ID</t>
+  </si>
+  <si>
+    <t>被联系人头像</t>
+  </si>
+  <si>
+    <t>被联系人名称</t>
+  </si>
+  <si>
+    <t>被联系人名称拼音</t>
+  </si>
+  <si>
+    <t>被联系人联系方式</t>
+  </si>
+  <si>
+    <t>标识</t>
+  </si>
+  <si>
+    <t>0是未，1是</t>
+  </si>
+  <si>
+    <t>联系类型</t>
+  </si>
+  <si>
+    <t>gn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组名拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组名拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gnpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1：修改，2：删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日程事件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：日程事件，2：日程特殊事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>st</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>et</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唤醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新消息提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音播报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>震动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(400)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏好设置类型</t>
-  </si>
-  <si>
-    <t>偏好设置类型名称</t>
-  </si>
-  <si>
-    <t>偏好设置名称</t>
-  </si>
-  <si>
-    <t>偏好设置key</t>
-  </si>
-  <si>
-    <t>偏好设置value</t>
-  </si>
-  <si>
-    <t>yi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ytn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户偏好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
+    <t>varchar(4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏好主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划颜色标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帐户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>di</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头部信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统数据完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>语音</t>
-  </si>
-  <si>
-    <t>画面msg</t>
-  </si>
-  <si>
-    <t>系统版本</t>
-  </si>
-  <si>
-    <t>头部信息</t>
-  </si>
-  <si>
-    <t>speech</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>formmsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysversion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品ID</t>
-  </si>
-  <si>
-    <t>pi</t>
-  </si>
-  <si>
-    <t>产品版本</t>
-  </si>
-  <si>
-    <t>pv</t>
-  </si>
-  <si>
-    <t>设备ID</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>帐户ID</t>
-  </si>
-  <si>
-    <t>ai</t>
-  </si>
-  <si>
-    <t>设备类型</t>
-  </si>
-  <si>
-    <t>dt</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>lt</t>
-  </si>
-  <si>
-    <t>init</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：系统 2：自定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程关联ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>an</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>am</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_u</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>hiu</t>
-  </si>
-  <si>
-    <t>biy</t>
-  </si>
-  <si>
-    <t>rn</t>
-  </si>
-  <si>
-    <t>ic</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>uct</t>
-  </si>
-  <si>
-    <t>gtd_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_sp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_j_h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ri</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rnpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_b_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>j_h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1380,6 +1418,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1387,15 +1434,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1672,18 +1710,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1700,106 +1738,106 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1860,11 +1898,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1881,15 +1919,15 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="F2" s="21"/>
+      <c r="E2" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -1910,17 +1948,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>294</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>60</v>
+        <v>294</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -1937,14 +1975,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>62</v>
+        <v>295</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>30</v>
@@ -1964,17 +2002,17 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>76</v>
+        <v>296</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>76</v>
+        <v>296</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G13" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -1990,18 +2028,18 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="F7" s="26" t="s">
+      <c r="A7" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" s="23" t="s">
         <v>30</v>
       </c>
       <c r="G7" t="str">
@@ -2019,17 +2057,17 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>64</v>
+        <v>298</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>63</v>
+        <v>298</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -2046,17 +2084,17 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>53</v>
+        <v>299</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>66</v>
+        <v>299</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -2073,17 +2111,17 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
@@ -2100,17 +2138,17 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>67</v>
+        <v>301</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>68</v>
+        <v>301</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
@@ -2126,21 +2164,21 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>193</v>
+      <c r="A12" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>176</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
@@ -2156,21 +2194,21 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>193</v>
+      <c r="A13" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>176</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
@@ -2187,19 +2225,19 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>54</v>
+        <v>304</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>54</v>
+        <v>304</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" ref="G14:G15" si="3">" ," &amp; E14 &amp; " " &amp; F14 &amp; " "</f>
@@ -2216,14 +2254,14 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>30</v>
@@ -2265,7 +2303,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="18" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2282,11 +2320,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2303,15 +2341,15 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="F2" s="21"/>
+      <c r="E2" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2332,17 +2370,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -2359,17 +2397,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -2386,17 +2424,17 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -2412,11 +2450,19 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="B7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="D7" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5"/>
@@ -2498,7 +2544,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="18" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2515,7 +2561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2536,15 +2582,15 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="F2" s="21"/>
+      <c r="E2" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2565,17 +2611,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -2592,17 +2638,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -2661,7 +2707,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="18" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2690,12 +2736,10 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2711,15 +2755,15 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="F2" s="21"/>
+      <c r="E2" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2740,14 +2784,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -2767,17 +2811,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -2796,13 +2840,13 @@
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -2819,17 +2863,17 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -2846,17 +2890,17 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -2875,13 +2919,13 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -2926,20 +2970,20 @@
     </row>
     <row r="15" spans="1:10">
       <c r="D15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="18" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="5:7">
@@ -2950,7 +2994,7 @@
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="G19" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
@@ -2959,64 +3003,64 @@
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="F21" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="G21" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="F22" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="G22" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="F23" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="G23" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="F24" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="G24" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="F25" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="G25" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="F26" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="G26" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3033,7 +3077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3054,15 +3098,15 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="F2" s="21"/>
+      <c r="E2" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -3083,14 +3127,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -3110,17 +3154,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -3137,17 +3181,17 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -3164,17 +3208,17 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -3191,17 +3235,17 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -3218,17 +3262,17 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -3300,13 +3344,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="18" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="G19" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
@@ -3315,17 +3359,17 @@
     </row>
     <row r="20" spans="1:7">
       <c r="F20" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="F21" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="F22" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3342,7 +3386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3356,152 +3400,152 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D6" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="E6" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D7" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="E7" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D8" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="E8" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="E9" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="E10" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D11" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="E11" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="C12" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="D12" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="E12" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3511,7 +3555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3540,13 +3584,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B2" s="7">
         <v>43415</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>32</v>
@@ -3554,16 +3598,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B3" s="7">
         <v>43528</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3573,11 +3617,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3594,15 +3638,15 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="F2" s="21"/>
+      <c r="E2" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
@@ -3623,14 +3667,14 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>30</v>
@@ -3642,17 +3686,17 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>134</v>
+        <v>281</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -3661,17 +3705,17 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G9" si="0">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -3680,17 +3724,17 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -3699,14 +3743,14 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>137</v>
+        <v>283</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>30</v>
@@ -3718,17 +3762,17 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -3764,7 +3808,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="18" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3776,15 +3820,16 @@
     <hyperlink ref="A15" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3806,10 +3851,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="F2" s="21"/>
+      <c r="E2" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -3837,7 +3882,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>30</v>
@@ -3853,14 +3898,14 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>30</v>
@@ -3883,7 +3928,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>14</v>
@@ -3906,7 +3951,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>16</v>
@@ -3929,7 +3974,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>14</v>
@@ -3945,14 +3990,14 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>14</v>
@@ -3968,17 +4013,17 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
@@ -3994,16 +4039,16 @@
         <v>18</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
@@ -4016,14 +4061,14 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
@@ -4072,7 +4117,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="18" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4089,11 +4134,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4115,10 +4160,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="F2" s="23"/>
+      <c r="E2" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -4143,10 +4188,10 @@
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>30</v>
@@ -4166,14 +4211,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>31</v>
@@ -4193,14 +4238,14 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>30</v>
@@ -4220,18 +4265,18 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -4248,18 +4293,18 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="10" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
-        <v>83</v>
+        <v>287</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -4276,18 +4321,18 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
-        <v>159</v>
+        <v>288</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -4304,18 +4349,18 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="10" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="10" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
@@ -4332,19 +4377,19 @@
     </row>
     <row r="11" spans="1:10" ht="27">
       <c r="A11" s="5" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>141</v>
+        <v>289</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
@@ -4361,14 +4406,14 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>87</v>
+        <v>290</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>30</v>
@@ -4388,14 +4433,14 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>30</v>
@@ -4411,24 +4456,30 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>144</v>
+        <v>291</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="5"/>
+      <c r="A15" s="5" t="s">
+        <v>292</v>
+      </c>
       <c r="B15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:10">
@@ -4455,7 +4506,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="18" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4472,11 +4523,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4493,15 +4544,15 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="F2" s="23"/>
+      <c r="E2" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -4522,14 +4573,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>30</v>
@@ -4556,7 +4607,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>30</v>
@@ -4576,14 +4627,14 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>30</v>
@@ -4603,18 +4654,18 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -4631,18 +4682,18 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="10" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -4659,18 +4710,18 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -4687,18 +4738,18 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="10" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="10" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
@@ -4715,14 +4766,14 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>30</v>
@@ -4742,14 +4793,14 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>30</v>
@@ -4769,19 +4820,19 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>151</v>
+        <v>309</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>191</v>
+        <v>311</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ref="G13" si="3">" ," &amp; E13 &amp; " " &amp; F13 &amp; " "</f>
@@ -4797,11 +4848,19 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>292</v>
+      </c>
       <c r="B14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="D14" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5"/>
@@ -4829,7 +4888,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="18" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4846,7 +4905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4872,10 +4931,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="F2" s="21"/>
+      <c r="E2" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -4903,7 +4962,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -4923,14 +4982,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
@@ -4950,16 +5009,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>30</v>
@@ -4986,7 +5045,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>29</v>
@@ -5006,19 +5065,19 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -5035,14 +5094,14 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>29</v>
@@ -5062,19 +5121,19 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
@@ -5091,14 +5150,14 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>29</v>
@@ -5118,19 +5177,19 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
@@ -5147,7 +5206,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="18" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5176,11 +5235,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5202,10 +5261,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="F2" s="21"/>
+      <c r="E2" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -5233,7 +5292,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -5260,7 +5319,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>30</v>
@@ -5280,16 +5339,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>30</v>
@@ -5309,17 +5368,17 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -5336,17 +5395,17 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -5398,7 +5457,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="18" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G16" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
@@ -5425,12 +5484,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -5445,15 +5502,15 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="F1" s="21"/>
+      <c r="E1" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
@@ -5474,17 +5531,17 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G3" t="str">
         <f>" " &amp; E3 &amp; " " &amp; F3 &amp; " PRIMARY KEY"</f>
@@ -5501,17 +5558,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="G4" t="str">
         <f>" ," &amp; E4 &amp; " " &amp; F4 &amp; " "</f>
@@ -5528,17 +5585,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ref="G5" si="1">" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -5555,34 +5612,34 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5625,7 +5682,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="18" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IdeaProjects\GTD2\A-开发相关文档素材\6.二期文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -28,9 +23,9 @@
     <sheet name="用户偏好" sheetId="39" r:id="rId14"/>
     <sheet name="系統設置表数据" sheetId="46" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="309">
   <si>
     <t>表名</t>
   </si>
@@ -152,6 +147,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>用户授权表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>日程提醒时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,6 +174,10 @@
     <t>系統設置表</t>
   </si>
   <si>
+    <t>授权标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>授权关系人中间表</t>
   </si>
   <si>
@@ -206,6 +209,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>被授权联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>创建者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,6 +221,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>关系群组主键ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,14 +249,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>授权表主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>varchar(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>被授权联系人别称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>varchar(200)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0是未授权，1是授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>数据归属人ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,6 +312,14 @@
     <t>ran</t>
   </si>
   <si>
+    <t>被授权联系人别称拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ranpy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -516,709 +571,648 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日程特殊事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程特殊事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程特殊事件主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程提醒日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：修改，2：删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：日程事件，2：日程特殊事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>et</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唤醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新消息提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音播报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(400)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏好设置类型</t>
+  </si>
+  <si>
+    <t>偏好设置类型名称</t>
+  </si>
+  <si>
+    <t>偏好设置名称</t>
+  </si>
+  <si>
+    <t>偏好设置key</t>
+  </si>
+  <si>
+    <t>偏好设置value</t>
+  </si>
+  <si>
+    <t>yi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ytn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户偏好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏好主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划颜色标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>di</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头部信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统数据完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>语音</t>
+  </si>
+  <si>
+    <t>画面msg</t>
+  </si>
+  <si>
+    <t>系统版本</t>
+  </si>
+  <si>
+    <t>头部信息</t>
+  </si>
+  <si>
+    <t>speech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formmsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysversion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品ID</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>产品版本</t>
+  </si>
+  <si>
+    <t>pv</t>
+  </si>
+  <si>
+    <t>设备ID</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>帐户ID</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>设备类型</t>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>lt</t>
+  </si>
+  <si>
+    <t>init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：系统 2：自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程关联ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>hiu</t>
+  </si>
+  <si>
+    <t>biy</t>
+  </si>
+  <si>
+    <t>rn</t>
+  </si>
+  <si>
+    <t>ic</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>uct</t>
+  </si>
+  <si>
+    <t>gtd_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_j_h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rnpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_b_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j_h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0：关闭，1：每日，2：每周，3：每月，4：每年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日程特殊事件表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程特殊事件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程特殊事件主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程提醒日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：日程事件，2：日程特殊事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>st</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>et</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唤醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新消息提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音播报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>震动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(400)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏好设置类型</t>
-  </si>
-  <si>
-    <t>偏好设置类型名称</t>
-  </si>
-  <si>
-    <t>偏好设置名称</t>
-  </si>
-  <si>
-    <t>偏好设置key</t>
-  </si>
-  <si>
-    <t>偏好设置value</t>
-  </si>
-  <si>
-    <t>yi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ytn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户偏好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
+    <t>创建时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gnpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>varchar(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏好主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划颜色标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帐户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>di</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头部信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统数据完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>语音</t>
-  </si>
-  <si>
-    <t>画面msg</t>
-  </si>
-  <si>
-    <t>系统版本</t>
-  </si>
-  <si>
-    <t>头部信息</t>
-  </si>
-  <si>
-    <t>speech</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>formmsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysversion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品ID</t>
-  </si>
-  <si>
-    <t>pi</t>
-  </si>
-  <si>
-    <t>产品版本</t>
-  </si>
-  <si>
-    <t>pv</t>
-  </si>
-  <si>
-    <t>设备ID</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>帐户ID</t>
-  </si>
-  <si>
-    <t>ai</t>
-  </si>
-  <si>
-    <t>设备类型</t>
-  </si>
-  <si>
-    <t>dt</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>lt</t>
-  </si>
-  <si>
-    <t>init</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：系统 2：自定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程关联ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>an</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>am</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_u</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>hiu</t>
-  </si>
-  <si>
-    <t>biy</t>
-  </si>
-  <si>
-    <t>rn</t>
-  </si>
-  <si>
-    <t>ic</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>uct</t>
-  </si>
-  <si>
-    <t>gtd_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_sp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_j_h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ri</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rnpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_b_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>j_h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表主键</t>
-  </si>
-  <si>
-    <t>被联系人别称</t>
-  </si>
-  <si>
-    <t>被联系人别称拼音</t>
-  </si>
-  <si>
-    <t>被联系人ID</t>
-  </si>
-  <si>
-    <t>被联系人头像</t>
-  </si>
-  <si>
-    <t>被联系人名称</t>
-  </si>
-  <si>
-    <t>被联系人名称拼音</t>
-  </si>
-  <si>
-    <t>被联系人联系方式</t>
-  </si>
-  <si>
-    <t>标识</t>
-  </si>
-  <si>
-    <t>0是未，1是</t>
-  </si>
-  <si>
-    <t>联系类型</t>
-  </si>
-  <si>
-    <t>gn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组名拼音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组名拼音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gnpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：修改，2：删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sta</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1710,18 +1704,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1738,106 +1732,106 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1898,11 +1892,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1919,13 +1913,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -1948,17 +1942,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -1975,14 +1969,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>295</v>
+        <v>62</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>295</v>
+        <v>62</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>30</v>
@@ -2002,17 +1996,17 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G13" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -2029,15 +2023,15 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="21" t="s">
-        <v>297</v>
+        <v>50</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="22"/>
       <c r="D7" s="21" t="s">
-        <v>297</v>
+        <v>50</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>30</v>
@@ -2057,17 +2051,17 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>298</v>
+        <v>64</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>298</v>
+        <v>63</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -2084,17 +2078,17 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>299</v>
+        <v>53</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>299</v>
+        <v>66</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -2111,17 +2105,17 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
@@ -2138,17 +2132,17 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>301</v>
+        <v>67</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>301</v>
+        <v>68</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
@@ -2165,20 +2159,20 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="21" t="s">
-        <v>302</v>
+        <v>41</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>303</v>
+        <v>69</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="21" t="s">
-        <v>302</v>
+        <v>41</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
@@ -2195,20 +2189,20 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="21" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="21" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
@@ -2225,19 +2219,19 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>304</v>
+        <v>54</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>304</v>
+        <v>54</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" ref="G14:G15" si="3">" ," &amp; E14 &amp; " " &amp; F14 &amp; " "</f>
@@ -2254,14 +2248,14 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>30</v>
@@ -2280,11 +2274,19 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="5"/>
+      <c r="A16" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="B16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="D16" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>302</v>
+      </c>
       <c r="G16" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13,G14,G15)</f>
         <v xml:space="preserve"> pwi varchar(50) PRIMARY KEY ,ran varchar(50)  ,ranpy varchar(20)  ,ri varchar(50)  ,hiu varchar(200)  ,rn varchar(20)  ,rnpy varchar(20)  ,rc varchar(20)  ,rf varchar(4)  ,ot varchar(4)  ,rel varchar(4)  ,ui varchar(50) </v>
@@ -2303,7 +2305,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="18" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2320,11 +2322,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2341,13 +2343,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -2370,17 +2372,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -2397,17 +2399,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -2424,17 +2426,17 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -2451,25 +2453,33 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5"/>
@@ -2544,7 +2554,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="18" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2561,11 +2571,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2582,13 +2592,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -2611,17 +2621,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -2638,17 +2648,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -2707,7 +2717,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="18" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2736,10 +2746,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2755,13 +2767,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -2784,14 +2796,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -2811,17 +2823,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -2840,13 +2852,13 @@
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -2863,17 +2875,17 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -2890,17 +2902,17 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -2919,13 +2931,13 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -2970,20 +2982,20 @@
     </row>
     <row r="15" spans="1:10">
       <c r="D15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="18" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="5:7">
@@ -2994,7 +3006,7 @@
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="G19" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
@@ -3003,64 +3015,64 @@
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="G20" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="F21" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="G21" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="F22" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="G22" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="F23" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="G23" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="F24" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="G24" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="F25" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="G25" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="F26" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="G26" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3077,11 +3089,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3098,13 +3110,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -3127,14 +3139,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -3154,17 +3166,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -3181,17 +3193,17 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -3208,17 +3220,17 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -3235,17 +3247,17 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -3262,17 +3274,17 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -3344,13 +3356,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="18" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G19" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
@@ -3359,17 +3371,17 @@
     </row>
     <row r="20" spans="1:7">
       <c r="F20" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="F21" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="F22" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3386,7 +3398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3400,152 +3412,152 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D6" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="E6" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="E7" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D8" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="E8" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="E9" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D10" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="E10" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="C11" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D11" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="E11" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="C12" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="D12" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E12" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3555,7 +3567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3584,13 +3596,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B2" s="7">
         <v>43415</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>32</v>
@@ -3598,16 +3610,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B3" s="7">
         <v>43528</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3617,8 +3629,1670 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> ai varchar(50) PRIMARY KEY</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,an varchar(10) </v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G10" si="0">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,am varchar(11) </v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,ae varchar(20) </v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="D8" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,at varchar(50) </v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,aq varchar(100) </v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,wtt integer </v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="G13" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
+        <v xml:space="preserve"> ai varchar(50) PRIMARY KEY ,an varchar(10)  ,am varchar(11)  ,ae varchar(20)  ,at varchar(50)  ,aq varchar(100)  ,wtt integer </v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A15" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> ui varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> ui</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,ai varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,ai</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G12" si="0">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,un varchar(10) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I12" si="1">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,un</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,hiu varchar(200) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,hiu</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,biy varchar(10) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,biy</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,rn varchar(10) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,rn</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,ic varchar(20) </v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ic</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,us varchar(4) </v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,us</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,uct varchar(11) </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,uct</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
+        <v xml:space="preserve"> ui varchar(50) PRIMARY KEY ,ai varchar(50)  ,un varchar(10)  ,hiu varchar(200)  ,biy varchar(10)  ,rn varchar(10)  ,ic varchar(20)  ,us varchar(4)  ,uct varchar(11) </v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,)</f>
+        <v xml:space="preserve"> ui ,ai ,un ,hiu ,biy ,rn ,ic ,us ,uct</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A18" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> si varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> si</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _si: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,sn varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,sn</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J13" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _sn: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,ui varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I13" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,ui</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ui: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sd varchar(20) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sd</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sd: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,st varchar(20) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,st</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _st: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ed varchar(20) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ed</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ed: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,et varchar(20) </v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,et</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>private _et: string;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="27">
+      <c r="A11" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,rt varchar(4) </v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,rt</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>private _rt: string;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ji varchar(50) </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ji</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ji: string;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sr</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sr: string;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
+        <v xml:space="preserve"> si varchar(50) PRIMARY KEY ,sn varchar(50)  ,ui varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,rt varchar(4)  ,ji varchar(50) </v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,)</f>
+        <v xml:space="preserve"> si ,sn ,ui ,sd ,st ,ed ,et ,rt ,ji</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A20" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> spi varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> spi</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _spi: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,si varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,si</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J13" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _si: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,spn varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I12" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,spn</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _spn: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sd varchar(20) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sd</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sd: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,st varchar(20) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,st</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _st: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ed varchar(20) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ed</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ed: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,et varchar(20) </v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,et</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>private _et: string;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ji varchar(50) </v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ji</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ji: string;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,bz varchar(50) </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,bz</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>private _bz: string;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" ref="G13" si="3">" ," &amp; E13 &amp; " " &amp; F13 &amp; " "</f>
+        <v xml:space="preserve"> ,sta varchar(4) </v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ref="I13" si="4">" ," &amp; E13</f>
+        <v xml:space="preserve"> ,sta</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sta: string;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+        <v xml:space="preserve"> spi varchar(50) PRIMARY KEY ,si varchar(50)  ,spn varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,ji varchar(50)  ,bz varchar(50)  ,sta varchar(4) </v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <v xml:space="preserve"> spi ,si ,spn ,sd ,st ,ed ,et ,ji ,bz ,sta</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A19" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> pi varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> pi</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _pi: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,si varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,si</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J12" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _si: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,st varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I12" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,st</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _st: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,son varchar(50) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,son</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _son: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sa varchar(4) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sa</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sa: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ai varchar(50) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ai</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ai: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ib varchar(4) </v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ib</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ib: string;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,bi varchar(50) </v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,bi</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>private _bi: string;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sdt varchar(4) </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sdt</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sdt: string;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+        <v xml:space="preserve"> pi varchar(50) PRIMARY KEY ,si varchar(50)  ,st varchar(50)  ,son varchar(50)  ,sa varchar(4)  ,ai varchar(50)  ,ib varchar(4)  ,bi varchar(50)  ,sdt varchar(4) </v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <v xml:space="preserve"> pi ,si ,st ,son ,sa ,ai ,ib ,bi ,sdt</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A15" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -3633,537 +5307,20 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="24"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="str">
-        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> ai varchar(50) PRIMARY KEY</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G5" t="str">
-        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,an varchar(10) </v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" ref="G6:G9" si="0">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,am varchar(11) </v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ,ae varchar(20) </v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="D8" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ,at varchar(50) </v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ,aq varchar(100) </v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="G13" t="str">
-        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
-        <v xml:space="preserve"> ai varchar(50) PRIMARY KEY ,an varchar(10)  ,am varchar(11)  ,ae varchar(20)  ,at varchar(50)  ,aq varchar(100) </v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A15" location="一览!A1" display="返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I18"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="F2" s="24"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="str">
-        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> ui varchar(50) PRIMARY KEY</v>
-      </c>
-      <c r="I4" t="str">
-        <f>" " &amp; E4</f>
-        <v xml:space="preserve"> ui</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="str">
-        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,ai varchar(50) </v>
-      </c>
-      <c r="I5" t="str">
-        <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,ai</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" ref="G6:G12" si="0">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,un varchar(10) </v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" ref="I6:I12" si="1">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,un</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ,hiu varchar(200) </v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,hiu</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ,biy varchar(10) </v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,biy</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ,rn varchar(10) </v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,rn</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ,ic varchar(20) </v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,ic</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ,us varchar(4) </v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,us</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> ,uct varchar(11) </v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,uct</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="G16" t="str">
-        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
-        <v xml:space="preserve"> ui varchar(50) PRIMARY KEY ,ai varchar(50)  ,un varchar(10)  ,hiu varchar(200)  ,biy varchar(10)  ,rn varchar(10)  ,ic varchar(20)  ,us varchar(4)  ,uct varchar(11) </v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="G17" t="str">
-        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,)</f>
-        <v xml:space="preserve"> ui ,ai ,un ,hiu ,biy ,rn ,ic ,us ,uct</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A18" location="一览!A1" display="返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="F2" s="26"/>
+      <c r="E2" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -4175,427 +5332,38 @@
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>286</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>89</v>
+        <v>268</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> si varchar(50) PRIMARY KEY</v>
+        <v xml:space="preserve"> wi varchar(50) PRIMARY KEY</v>
       </c>
       <c r="I4" t="str">
         <f>" " &amp; E4</f>
-        <v xml:space="preserve"> si</v>
+        <v xml:space="preserve"> wi</v>
       </c>
       <c r="J4" t="str">
         <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _si: string;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="str">
-        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,sn varchar(50) </v>
-      </c>
-      <c r="I5" t="str">
-        <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,sn</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" ref="J5:J13" si="0">"private _"&amp;E5&amp;": string;"</f>
-        <v>private _sn: string;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,ui varchar(50) </v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" ref="I6:I13" si="2">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,ui</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>private _ui: string;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,sd varchar(20) </v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,sd</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>private _sd: string;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,st varchar(20) </v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,st</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>private _st: string;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,ed varchar(20) </v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,ed</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>private _ed: string;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,et varchar(20) </v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,et</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>private _et: string;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="27">
-      <c r="A11" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,rt varchar(4) </v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,rt</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>private _rt: string;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,ji varchar(50) </v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,ji</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>private _ji: string;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,sr</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>private _sr: string;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" t="str">
-        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
-        <v xml:space="preserve"> si varchar(50) PRIMARY KEY ,sn varchar(50)  ,ui varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,rt varchar(4)  ,ji varchar(50) </v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" t="str">
-        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,)</f>
-        <v xml:space="preserve"> si ,sn ,ui ,sd ,st ,ed ,et ,rt ,ji</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A20" location="一览!A1" display="返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="str">
-        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> spi varchar(50) PRIMARY KEY</v>
-      </c>
-      <c r="I4" t="str">
-        <f>" " &amp; E4</f>
-        <v xml:space="preserve"> spi</v>
-      </c>
-      <c r="J4" t="str">
-        <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _spi: string;</v>
+        <v>private _wi: string;</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4607,7 +5375,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>30</v>
@@ -4621,414 +5389,32 @@
         <v xml:space="preserve"> ,si</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J13" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <f t="shared" ref="J5:J9" si="0">"private _"&amp;E5&amp;": string;"</f>
         <v>private _si: string;</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="5"/>
+        <v>149</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="D6" s="5" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>248</v>
+        <v>106</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,spn varchar(50) </v>
+        <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,st varchar(50) </v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" ref="I6:I12" si="2">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,spn</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>private _spn: string;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,sd varchar(20) </v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,sd</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>private _sd: string;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,st varchar(20) </v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,st</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>private _st: string;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,ed varchar(20) </v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,ed</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>private _ed: string;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,et varchar(20) </v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,et</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>private _et: string;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,ji varchar(50) </v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,ji</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>private _ji: string;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,bz varchar(50) </v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,bz</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>private _bz: string;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" ref="G13" si="3">" ," &amp; E13 &amp; " " &amp; F13 &amp; " "</f>
-        <v xml:space="preserve"> ,sta varchar(4) </v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" ref="I13" si="4">" ," &amp; E13</f>
-        <v xml:space="preserve"> ,sta</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>private _sta: string;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" t="str">
-        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
-        <v xml:space="preserve"> spi varchar(50) PRIMARY KEY ,si varchar(50)  ,spn varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,ji varchar(50)  ,bz varchar(50)  ,sta varchar(4) </v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="G17" t="str">
-        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
-        <v xml:space="preserve"> spi ,si ,spn ,sd ,st ,ed ,et ,ji ,bz ,sta</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A19" location="一览!A1" display="返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="F2" s="24"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="str">
-        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> pi varchar(50) PRIMARY KEY</v>
-      </c>
-      <c r="I4" t="str">
-        <f>" " &amp; E4</f>
-        <v xml:space="preserve"> pi</v>
-      </c>
-      <c r="J4" t="str">
-        <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _pi: string;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="str">
-        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,si varchar(50) </v>
-      </c>
-      <c r="I5" t="str">
-        <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,si</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" ref="J5:J12" si="0">"private _"&amp;E5&amp;": string;"</f>
-        <v>private _si: string;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,st varchar(50) </v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" ref="I6:I12" si="2">" ," &amp; E6</f>
+        <f t="shared" ref="I6:I9" si="2">" ," &amp; E6</f>
         <v xml:space="preserve"> ,st</v>
       </c>
       <c r="J6" t="str">
@@ -5038,347 +5424,17 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,son varchar(50) </v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,son</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>private _son: string;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,sa varchar(4) </v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,sa</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>private _sa: string;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,ai varchar(50) </v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,ai</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>private _ai: string;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,ib varchar(4) </v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,ib</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>private _ib: string;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,bi varchar(50) </v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,bi</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>private _bi: string;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,sdt varchar(4) </v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,sdt</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>private _sdt: string;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="G16" t="str">
-        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
-        <v xml:space="preserve"> pi varchar(50) PRIMARY KEY ,si varchar(50)  ,st varchar(50)  ,son varchar(50)  ,sa varchar(4)  ,ai varchar(50)  ,ib varchar(4)  ,bi varchar(50)  ,sdt varchar(4) </v>
-      </c>
-    </row>
-    <row r="17" spans="7:7">
-      <c r="G17" t="str">
-        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
-        <v xml:space="preserve"> pi ,si ,st ,son ,sa ,ai ,ib ,bi ,sdt</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A15" location="一览!A1" display="返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="F2" s="24"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="str">
-        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> wi varchar(50) PRIMARY KEY</v>
-      </c>
-      <c r="I4" t="str">
-        <f>" " &amp; E4</f>
-        <v xml:space="preserve"> wi</v>
-      </c>
-      <c r="J4" t="str">
-        <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _wi: string;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="str">
-        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,si varchar(50) </v>
-      </c>
-      <c r="I5" t="str">
-        <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,si</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" ref="J5:J8" si="0">"private _"&amp;E5&amp;": string;"</f>
-        <v>private _si: string;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" ref="G6:G8" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,st varchar(50) </v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" ref="I6:I8" si="2">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,st</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>private _st: string;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -5395,17 +5451,17 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -5421,11 +5477,31 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,wtt integer </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,wtt</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _wtt: string;</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5"/>
@@ -5457,17 +5533,17 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="18" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G16" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
-        <v xml:space="preserve"> wi varchar(50) PRIMARY KEY ,si varchar(50)  ,st varchar(50)  ,wd varchar(20)  ,wt varchar(20) </v>
+        <v xml:space="preserve"> wi varchar(50) PRIMARY KEY ,si varchar(50)  ,st varchar(50)  ,wd varchar(20)  ,wt varchar(20)  ,wtt integer </v>
       </c>
     </row>
     <row r="17" spans="7:7">
       <c r="G17" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
-        <v xml:space="preserve"> wi ,si ,st ,wd ,wt</v>
+        <v xml:space="preserve"> wi ,si ,st ,wd ,wt ,wtt</v>
       </c>
     </row>
   </sheetData>
@@ -5484,10 +5560,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -5502,13 +5580,13 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="F1" s="24"/>
     </row>
@@ -5531,17 +5609,17 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G3" t="str">
         <f>" " &amp; E3 &amp; " " &amp; F3 &amp; " PRIMARY KEY"</f>
@@ -5558,17 +5636,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="G4" t="str">
         <f>" ," &amp; E4 &amp; " " &amp; F4 &amp; " "</f>
@@ -5585,17 +5663,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ref="G5" si="1">" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -5612,42 +5690,50 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5"/>
@@ -5682,7 +5768,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="18" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="297">
   <si>
     <t>表名</t>
   </si>
@@ -174,10 +174,6 @@
     <t>系統設置表</t>
   </si>
   <si>
-    <t>授权标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>授权关系人中间表</t>
   </si>
   <si>
@@ -209,10 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被授权联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>创建者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,10 +213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>授权联系类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,46 +245,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被授权联系人别称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(200)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0是未授权，1是授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据归属人ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1是个人，2是群，0未注册用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,14 +268,6 @@
     <t>ran</t>
   </si>
   <si>
-    <t>被授权联系人别称拼音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称拼音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ranpy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -455,10 +403,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0是未被添加，1是同意，2是拉黑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -467,18 +411,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友状态标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1069,10 +1001,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ri</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rnpy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1081,10 +1009,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gtd_g</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1206,6 +1130,28 @@
   </si>
   <si>
     <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人别称</t>
+  </si>
+  <si>
+    <t>联系人别称拼音</t>
+  </si>
+  <si>
+    <t>联系人头像</t>
+  </si>
+  <si>
+    <t>联系人名称</t>
+  </si>
+  <si>
+    <t>联系人名称拼音</t>
+  </si>
+  <si>
+    <t>联系人联系方式</t>
+  </si>
+  <si>
+    <t>1已注册，0未注册用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1260,18 +1206,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -1348,7 +1288,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1410,15 +1350,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1704,7 +1635,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1715,7 +1646,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1732,106 +1663,106 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1893,10 +1824,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J20"/>
+  <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1918,10 +1849,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="F2" s="24"/>
+      <c r="E2" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -1942,17 +1873,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -1969,14 +1900,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>62</v>
+        <v>290</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>62</v>
+        <v>290</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>30</v>
@@ -1990,30 +1921,30 @@
         <v xml:space="preserve"> ,ran</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J13" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <f t="shared" ref="J5:J10" si="0">"private _"&amp;E5&amp;": string;"</f>
         <v>private _ran: string;</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>76</v>
+        <v>291</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>76</v>
+        <v>291</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" ref="G6:G13" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <f t="shared" ref="G6:G10" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
         <v xml:space="preserve"> ,ranpy varchar(20) </v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" ref="I6:I13" si="2">" ," &amp; E6</f>
+        <f t="shared" ref="I6:I10" si="2">" ," &amp; E6</f>
         <v xml:space="preserve"> ,ranpy</v>
       </c>
       <c r="J6" t="str">
@@ -2022,290 +1953,202 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>30</v>
+      <c r="A7" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,ri varchar(50) </v>
+        <v xml:space="preserve"> ,hiu varchar(200) </v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,ri</v>
+        <v xml:space="preserve"> ,hiu</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>private _ri: string;</v>
+        <v>private _hiu: string;</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>64</v>
+        <v>293</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,hiu varchar(200) </v>
+        <v xml:space="preserve"> ,rn varchar(20) </v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,hiu</v>
+        <v xml:space="preserve"> ,rn</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>private _hiu: string;</v>
+        <v>private _rn: string;</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>53</v>
+        <v>294</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>66</v>
+        <v>294</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,rn varchar(20) </v>
+        <v xml:space="preserve"> ,rnpy varchar(20) </v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,rn</v>
+        <v xml:space="preserve"> ,rnpy</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>private _rn: string;</v>
+        <v>private _rnpy: string;</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,rnpy varchar(20) </v>
+        <v xml:space="preserve"> ,rc varchar(20) </v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,rnpy</v>
+        <v xml:space="preserve"> ,rc</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>private _rnpy: string;</v>
+        <v>private _rc: string;</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>276</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,rc varchar(20) </v>
+        <f t="shared" ref="G11:G12" si="3">" ," &amp; E11 &amp; " " &amp; F11 &amp; " "</f>
+        <v xml:space="preserve"> ,rel varchar(4) </v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,rc</v>
+        <f t="shared" ref="I11:I12" si="4">" ," &amp; E11</f>
+        <v xml:space="preserve"> ,rel</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>private _rc: string;</v>
+        <f t="shared" ref="J11:J12" si="5">"private _"&amp;E11&amp;": string;"</f>
+        <v>private _rel: string;</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>192</v>
+      <c r="A12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,rf varchar(4) </v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,rf</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>private _rf: string;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,ot varchar(4) </v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,ot</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>private _ot: string;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" ref="G14:G15" si="3">" ," &amp; E14 &amp; " " &amp; F14 &amp; " "</f>
-        <v xml:space="preserve"> ,rel varchar(4) </v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" ref="I14:I15" si="4">" ," &amp; E14</f>
-        <v xml:space="preserve"> ,rel</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" ref="J14:J15" si="5">"private _"&amp;E14&amp;": string;"</f>
-        <v>private _rel: string;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> ,ui varchar(50) </v>
       </c>
-      <c r="I15" t="str">
+      <c r="I12" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> ,ui</v>
       </c>
-      <c r="J15" t="str">
+      <c r="J12" t="str">
         <f t="shared" si="5"/>
         <v>private _ui: string;</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="D16" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G16" t="str">
-        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13,G14,G15)</f>
-        <v xml:space="preserve"> pwi varchar(50) PRIMARY KEY ,ran varchar(50)  ,ranpy varchar(20)  ,ri varchar(50)  ,hiu varchar(200)  ,rn varchar(20)  ,rnpy varchar(20)  ,rc varchar(20)  ,rf varchar(4)  ,ot varchar(4)  ,rel varchar(4)  ,ui varchar(50) </v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" t="str">
-        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13,I14,I15)</f>
-        <v xml:space="preserve"> pwi ,ran ,ranpy ,ri ,hiu ,rn ,rnpy ,rc ,rf ,ot ,rel ,ui</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="18" t="s">
-        <v>72</v>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G13" t="e">
+        <f>CONCATENATE(G4,G5,G6,#REF!,G7,G8,G9,G10,#REF!,#REF!,G11,G12)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" t="e">
+        <f>CONCATENATE(I4,I5,I6,#REF!,I7,I8,I9,I10,#REF!,#REF!,I11,I12)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="18" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2314,7 +2157,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A20" location="一览!A1" display="返回"/>
+    <hyperlink ref="A17" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2325,7 +2168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2343,15 +2186,15 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="F2" s="24"/>
+      <c r="E2" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2372,17 +2215,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -2399,17 +2242,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -2426,17 +2269,17 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -2453,14 +2296,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>30</v>
@@ -2468,17 +2311,17 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2554,7 +2397,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="18" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2592,15 +2435,15 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="F2" s="24"/>
+      <c r="E2" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2621,17 +2464,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -2648,17 +2491,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -2717,7 +2560,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="18" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2772,10 +2615,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="F2" s="24"/>
+      <c r="E2" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2796,14 +2639,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -2823,17 +2666,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -2852,13 +2695,13 @@
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -2875,17 +2718,17 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -2902,17 +2745,17 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -2931,13 +2774,13 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -2982,20 +2825,20 @@
     </row>
     <row r="15" spans="1:10">
       <c r="D15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="18" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="5:7">
@@ -3006,7 +2849,7 @@
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="G19" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
@@ -3015,64 +2858,64 @@
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="F20" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="G20" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="F21" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="F22" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="G22" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="F23" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="G23" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="F24" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="G24" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="F25" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="G25" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="F26" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="G26" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3110,15 +2953,15 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="F2" s="24"/>
+      <c r="E2" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -3139,14 +2982,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -3166,17 +3009,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -3193,17 +3036,17 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -3220,17 +3063,17 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -3247,17 +3090,17 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -3274,17 +3117,17 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -3356,13 +3199,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="18" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="G19" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
@@ -3371,17 +3214,17 @@
     </row>
     <row r="20" spans="1:7">
       <c r="F20" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="F21" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="F22" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3412,152 +3255,152 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="E6" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="D7" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="E7" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="E8" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="E9" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="D10" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="E10" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="C11" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="D11" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="E11" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C12" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="D12" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="E12" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3596,7 +3439,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B2" s="7">
         <v>43415</v>
@@ -3610,16 +3453,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B3" s="7">
         <v>43528</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3633,7 +3476,7 @@
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3650,15 +3493,15 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="F2" s="24"/>
+      <c r="E2" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
@@ -3679,14 +3522,14 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>30</v>
@@ -3698,17 +3541,17 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -3717,17 +3560,17 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G10" si="0">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -3736,17 +3579,17 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -3755,14 +3598,14 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>30</v>
@@ -3774,17 +3617,17 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -3793,17 +3636,17 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
@@ -3832,7 +3675,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="18" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3874,10 +3717,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="F2" s="24"/>
+      <c r="E2" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -3905,7 +3748,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>30</v>
@@ -3921,14 +3764,14 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>30</v>
@@ -3951,7 +3794,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>14</v>
@@ -3974,7 +3817,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>16</v>
@@ -3997,7 +3840,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>14</v>
@@ -4020,7 +3863,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>14</v>
@@ -4043,7 +3886,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>39</v>
@@ -4062,16 +3905,16 @@
         <v>18</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
@@ -4084,14 +3927,14 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
@@ -4107,17 +3950,17 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4148,7 +3991,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="18" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4191,10 +4034,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="F2" s="26"/>
+      <c r="E2" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -4222,7 +4065,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>30</v>
@@ -4242,14 +4085,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>31</v>
@@ -4269,14 +4112,14 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>30</v>
@@ -4296,18 +4139,18 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -4324,15 +4167,15 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="10" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>39</v>
@@ -4352,15 +4195,15 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>39</v>
@@ -4380,18 +4223,18 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="10" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="10" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
@@ -4408,19 +4251,19 @@
     </row>
     <row r="11" spans="1:10" ht="27">
       <c r="A11" s="5" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
@@ -4437,14 +4280,14 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>30</v>
@@ -4464,14 +4307,14 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>30</v>
@@ -4487,14 +4330,14 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>30</v>
@@ -4502,32 +4345,32 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="B16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="G16" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
@@ -4547,7 +4390,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="18" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4585,15 +4428,15 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="F2" s="26"/>
+      <c r="E2" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -4614,14 +4457,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>30</v>
@@ -4648,7 +4491,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>30</v>
@@ -4668,14 +4511,14 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>30</v>
@@ -4695,18 +4538,18 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -4723,15 +4566,15 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="10" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>39</v>
@@ -4751,15 +4594,15 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>39</v>
@@ -4779,15 +4622,15 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="10" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="10" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>39</v>
@@ -4807,14 +4650,14 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>30</v>
@@ -4834,14 +4677,14 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>30</v>
@@ -4861,19 +4704,19 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ref="G13" si="3">" ," &amp; E13 &amp; " " &amp; F13 &amp; " "</f>
@@ -4890,17 +4733,17 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4929,7 +4772,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="18" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +4793,7 @@
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4972,10 +4815,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="F2" s="24"/>
+      <c r="E2" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -5003,7 +4846,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -5023,14 +4866,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
@@ -5050,16 +4893,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>30</v>
@@ -5086,7 +4929,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>29</v>
@@ -5106,19 +4949,19 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -5135,14 +4978,14 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>29</v>
@@ -5162,19 +5005,19 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
@@ -5191,14 +5034,14 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>29</v>
@@ -5218,19 +5061,19 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
@@ -5247,22 +5090,22 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="18" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5317,10 +5160,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="F2" s="24"/>
+      <c r="E2" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -5348,7 +5191,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -5375,7 +5218,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>30</v>
@@ -5395,16 +5238,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>30</v>
@@ -5424,17 +5267,17 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -5458,10 +5301,10 @@
         <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -5478,17 +5321,17 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -5533,7 +5376,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="18" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G16" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
@@ -5580,15 +5423,15 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="F1" s="24"/>
+      <c r="E1" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
@@ -5609,17 +5452,17 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" t="str">
         <f>" " &amp; E3 &amp; " " &amp; F3 &amp; " PRIMARY KEY"</f>
@@ -5636,17 +5479,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="G4" t="str">
         <f>" ," &amp; E4 &amp; " " &amp; F4 &amp; " "</f>
@@ -5663,17 +5506,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ref="G5" si="1">" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -5690,49 +5533,49 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5768,7 +5611,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="18" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="306">
   <si>
     <t>表名</t>
   </si>
@@ -47,123 +47,635 @@
     <t>日程参与人表</t>
   </si>
   <si>
+    <t>实体名</t>
+  </si>
+  <si>
+    <t>属性名</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>字段中文名</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>用户ID</t>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>用户头像</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>出生日期</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>日程事件ID</t>
+  </si>
+  <si>
+    <t>日程参与人表ID</t>
+  </si>
+  <si>
+    <t>提醒时间ID</t>
+  </si>
+  <si>
+    <t>日程提醒时间</t>
+  </si>
+  <si>
+    <t>日程参与人表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴宗煜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程主题备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户授权表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程提醒时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义全部客户端表字典结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統設置表</t>
+  </si>
+  <si>
+    <t>授权关系人中间表</t>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0无，1男，2女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系群组主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系群组主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权表主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据归属人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ran</t>
+  </si>
+  <si>
+    <t>ranpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bmi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划ID</t>
+  </si>
+  <si>
+    <t>计划ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji</t>
+  </si>
+  <si>
+    <t>ji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>son</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0非本地；1本地日历 默认非本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否本地</t>
+  </si>
+  <si>
+    <t>是否本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地日程id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0未发送，1同意发送，2拒绝发送，3未注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程发送状态</t>
+  </si>
+  <si>
+    <t>日程发送状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0不可修改，1可修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划名</t>
+  </si>
+  <si>
+    <t>计划描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划名称表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>提醒时间表</t>
-  </si>
-  <si>
-    <t>实体名</t>
-  </si>
-  <si>
-    <t>属性名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据最新需求简化表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张金洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程参与人关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组参与人关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-  </si>
-  <si>
-    <t>字段中文名</t>
-  </si>
-  <si>
-    <t>字段名</t>
-  </si>
-  <si>
-    <t>字段类型</t>
-  </si>
-  <si>
-    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户消息队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程特殊事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程特殊事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程特殊事件主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程提醒日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：修改，2：删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：日程事件，2：日程特殊事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>et</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唤醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新消息提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音播报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(400)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏好设置类型</t>
+  </si>
+  <si>
+    <t>偏好设置类型名称</t>
+  </si>
+  <si>
+    <t>偏好设置名称</t>
+  </si>
+  <si>
+    <t>偏好设置key</t>
+  </si>
+  <si>
+    <t>偏好设置value</t>
+  </si>
+  <si>
+    <t>yi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ytn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户偏好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>varchar(11)</t>
-  </si>
-  <si>
-    <t>用户名</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>用户头像</t>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-  </si>
-  <si>
-    <t>出生日期</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>日程事件ID</t>
-  </si>
-  <si>
-    <t>日程参与人表ID</t>
-  </si>
-  <si>
-    <t>提醒时间ID</t>
-  </si>
-  <si>
-    <t>日程提醒时间</t>
-  </si>
-  <si>
-    <t>日程参与人表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒时间ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴宗煜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程主题备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户授权表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程提醒时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义全部客户端表字典结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真实姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -171,247 +683,476 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系統設置表</t>
-  </si>
-  <si>
-    <t>授权关系人中间表</t>
-  </si>
-  <si>
-    <t>修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0无，1男，2女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系群组主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系群组主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群成员主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权表主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据归属人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏好主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划颜色标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>di</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头部信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统数据完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>语音</t>
+  </si>
+  <si>
+    <t>画面msg</t>
+  </si>
+  <si>
+    <t>系统版本</t>
+  </si>
+  <si>
+    <t>头部信息</t>
+  </si>
+  <si>
+    <t>speech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formmsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysversion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品ID</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>产品版本</t>
+  </si>
+  <si>
+    <t>pv</t>
+  </si>
+  <si>
+    <t>设备ID</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>帐户ID</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>设备类型</t>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>lt</t>
+  </si>
+  <si>
+    <t>init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：系统 2：自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程关联ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>hiu</t>
+  </si>
+  <si>
+    <t>biy</t>
   </si>
   <si>
     <t>rn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ran</t>
-  </si>
-  <si>
-    <t>ranpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bmi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划ID</t>
-  </si>
-  <si>
-    <t>计划ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ji</t>
-  </si>
-  <si>
-    <t>ji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>son</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0非本地；1本地日历 默认非本地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否本地</t>
-  </si>
-  <si>
-    <t>是否本地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ib</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地日程id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0未发送，1同意发送，2拒绝发送，3未注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程发送状态</t>
-  </si>
-  <si>
-    <t>日程发送状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0不可修改，1可修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>st</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jg</t>
+  </si>
+  <si>
+    <t>ic</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>uct</t>
+  </si>
+  <si>
+    <t>gtd_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_j_h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rnpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_b_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j_h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人表ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>计划名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>计划描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划名称表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
+    <t>rt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：关闭，1：每日，2：每周，3：每月，4：每年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gnpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人别称</t>
+  </si>
+  <si>
+    <t>联系人别称拼音</t>
+  </si>
+  <si>
+    <t>联系人头像</t>
+  </si>
+  <si>
+    <t>联系人名称</t>
+  </si>
+  <si>
+    <t>联系人名称拼音</t>
+  </si>
+  <si>
+    <t>联系人联系方式</t>
+  </si>
+  <si>
+    <t>1已注册，0未注册用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -419,739 +1160,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据最新需求简化表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张金洋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程参与人关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组参与人关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户消息队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程特殊事件表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程特殊事件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程特殊事件主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程提醒日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：修改，2：删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：日程事件，2：日程特殊事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>st</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>et</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唤醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新消息提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音播报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>震动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(400)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏好设置类型</t>
-  </si>
-  <si>
-    <t>偏好设置类型名称</t>
-  </si>
-  <si>
-    <t>偏好设置名称</t>
-  </si>
-  <si>
-    <t>偏好设置key</t>
-  </si>
-  <si>
-    <t>偏好设置value</t>
-  </si>
-  <si>
-    <t>yi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ytn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户偏好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏好主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划颜色标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帐户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>di</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头部信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统数据完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>语音</t>
-  </si>
-  <si>
-    <t>画面msg</t>
-  </si>
-  <si>
-    <t>系统版本</t>
-  </si>
-  <si>
-    <t>头部信息</t>
-  </si>
-  <si>
-    <t>speech</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>formmsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysversion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品ID</t>
-  </si>
-  <si>
-    <t>pi</t>
-  </si>
-  <si>
-    <t>产品版本</t>
-  </si>
-  <si>
-    <t>pv</t>
-  </si>
-  <si>
-    <t>设备ID</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>帐户ID</t>
-  </si>
-  <si>
-    <t>ai</t>
-  </si>
-  <si>
-    <t>设备类型</t>
-  </si>
-  <si>
-    <t>dt</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>lt</t>
-  </si>
-  <si>
-    <t>init</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：系统 2：自定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程关联ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>an</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>am</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_u</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>hiu</t>
-  </si>
-  <si>
-    <t>biy</t>
-  </si>
-  <si>
-    <t>rn</t>
-  </si>
-  <si>
-    <t>ic</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>uct</t>
-  </si>
-  <si>
-    <t>gtd_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_sp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_j_h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rnpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_b_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>j_h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：关闭，1：每日，2：每周，3：每月，4：每年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间戳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拼音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gnpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wtt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人别称</t>
-  </si>
-  <si>
-    <t>联系人别称拼音</t>
-  </si>
-  <si>
-    <t>联系人头像</t>
-  </si>
-  <si>
-    <t>联系人名称</t>
-  </si>
-  <si>
-    <t>联系人名称拼音</t>
-  </si>
-  <si>
-    <t>联系人联系方式</t>
-  </si>
-  <si>
-    <t>1已注册，0未注册用户</t>
+    <t>pni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始日程事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：未读，1：已读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>du</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：本人创建，1：本人创建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1206,12 +1243,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -1288,7 +1331,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1360,6 +1403,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1646,7 +1692,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1663,106 +1709,106 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
         <v>112</v>
-      </c>
-      <c r="C1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1826,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1841,49 +1887,49 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -1900,17 +1946,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -1927,17 +1973,17 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G10" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -1954,17 +2000,17 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -1981,17 +2027,17 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -2008,17 +2054,17 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -2035,17 +2081,17 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
@@ -2062,19 +2108,19 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ref="G11:G12" si="3">" ," &amp; E11 &amp; " " &amp; F11 &amp; " "</f>
@@ -2091,17 +2137,17 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="3"/>
@@ -2118,17 +2164,17 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="G13" t="e">
         <f>CONCATENATE(G4,G5,G6,#REF!,G7,G8,G9,G10,#REF!,#REF!,G11,G12)</f>
@@ -2148,7 +2194,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2183,49 +2229,49 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="F3" s="19" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -2242,17 +2288,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -2269,17 +2315,17 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -2296,32 +2342,32 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>285</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2397,7 +2443,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2432,49 +2478,49 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -2491,17 +2537,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -2560,7 +2606,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2607,49 +2653,49 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -2666,17 +2712,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -2695,13 +2741,13 @@
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -2718,17 +2764,17 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -2745,17 +2791,17 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -2774,13 +2820,13 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -2825,20 +2871,20 @@
     </row>
     <row r="15" spans="1:10">
       <c r="D15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="5:7">
@@ -2849,7 +2895,7 @@
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G19" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
@@ -2858,64 +2904,64 @@
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" t="s">
         <v>186</v>
-      </c>
-      <c r="G20" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="F21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="F22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="F23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="F24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="F25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" t="s">
         <v>188</v>
-      </c>
-      <c r="G25" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2950,49 +2996,49 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -3009,17 +3055,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -3036,17 +3082,17 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -3063,17 +3109,17 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -3090,17 +3136,17 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -3117,17 +3163,17 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -3199,13 +3245,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G19" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
@@ -3214,17 +3260,17 @@
     </row>
     <row r="20" spans="1:7">
       <c r="F20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="F21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="F22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3255,152 +3301,152 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" t="s">
         <v>206</v>
-      </c>
-      <c r="C6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E6" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3425,44 +3471,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="7">
         <v>43415</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="7">
         <v>43528</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
         <v>105</v>
-      </c>
-      <c r="D3" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3490,49 +3536,49 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="F3" s="20" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -3541,17 +3587,17 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -3560,17 +3606,17 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G10" si="0">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -3579,17 +3625,17 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -3598,17 +3644,17 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -3617,17 +3663,17 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -3636,17 +3682,17 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
@@ -3675,7 +3721,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3709,7 +3755,7 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -3718,40 +3764,40 @@
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -3764,17 +3810,17 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -3787,17 +3833,17 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G12" si="0">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -3810,17 +3856,17 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -3833,17 +3879,17 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -3856,17 +3902,17 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -3879,17 +3925,17 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
@@ -3902,19 +3948,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
@@ -3927,17 +3973,17 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
@@ -3950,17 +3996,17 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3991,7 +4037,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4012,7 +4058,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4026,7 +4072,7 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -4035,40 +4081,40 @@
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -4085,17 +4131,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -4112,17 +4158,17 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -4139,18 +4185,18 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -4167,18 +4213,18 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -4195,18 +4241,18 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -4223,18 +4269,18 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
@@ -4251,19 +4297,19 @@
     </row>
     <row r="11" spans="1:10" ht="27">
       <c r="A11" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
@@ -4280,17 +4326,17 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
@@ -4307,17 +4353,17 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>228</v>
-      </c>
       <c r="F13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="2"/>
@@ -4330,67 +4376,117 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B16" s="5"/>
       <c r="D16" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="G16" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
         <v xml:space="preserve"> si varchar(50) PRIMARY KEY ,sn varchar(50)  ,ui varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,rt varchar(4)  ,ji varchar(50) </v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>299</v>
+      </c>
       <c r="B17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="D17" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G17" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,)</f>
         <v xml:space="preserve"> si ,sn ,ui ,sd ,st ,ed ,et ,rt ,ji</v>
       </c>
     </row>
+    <row r="18" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" t="str">
+        <f>CONCATENATE(I5,I6,I7,I8,I9,I10,I11,I12,I13,)</f>
+        <v xml:space="preserve"> ,sn ,ui ,sd ,st ,ed ,et ,rt ,ji ,sr</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" t="str">
+        <f>CONCATENATE(I6,I7,I8,I9,I10,I11,I12,I13,I14,)</f>
+        <v xml:space="preserve"> ,ui ,sd ,st ,ed ,et ,rt ,ji ,sr</v>
+      </c>
+    </row>
     <row r="20" spans="1:7">
       <c r="A20" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4411,7 +4507,7 @@
   <dimension ref="A2:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4425,49 +4521,49 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="F3" s="20" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -4484,17 +4580,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -4511,17 +4607,17 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -4538,18 +4634,18 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -4566,18 +4662,18 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -4594,18 +4690,18 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -4622,18 +4718,18 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
@@ -4650,17 +4746,17 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
@@ -4677,17 +4773,17 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
@@ -4704,19 +4800,19 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ref="G13" si="3">" ," &amp; E13 &amp; " " &amp; F13 &amp; " "</f>
@@ -4733,17 +4829,17 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4772,7 +4868,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4792,8 +4888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4807,7 +4903,7 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -4816,40 +4912,40 @@
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -4866,17 +4962,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -4892,20 +4988,20 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>135</v>
+      <c r="A6" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>134</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -4921,18 +5017,18 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="5"/>
+      <c r="A7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="24"/>
       <c r="D7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -4948,20 +5044,20 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>90</v>
+      <c r="A8" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -4978,17 +5074,17 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -5004,20 +5100,20 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
@@ -5033,18 +5129,18 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="5"/>
+      <c r="A11" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="24"/>
       <c r="D11" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
@@ -5060,20 +5156,20 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
@@ -5090,22 +5186,22 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5138,7 +5234,7 @@
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5152,49 +5248,49 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>297</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -5211,17 +5307,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -5238,19 +5334,19 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -5267,17 +5363,17 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -5294,17 +5390,17 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -5321,17 +5417,17 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -5376,7 +5472,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
@@ -5420,49 +5516,49 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="5"/>
       <c r="D3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" t="str">
         <f>" " &amp; E3 &amp; " " &amp; F3 &amp; " PRIMARY KEY"</f>
@@ -5479,17 +5575,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G4" t="str">
         <f>" ," &amp; E4 &amp; " " &amp; F4 &amp; " "</f>
@@ -5506,17 +5602,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ref="G5" si="1">" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -5533,49 +5629,49 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5611,7 +5707,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="309">
   <si>
     <t>表名</t>
   </si>
@@ -1188,7 +1188,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0：本人创建，1：本人创建</t>
+    <t>0：他人创建，1：本人创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：关闭，1：10m，2：30m，3:4小时，4:4小时，5:1天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全天的时候，结束时间设为99:99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复类型的场合，结束日期9999/12/31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1395,6 +1407,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1403,9 +1418,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1895,10 +1907,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2237,10 +2249,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2486,10 +2498,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2661,10 +2673,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -3004,10 +3016,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -3544,10 +3556,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
@@ -3763,10 +3775,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -4057,8 +4069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4080,10 +4092,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="F2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -4243,7 +4255,9 @@
       <c r="A9" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>308</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
         <v>140</v>
@@ -4271,7 +4285,9 @@
       <c r="A10" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>307</v>
+      </c>
       <c r="C10" s="11"/>
       <c r="D10" s="10" t="s">
         <v>70</v>
@@ -4404,11 +4420,13 @@
         <v>282</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="27">
       <c r="A16" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="D16" s="5" t="s">
         <v>286</v>
       </c>
@@ -4529,10 +4547,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="F2" s="23"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -4888,7 +4906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
@@ -4911,10 +4929,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -4988,10 +5006,10 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -5017,10 +5035,10 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="21"/>
       <c r="D7" s="5" t="s">
         <v>32</v>
       </c>
@@ -5044,10 +5062,10 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="21" t="s">
         <v>89</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -5100,10 +5118,10 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -5129,10 +5147,10 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="21"/>
       <c r="D11" s="5" t="s">
         <v>84</v>
       </c>
@@ -5156,10 +5174,10 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="21" t="s">
         <v>86</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -5256,10 +5274,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -5524,10 +5542,10 @@
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="F1" s="21"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
     <sheet name="更新日志" sheetId="23" r:id="rId2"/>
     <sheet name="账户表" sheetId="44" r:id="rId3"/>
     <sheet name="用户信息表" sheetId="4" r:id="rId4"/>
-    <sheet name="日程事件表" sheetId="9" r:id="rId5"/>
-    <sheet name="日程特殊事件表" sheetId="45" r:id="rId6"/>
-    <sheet name="日程参与人表" sheetId="10" r:id="rId7"/>
-    <sheet name="提醒时间表" sheetId="11" r:id="rId8"/>
-    <sheet name="计划表" sheetId="41" r:id="rId9"/>
-    <sheet name="参与人" sheetId="24" r:id="rId10"/>
-    <sheet name="群组" sheetId="43" r:id="rId11"/>
-    <sheet name="群组参与人关系" sheetId="8" r:id="rId12"/>
-    <sheet name="系統設置表" sheetId="29" r:id="rId13"/>
-    <sheet name="用户偏好" sheetId="39" r:id="rId14"/>
-    <sheet name="系統設置表数据" sheetId="46" r:id="rId15"/>
+    <sheet name="日程总表" sheetId="47" r:id="rId5"/>
+    <sheet name="日程事件表" sheetId="9" r:id="rId6"/>
+    <sheet name="日程特殊事件表" sheetId="45" r:id="rId7"/>
+    <sheet name="日程参与人表" sheetId="10" r:id="rId8"/>
+    <sheet name="提醒时间表" sheetId="11" r:id="rId9"/>
+    <sheet name="计划表" sheetId="41" r:id="rId10"/>
+    <sheet name="参与人" sheetId="24" r:id="rId11"/>
+    <sheet name="群组" sheetId="43" r:id="rId12"/>
+    <sheet name="群组参与人关系" sheetId="8" r:id="rId13"/>
+    <sheet name="系統設置表" sheetId="29" r:id="rId14"/>
+    <sheet name="用户偏好" sheetId="39" r:id="rId15"/>
+    <sheet name="系統設置表数据" sheetId="46" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="316">
   <si>
     <t>表名</t>
   </si>
@@ -1189,6 +1190,46 @@
   </si>
   <si>
     <t>0：本人创建，1：本人创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程总表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1331,7 +1372,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1398,14 +1439,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1681,7 +1725,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1691,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1812,8 +1856,12 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="6"/>
@@ -1862,6 +1910,7 @@
     <hyperlink ref="A7" location="提醒时间表!A1" display="提醒时间表"/>
     <hyperlink ref="A5" location="日程事件表!A1" display="日程表"/>
     <hyperlink ref="A2" location="账户表!A1" display="账户表"/>
+    <hyperlink ref="A14" location="日程总表!A1" display="日程总表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -1869,6 +1918,245 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="str">
+        <f>" " &amp; E3 &amp; " " &amp; F3 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> ji VARCHAR(50) PRIMARY KEY</v>
+      </c>
+      <c r="I3" t="str">
+        <f>" " &amp; E3</f>
+        <v xml:space="preserve"> ji</v>
+      </c>
+      <c r="J3" t="str">
+        <f>"private _"&amp;E3&amp;": string;"</f>
+        <v>private _ji: string;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" ," &amp; E4 &amp; " " &amp; F4 &amp; " "</f>
+        <v xml:space="preserve"> ,jn VARCHAR(100) </v>
+      </c>
+      <c r="I4" t="str">
+        <f>" ," &amp; E4</f>
+        <v xml:space="preserve"> ,jn</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J5" si="0">"private _"&amp;E4&amp;": string;"</f>
+        <v>private _jn: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5" si="1">" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,jg VARCHAR(100) </v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" ref="I5" si="2">" ," &amp; E5</f>
+        <v xml:space="preserve"> ,jg</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>private _jg: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="G15" t="str">
+        <f>CONCATENATE(G3,G4,G5,G6,G7,G8,G9,G10,G11,G12)</f>
+        <v xml:space="preserve"> ji VARCHAR(50) PRIMARY KEY ,jn VARCHAR(100)  ,jg VARCHAR(100) </v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="G16" t="str">
+        <f>CONCATENATE(I3,I4,I5,I6,I7,I8,I9,I10,I11,I12)</f>
+        <v xml:space="preserve"> ji ,jn ,jg</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A14" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J17"/>
   <sheetViews>
@@ -1895,10 +2183,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2210,7 +2498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J20"/>
   <sheetViews>
@@ -2237,10 +2525,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2459,7 +2747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J17"/>
   <sheetViews>
@@ -2486,10 +2774,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2634,7 +2922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J26"/>
   <sheetViews>
@@ -2661,10 +2949,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2977,7 +3265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J22"/>
   <sheetViews>
@@ -3004,10 +3292,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -3286,7 +3574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -3522,7 +3810,7 @@
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E7" sqref="E7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3544,10 +3832,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
@@ -3741,7 +4029,7 @@
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B12" sqref="A4:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3763,10 +4051,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -4055,10 +4343,327 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.625" customWidth="1"/>
+    <col min="7" max="7" width="25.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> d varchar(10) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> d</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _d: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" " &amp; E5 &amp; " " &amp; F5</f>
+        <v xml:space="preserve"> c integer</v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,c</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J8" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _c: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G6" t="str">
+        <f>" " &amp; E6 &amp; " " &amp; F6</f>
+        <v xml:space="preserve"> n boolean</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I8" si="1">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,n</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _n: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G7" t="str">
+        <f>" " &amp; E7 &amp; " " &amp; F7</f>
+        <v xml:space="preserve"> wtt integer</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="str">
+        <f>" " &amp; E8 &amp; " " &amp; F8</f>
+        <v xml:space="preserve"> bz varchar(50)</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,bz</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _bz: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,)</f>
+        <v xml:space="preserve"> d varchar(10) PRIMARY KEY c integer n boolean wtt integer bz varchar(50)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,)</f>
+        <v xml:space="preserve"> d ,c ,n ,bz</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" t="str">
+        <f>CONCATENATE(I5,I6,I7,I8,)</f>
+        <v xml:space="preserve"> ,c ,n ,bz</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" t="str">
+        <f>CONCATENATE(I6,I7,I8,)</f>
+        <v xml:space="preserve"> ,n ,bz</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A14" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4080,10 +4685,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="F2" s="23"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -4502,12 +5107,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4529,10 +5134,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="F2" s="23"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -4884,12 +5489,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4911,10 +5516,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -4988,10 +5593,10 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>134</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -5017,10 +5622,10 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="22"/>
       <c r="D7" s="5" t="s">
         <v>32</v>
       </c>
@@ -5044,10 +5649,10 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>89</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -5100,10 +5705,10 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>79</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -5129,10 +5734,10 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="22"/>
       <c r="D11" s="5" t="s">
         <v>84</v>
       </c>
@@ -5156,10 +5761,10 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="22" t="s">
         <v>86</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -5229,7 +5834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J17"/>
   <sheetViews>
@@ -5256,10 +5861,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -5496,243 +6101,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" t="str">
-        <f>" " &amp; E3 &amp; " " &amp; F3 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> ji VARCHAR(50) PRIMARY KEY</v>
-      </c>
-      <c r="I3" t="str">
-        <f>" " &amp; E3</f>
-        <v xml:space="preserve"> ji</v>
-      </c>
-      <c r="J3" t="str">
-        <f>"private _"&amp;E3&amp;": string;"</f>
-        <v>private _ji: string;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" t="str">
-        <f>" ," &amp; E4 &amp; " " &amp; F4 &amp; " "</f>
-        <v xml:space="preserve"> ,jn VARCHAR(100) </v>
-      </c>
-      <c r="I4" t="str">
-        <f>" ," &amp; E4</f>
-        <v xml:space="preserve"> ,jn</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" ref="J4:J5" si="0">"private _"&amp;E4&amp;": string;"</f>
-        <v>private _jn: string;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" ref="G5" si="1">" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,jg VARCHAR(100) </v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" ref="I5" si="2">" ," &amp; E5</f>
-        <v xml:space="preserve"> ,jg</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="0"/>
-        <v>private _jg: string;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="G15" t="str">
-        <f>CONCATENATE(G3,G4,G5,G6,G7,G8,G9,G10,G11,G12)</f>
-        <v xml:space="preserve"> ji VARCHAR(50) PRIMARY KEY ,jn VARCHAR(100)  ,jg VARCHAR(100) </v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="G16" t="str">
-        <f>CONCATENATE(I3,I4,I5,I6,I7,I8,I9,I10,I11,I12)</f>
-        <v xml:space="preserve"> ji ,jn ,jg</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E1:F1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A14" location="一览!A1" display="返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IdeaProjects\GTD2\A-开发相关文档素材\6.二期文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -24,9 +29,9 @@
     <sheet name="用户偏好" sheetId="39" r:id="rId15"/>
     <sheet name="系統設置表数据" sheetId="46" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="322">
   <si>
     <t>表名</t>
   </si>
@@ -1230,13 +1235,36 @@
   </si>
   <si>
     <t>日程总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否提醒</t>
+  </si>
+  <si>
+    <t>0：否，1：是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1725,18 +1753,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1918,7 +1946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2157,7 +2185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2499,7 +2527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2748,7 +2776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2923,7 +2951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3266,7 +3294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3575,7 +3603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3744,7 +3772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3806,7 +3834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4021,11 +4049,12 @@
     <hyperlink ref="A15" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4342,11 +4371,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D6" sqref="D6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4402,7 +4431,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>268</v>
@@ -4659,7 +4688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5108,11 +5137,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5448,11 +5477,21 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="A15" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5"/>
@@ -5490,7 +5529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5835,7 +5874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IdeaProjects\GTD2\A-开发相关文档素材\6.二期文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -22,16 +17,17 @@
     <sheet name="日程参与人表" sheetId="10" r:id="rId8"/>
     <sheet name="提醒时间表" sheetId="11" r:id="rId9"/>
     <sheet name="计划表" sheetId="41" r:id="rId10"/>
-    <sheet name="参与人" sheetId="24" r:id="rId11"/>
-    <sheet name="群组" sheetId="43" r:id="rId12"/>
-    <sheet name="群组参与人关系" sheetId="8" r:id="rId13"/>
-    <sheet name="系統設置表" sheetId="29" r:id="rId14"/>
-    <sheet name="用户偏好" sheetId="39" r:id="rId15"/>
-    <sheet name="系統設置表数据" sheetId="46" r:id="rId16"/>
+    <sheet name="参与人头像" sheetId="48" r:id="rId11"/>
+    <sheet name="参与人" sheetId="24" r:id="rId12"/>
+    <sheet name="群组" sheetId="43" r:id="rId13"/>
+    <sheet name="群组参与人关系" sheetId="8" r:id="rId14"/>
+    <sheet name="系統設置表" sheetId="29" r:id="rId15"/>
+    <sheet name="用户偏好" sheetId="39" r:id="rId16"/>
+    <sheet name="系統設置表数据" sheetId="46" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -39,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="331">
   <si>
     <t>表名</t>
   </si>
@@ -275,107 +271,946 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>rel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bmi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划ID</t>
+  </si>
+  <si>
+    <t>计划ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji</t>
+  </si>
+  <si>
+    <t>ji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>son</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0非本地；1本地日历 默认非本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否本地</t>
+  </si>
+  <si>
+    <t>是否本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地日程id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0未发送，1同意发送，2拒绝发送，3未注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程发送状态</t>
+  </si>
+  <si>
+    <t>日程发送状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0不可修改，1可修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划名</t>
+  </si>
+  <si>
+    <t>计划描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划名称表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据最新需求简化表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张金洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程参与人关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组参与人关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户消息队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程特殊事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程特殊事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程特殊事件主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程提醒日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：修改，2：删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：日程事件，2：日程特殊事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>et</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唤醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新消息提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音播报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(400)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏好设置类型</t>
+  </si>
+  <si>
+    <t>偏好设置类型名称</t>
+  </si>
+  <si>
+    <t>偏好设置名称</t>
+  </si>
+  <si>
+    <t>偏好设置key</t>
+  </si>
+  <si>
+    <t>偏好设置value</t>
+  </si>
+  <si>
+    <t>yi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ytn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户偏好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏好主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划颜色标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>di</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头部信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统数据完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>语音</t>
+  </si>
+  <si>
+    <t>画面msg</t>
+  </si>
+  <si>
+    <t>系统版本</t>
+  </si>
+  <si>
+    <t>头部信息</t>
+  </si>
+  <si>
+    <t>speech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formmsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysversion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品ID</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>产品版本</t>
+  </si>
+  <si>
+    <t>pv</t>
+  </si>
+  <si>
+    <t>设备ID</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>帐户ID</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>设备类型</t>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>lt</t>
+  </si>
+  <si>
+    <t>init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：系统 2：自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程关联ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
     <t>hiu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bmi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划ID</t>
-  </si>
-  <si>
-    <t>计划ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ji</t>
-  </si>
-  <si>
-    <t>ji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>son</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0非本地；1本地日历 默认非本地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否本地</t>
-  </si>
-  <si>
-    <t>是否本地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ib</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地日程id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0未发送，1同意发送，2拒绝发送，3未注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程发送状态</t>
-  </si>
-  <si>
-    <t>日程发送状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0不可修改，1可修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sn</t>
+  </si>
+  <si>
+    <t>biy</t>
+  </si>
+  <si>
+    <t>rn</t>
+  </si>
+  <si>
+    <t>ic</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>uct</t>
+  </si>
+  <si>
+    <t>gtd_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_j_h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rnpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_b_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j_h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：关闭，1：每日，2：每周，3：每月，4：每年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gnpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人别称</t>
+  </si>
+  <si>
+    <t>联系人别称拼音</t>
+  </si>
+  <si>
+    <t>联系人头像</t>
+  </si>
+  <si>
+    <t>联系人名称</t>
+  </si>
+  <si>
+    <t>联系人名称拼音</t>
+  </si>
+  <si>
+    <t>联系人联系方式</t>
+  </si>
+  <si>
+    <t>1已注册，0未注册用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始日程事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：未读，1：已读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>du</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：本人创建，1：本人创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -383,888 +1218,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划名</t>
-  </si>
-  <si>
-    <t>计划描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划名称表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒时间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据最新需求简化表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张金洋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程参与人关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组参与人关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户消息队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程特殊事件表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程特殊事件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程特殊事件主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程提醒日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：修改，2：删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：日程事件，2：日程特殊事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>st</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>et</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唤醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新消息提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音播报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>震动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(400)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏好设置类型</t>
-  </si>
-  <si>
-    <t>偏好设置类型名称</t>
-  </si>
-  <si>
-    <t>偏好设置名称</t>
-  </si>
-  <si>
-    <t>偏好设置key</t>
-  </si>
-  <si>
-    <t>偏好设置value</t>
-  </si>
-  <si>
-    <t>yi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ytn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户偏好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏好主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划颜色标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帐户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>di</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头部信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统数据完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>语音</t>
-  </si>
-  <si>
-    <t>画面msg</t>
-  </si>
-  <si>
-    <t>系统版本</t>
-  </si>
-  <si>
-    <t>头部信息</t>
-  </si>
-  <si>
-    <t>speech</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>formmsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysversion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品ID</t>
-  </si>
-  <si>
-    <t>pi</t>
-  </si>
-  <si>
-    <t>产品版本</t>
-  </si>
-  <si>
-    <t>pv</t>
-  </si>
-  <si>
-    <t>设备ID</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>帐户ID</t>
-  </si>
-  <si>
-    <t>ai</t>
-  </si>
-  <si>
-    <t>设备类型</t>
-  </si>
-  <si>
-    <t>dt</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>lt</t>
-  </si>
-  <si>
-    <t>init</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：系统 2：自定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程关联ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>an</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>am</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_u</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui</t>
-  </si>
-  <si>
-    <t>un</t>
+    <t>日程总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否提醒</t>
+  </si>
+  <si>
+    <t>0：否，1：是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_bh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户头像表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hiu</t>
-  </si>
-  <si>
-    <t>biy</t>
-  </si>
-  <si>
-    <t>rn</t>
-  </si>
-  <si>
-    <t>ic</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>uct</t>
-  </si>
-  <si>
-    <t>gtd_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_sp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_j_h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rnpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_b_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>j_h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：关闭，1：每日，2：每周，3：每月，4：每年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间戳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拼音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gnpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wtt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人别称</t>
-  </si>
-  <si>
-    <t>联系人别称拼音</t>
-  </si>
-  <si>
-    <t>联系人头像</t>
-  </si>
-  <si>
-    <t>联系人名称</t>
-  </si>
-  <si>
-    <t>联系人名称拼音</t>
-  </si>
-  <si>
-    <t>联系人联系方式</t>
-  </si>
-  <si>
-    <t>1已注册，0未注册用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒时间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pni</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始日程事件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：未读，1：已读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>du</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>归属</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：本人创建，1：本人创建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间戳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_st</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>st</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程总表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否提醒</t>
-  </si>
-  <si>
-    <t>0：否，1：是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1400,7 +1432,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1469,6 +1501,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1753,14 +1788,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1781,114 +1816,114 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
         <v>111</v>
-      </c>
-      <c r="C1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1946,7 +1981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1966,15 +2001,15 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="F1" s="23"/>
+      <c r="E1" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
@@ -1995,14 +2030,14 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="5"/>
       <c r="D3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>47</v>
@@ -2022,17 +2057,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G4" t="str">
         <f>" ," &amp; E4 &amp; " " &amp; F4 &amp; " "</f>
@@ -2049,14 +2084,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>61</v>
@@ -2076,49 +2111,49 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2154,7 +2189,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>
@@ -2185,11 +2220,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2206,15 +2241,15 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>322</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="F2" s="23"/>
+      <c r="E2" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2226,6 +2261,147 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1">
+      <c r="A11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A11" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E3" s="15" t="s">
         <v>8</v>
       </c>
@@ -2242,7 +2418,7 @@
         <v>56</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>57</v>
@@ -2262,11 +2438,11 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>63</v>
@@ -2289,11 +2465,11 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>64</v>
@@ -2316,14 +2492,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>58</v>
@@ -2343,11 +2519,11 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>62</v>
@@ -2370,14 +2546,14 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>38</v>
@@ -2397,14 +2573,14 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>257</v>
+        <v>320</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>38</v>
@@ -2427,16 +2603,16 @@
         <v>50</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ref="G11:G12" si="3">" ," &amp; E11 &amp; " " &amp; F11 &amp; " "</f>
@@ -2460,7 +2636,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>29</v>
@@ -2480,17 +2656,17 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G13" t="e">
         <f>CONCATENATE(G4,G5,G6,#REF!,G7,G8,G9,G10,#REF!,#REF!,G11,G12)</f>
@@ -2526,8 +2702,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2548,15 +2724,15 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="F2" s="23"/>
+      <c r="E2" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2584,7 +2760,7 @@
         <v>51</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>57</v>
@@ -2604,14 +2780,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>53</v>
@@ -2631,14 +2807,14 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>53</v>
@@ -2658,14 +2834,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>29</v>
@@ -2673,17 +2849,17 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2775,8 +2951,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2802,10 +2978,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="F2" s="23"/>
+      <c r="E2" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2833,7 +3009,7 @@
         <v>52</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>53</v>
@@ -2860,7 +3036,7 @@
         <v>54</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>55</v>
@@ -2950,8 +3126,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2977,10 +3153,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="F2" s="23"/>
+      <c r="E2" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -3001,14 +3177,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>28</v>
@@ -3035,7 +3211,7 @@
         <v>45</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>46</v>
@@ -3057,10 +3233,10 @@
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>46</v>
@@ -3084,10 +3260,10 @@
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>46</v>
@@ -3111,10 +3287,10 @@
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>46</v>
@@ -3136,13 +3312,13 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -3190,7 +3366,7 @@
         <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3200,7 +3376,7 @@
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="5:7">
@@ -3211,7 +3387,7 @@
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G19" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
@@ -3220,64 +3396,64 @@
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" t="s">
         <v>185</v>
-      </c>
-      <c r="G20" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="F21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="F22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="F23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="F24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="F25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" t="s">
         <v>187</v>
-      </c>
-      <c r="G25" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3293,8 +3469,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3320,10 +3496,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="F2" s="23"/>
+      <c r="E2" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -3344,14 +3520,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>28</v>
@@ -3371,14 +3547,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>46</v>
@@ -3398,14 +3574,14 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>46</v>
@@ -3425,14 +3601,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>46</v>
@@ -3452,14 +3628,14 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>46</v>
@@ -3479,17 +3655,17 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -3567,7 +3743,7 @@
         <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G19" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
@@ -3576,17 +3752,17 @@
     </row>
     <row r="20" spans="1:7">
       <c r="F20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="F21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="F22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3602,8 +3778,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,152 +3793,152 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" t="s">
         <v>205</v>
-      </c>
-      <c r="C6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3772,7 +3948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3801,7 +3977,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="7">
         <v>43415</v>
@@ -3815,16 +3991,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="7">
         <v>43528</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
         <v>104</v>
-      </c>
-      <c r="D3" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3834,7 +4010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3855,15 +4031,15 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="F2" s="23"/>
+      <c r="E2" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
@@ -3884,14 +4060,14 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -3903,17 +4079,17 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -3922,17 +4098,17 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G10" si="0">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -3941,17 +4117,17 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -3960,14 +4136,14 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="9"/>
       <c r="D8" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>29</v>
@@ -3979,17 +4155,17 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -3998,17 +4174,17 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
@@ -4054,11 +4230,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="A4:B12"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4080,10 +4256,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="F2" s="23"/>
+      <c r="E2" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -4111,7 +4287,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -4127,14 +4303,14 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
@@ -4157,7 +4333,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>13</v>
@@ -4180,7 +4356,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>15</v>
@@ -4203,7 +4379,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>13</v>
@@ -4226,7 +4402,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>13</v>
@@ -4249,7 +4425,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>38</v>
@@ -4274,10 +4450,10 @@
         <v>17</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
@@ -4290,14 +4466,14 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>11</v>
@@ -4313,17 +4489,17 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4371,7 +4547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4403,10 +4579,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="F2" s="25"/>
+      <c r="E2" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -4427,17 +4603,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -4454,17 +4630,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G5" t="str">
         <f>" " &amp; E5 &amp; " " &amp; F5</f>
@@ -4481,17 +4657,17 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G6" t="str">
         <f>" " &amp; E6 &amp; " " &amp; F6</f>
@@ -4508,17 +4684,17 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G7" t="str">
         <f>" " &amp; E7 &amp; " " &amp; F7</f>
@@ -4527,14 +4703,14 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>29</v>
@@ -4688,7 +4864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4714,10 +4890,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="F2" s="25"/>
+      <c r="E2" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -4745,7 +4921,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -4765,14 +4941,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>30</v>
@@ -4799,7 +4975,7 @@
         <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>29</v>
@@ -4819,18 +4995,18 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -4847,15 +5023,15 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>38</v>
@@ -4875,15 +5051,15 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>38</v>
@@ -4903,18 +5079,18 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
@@ -4931,19 +5107,19 @@
     </row>
     <row r="11" spans="1:10" ht="27">
       <c r="A11" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
@@ -4960,14 +5136,14 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>29</v>
@@ -4987,14 +5163,14 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>29</v>
@@ -5010,14 +5186,14 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>29</v>
@@ -5025,32 +5201,32 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G16" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
@@ -5059,14 +5235,14 @@
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>38</v>
@@ -5078,19 +5254,19 @@
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G18" t="str">
         <f>CONCATENATE(I5,I6,I7,I8,I9,I10,I11,I12,I13,)</f>
@@ -5099,19 +5275,19 @@
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G19" t="str">
         <f>CONCATENATE(I6,I7,I8,I9,I10,I11,I12,I13,I14,)</f>
@@ -5137,10 +5313,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -5158,15 +5334,15 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="F2" s="25"/>
+      <c r="E2" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -5187,14 +5363,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -5221,7 +5397,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
@@ -5241,14 +5417,14 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>29</v>
@@ -5268,18 +5444,18 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -5296,15 +5472,15 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>38</v>
@@ -5324,15 +5500,15 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>38</v>
@@ -5352,15 +5528,15 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>38</v>
@@ -5380,14 +5556,14 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>29</v>
@@ -5407,14 +5583,14 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>29</v>
@@ -5434,19 +5610,19 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ref="G13" si="3">" ," &amp; E13 &amp; " " &amp; F13 &amp; " "</f>
@@ -5463,34 +5639,34 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5529,7 +5705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5555,10 +5731,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="F2" s="23"/>
+      <c r="E2" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -5586,7 +5762,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>28</v>
@@ -5606,14 +5782,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>28</v>
@@ -5633,16 +5809,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="22" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>29</v>
@@ -5669,7 +5845,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>28</v>
@@ -5692,16 +5868,16 @@
         <v>41</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -5718,14 +5894,14 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>28</v>
@@ -5745,19 +5921,19 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
@@ -5774,14 +5950,14 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="22"/>
       <c r="D11" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>28</v>
@@ -5801,19 +5977,19 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
@@ -5830,17 +6006,17 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5874,7 +6050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5895,15 +6071,15 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="F2" s="23"/>
+      <c r="E2" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -5931,7 +6107,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>28</v>
@@ -5958,7 +6134,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
@@ -5978,16 +6154,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>29</v>
@@ -6007,17 +6183,17 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -6041,10 +6217,10 @@
         <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -6061,17 +6237,17 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="332">
   <si>
     <t>表名</t>
   </si>
@@ -976,320 +976,324 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>wt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_j_h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rnpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_b_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j_h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：关闭，1：每日，2：每周，3：每月，4：每年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gnpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人别称</t>
+  </si>
+  <si>
+    <t>联系人别称拼音</t>
+  </si>
+  <si>
+    <t>联系人头像</t>
+  </si>
+  <si>
+    <t>联系人名称</t>
+  </si>
+  <si>
+    <t>联系人名称拼音</t>
+  </si>
+  <si>
+    <t>联系人联系方式</t>
+  </si>
+  <si>
+    <t>1已注册，0未注册用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始日程事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：未读，1：已读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>du</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：本人创建，1：本人创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否提醒</t>
+  </si>
+  <si>
+    <t>0：否，1：是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_bh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户头像表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>wd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_j_h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rnpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_b_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>j_h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：关闭，1：每日，2：每周，3：每月，4：每年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间戳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拼音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gnpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wtt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人别称</t>
-  </si>
-  <si>
-    <t>联系人别称拼音</t>
-  </si>
-  <si>
-    <t>联系人头像</t>
-  </si>
-  <si>
-    <t>联系人名称</t>
-  </si>
-  <si>
-    <t>联系人名称拼音</t>
-  </si>
-  <si>
-    <t>联系人联系方式</t>
-  </si>
-  <si>
-    <t>1已注册，0未注册用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒时间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pni</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始日程事件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：未读，1：已读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>du</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>归属</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：本人创建，1：本人创建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间戳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_st</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>st</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程总表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否提醒</t>
-  </si>
-  <si>
-    <t>0：否，1：是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_bh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户头像表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bhi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1788,7 +1792,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1827,7 +1831,7 @@
         <v>166</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1835,7 +1839,7 @@
         <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1843,7 +1847,7 @@
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1851,7 +1855,7 @@
         <v>123</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1859,7 +1863,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1867,7 +1871,7 @@
         <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1875,7 +1879,7 @@
         <v>164</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1883,7 +1887,7 @@
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1891,7 +1895,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1899,7 +1903,7 @@
         <v>107</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1907,7 +1911,7 @@
         <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1915,15 +1919,15 @@
         <v>165</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2007,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F1" s="24"/>
     </row>
@@ -2061,7 +2065,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>92</v>
@@ -2088,7 +2092,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>93</v>
@@ -2143,17 +2147,17 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2223,7 +2227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -2241,13 +2245,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -2270,14 +2274,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>57</v>
@@ -2285,14 +2289,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
@@ -2300,32 +2304,32 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2388,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -2418,7 +2422,7 @@
         <v>56</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>57</v>
@@ -2438,11 +2442,11 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>63</v>
@@ -2465,11 +2469,11 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>64</v>
@@ -2492,14 +2496,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>58</v>
@@ -2519,11 +2523,11 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>62</v>
@@ -2546,14 +2550,14 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>38</v>
@@ -2573,14 +2577,14 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>38</v>
@@ -2603,7 +2607,7 @@
         <v>50</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>50</v>
@@ -2656,17 +2660,17 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>279</v>
       </c>
       <c r="G13" t="e">
         <f>CONCATENATE(G4,G5,G6,#REF!,G7,G8,G9,G10,#REF!,#REF!,G11,G12)</f>
@@ -2730,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -2760,7 +2764,7 @@
         <v>51</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>57</v>
@@ -2787,7 +2791,7 @@
         <v>134</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>53</v>
@@ -2814,7 +2818,7 @@
         <v>135</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>53</v>
@@ -2834,14 +2838,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>29</v>
@@ -2849,17 +2853,17 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2979,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -3154,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -4174,17 +4178,17 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>279</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
@@ -4489,17 +4493,17 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4580,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F2" s="26"/>
     </row>
@@ -4603,17 +4607,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -4630,17 +4634,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>305</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G5" t="str">
         <f>" " &amp; E5 &amp; " " &amp; F5</f>
@@ -4657,17 +4661,17 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G6" t="str">
         <f>" " &amp; E6 &amp; " " &amp; F6</f>
@@ -4684,17 +4688,17 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G7" t="str">
         <f>" " &amp; E7 &amp; " " &amp; F7</f>
@@ -5110,13 +5114,13 @@
         <v>122</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>173</v>
@@ -5201,32 +5205,32 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B16" s="5"/>
       <c r="D16" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>284</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>285</v>
       </c>
       <c r="G16" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
@@ -5235,14 +5239,14 @@
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>38</v>
@@ -5254,16 +5258,16 @@
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1">
       <c r="A18" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>299</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>172</v>
@@ -5275,16 +5279,16 @@
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>172</v>
@@ -5317,7 +5321,7 @@
   <dimension ref="A2:J19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5639,34 +5643,34 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5809,7 +5813,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>133</v>
@@ -5894,11 +5898,11 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>190</v>
@@ -6006,17 +6010,17 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6053,8 +6057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6071,7 +6075,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -6154,13 +6158,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>133</v>
+        <v>330</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>91</v>
@@ -6190,7 +6194,7 @@
         <v>129</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>250</v>
+        <v>331</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>98</v>
@@ -6217,7 +6221,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>98</v>
@@ -6237,17 +6241,17 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>279</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -1,31 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
     <sheet name="更新日志" sheetId="23" r:id="rId2"/>
     <sheet name="账户表" sheetId="44" r:id="rId3"/>
     <sheet name="用户信息表" sheetId="4" r:id="rId4"/>
-    <sheet name="日程总表" sheetId="47" r:id="rId5"/>
-    <sheet name="日程事件表" sheetId="9" r:id="rId6"/>
-    <sheet name="日程特殊事件表" sheetId="45" r:id="rId7"/>
-    <sheet name="日程参与人表" sheetId="10" r:id="rId8"/>
-    <sheet name="提醒时间表" sheetId="11" r:id="rId9"/>
-    <sheet name="计划表" sheetId="41" r:id="rId10"/>
-    <sheet name="参与人头像" sheetId="48" r:id="rId11"/>
-    <sheet name="参与人" sheetId="24" r:id="rId12"/>
-    <sheet name="群组" sheetId="43" r:id="rId13"/>
-    <sheet name="群组参与人关系" sheetId="8" r:id="rId14"/>
-    <sheet name="系統設置表" sheetId="29" r:id="rId15"/>
-    <sheet name="用户偏好" sheetId="39" r:id="rId16"/>
-    <sheet name="系統設置表数据" sheetId="46" r:id="rId17"/>
+    <sheet name="日程事件表" sheetId="9" r:id="rId5"/>
+    <sheet name="日程特殊事件表" sheetId="45" r:id="rId6"/>
+    <sheet name="日程参与人表" sheetId="10" r:id="rId7"/>
+    <sheet name="提醒时间表" sheetId="11" r:id="rId8"/>
+    <sheet name="计划表" sheetId="41" r:id="rId9"/>
+    <sheet name="参与人" sheetId="24" r:id="rId10"/>
+    <sheet name="群组" sheetId="43" r:id="rId11"/>
+    <sheet name="群组参与人关系" sheetId="8" r:id="rId12"/>
+    <sheet name="系統設置表" sheetId="29" r:id="rId13"/>
+    <sheet name="用户偏好" sheetId="39" r:id="rId14"/>
+    <sheet name="系統設置表数据" sheetId="46" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="309">
   <si>
     <t>表名</t>
   </si>
@@ -236,10 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>授权表主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,6 +265,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>hiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>rel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -988,6 +986,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>gtd_b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>pwi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -996,6 +998,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>rc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>gtd_g</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1178,86 +1184,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0：本人创建，1：本人创建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间戳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_st</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>st</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程总表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否提醒</t>
-  </si>
-  <si>
-    <t>0：否，1：是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_bh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户头像表</t>
+    <t>0：关闭，1：10m，2：30m，3:4小时，4:4小时，5:1天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全天的时候，结束时间设为99:99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复类型的场合，结束日期9999/12/31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1265,31 +1200,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bhi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiu</t>
+    <t>0：他人创建，1：本人创建,2:系统创建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1432,7 +1343,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1496,14 +1407,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1799,7 +1704,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1827,7 +1732,7 @@
         <v>166</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1835,7 +1740,7 @@
         <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1843,7 +1748,7 @@
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1851,7 +1756,7 @@
         <v>123</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1859,7 +1764,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1867,7 +1772,7 @@
         <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1875,7 +1780,7 @@
         <v>164</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1883,7 +1788,7 @@
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1891,7 +1796,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1899,7 +1804,7 @@
         <v>107</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1907,7 +1812,7 @@
         <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1915,16 +1820,12 @@
         <v>165</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>311</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="6"/>
@@ -1973,7 +1874,6 @@
     <hyperlink ref="A7" location="提醒时间表!A1" display="提醒时间表"/>
     <hyperlink ref="A5" location="日程事件表!A1" display="日程表"/>
     <hyperlink ref="A2" location="账户表!A1" display="账户表"/>
-    <hyperlink ref="A14" location="日程总表!A1" display="日程总表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -1982,249 +1882,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="F1" s="24"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" t="str">
-        <f>" " &amp; E3 &amp; " " &amp; F3 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> ji VARCHAR(50) PRIMARY KEY</v>
-      </c>
-      <c r="I3" t="str">
-        <f>" " &amp; E3</f>
-        <v xml:space="preserve"> ji</v>
-      </c>
-      <c r="J3" t="str">
-        <f>"private _"&amp;E3&amp;": string;"</f>
-        <v>private _ji: string;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" t="str">
-        <f>" ," &amp; E4 &amp; " " &amp; F4 &amp; " "</f>
-        <v xml:space="preserve"> ,jn VARCHAR(100) </v>
-      </c>
-      <c r="I4" t="str">
-        <f>" ," &amp; E4</f>
-        <v xml:space="preserve"> ,jn</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" ref="J4:J5" si="0">"private _"&amp;E4&amp;": string;"</f>
-        <v>private _jn: string;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" ref="G5" si="1">" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,jg VARCHAR(100) </v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" ref="I5" si="2">" ," &amp; E5</f>
-        <v xml:space="preserve"> ,jg</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="0"/>
-        <v>private _jg: string;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="G15" t="str">
-        <f>CONCATENATE(G3,G4,G5,G6,G7,G8,G9,G10,G11,G12)</f>
-        <v xml:space="preserve"> ji VARCHAR(50) PRIMARY KEY ,jn VARCHAR(100)  ,jg VARCHAR(100) </v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="G16" t="str">
-        <f>CONCATENATE(I3,I4,I5,I6,I7,I8,I9,I10,I11,I12)</f>
-        <v xml:space="preserve"> ji ,jn ,jg</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E1:F1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A14" location="一览!A1" display="返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="D8" sqref="D8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2241,15 +1902,15 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="F2" s="24"/>
+      <c r="E2" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2261,167 +1922,26 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>328</v>
+        <v>254</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1">
-      <c r="A11" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A11" location="一览!A1" display="返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="F2" s="24"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -2438,14 +1958,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
@@ -2465,14 +1985,14 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>38</v>
@@ -2492,17 +2012,17 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>330</v>
+        <v>64</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -2519,14 +2039,14 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>38</v>
@@ -2546,14 +2066,14 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>38</v>
@@ -2573,14 +2093,14 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>38</v>
@@ -2603,7 +2123,7 @@
         <v>50</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>50</v>
@@ -2629,11 +2149,11 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>243</v>
@@ -2656,17 +2176,17 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G13" t="e">
         <f>CONCATENATE(G4,G5,G6,#REF!,G7,G8,G9,G10,#REF!,#REF!,G11,G12)</f>
@@ -2686,7 +2206,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2702,7 +2222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J20"/>
   <sheetViews>
@@ -2729,10 +2249,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="F2" s="24"/>
+      <c r="E2" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2760,10 +2280,10 @@
         <v>51</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -2787,7 +2307,7 @@
         <v>134</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>53</v>
@@ -2814,7 +2334,7 @@
         <v>135</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>53</v>
@@ -2834,14 +2354,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>29</v>
@@ -2849,17 +2369,17 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2935,7 +2455,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2951,7 +2471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J17"/>
   <sheetViews>
@@ -2978,10 +2498,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="F2" s="24"/>
+      <c r="E2" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -3098,7 +2618,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3126,7 +2646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J26"/>
   <sheetViews>
@@ -3153,10 +2673,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="F2" s="24"/>
+      <c r="E2" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -3371,7 +2891,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="5:7">
@@ -3469,7 +2989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J22"/>
   <sheetViews>
@@ -3496,10 +3016,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -3737,7 +3257,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
         <v>45</v>
@@ -3778,7 +3298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -4014,7 +3534,7 @@
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:H7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4036,10 +3556,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
@@ -4174,17 +3694,17 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
@@ -4213,7 +3733,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4225,7 +3745,6 @@
     <hyperlink ref="A15" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4234,7 +3753,7 @@
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4256,10 +3775,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -4489,17 +4008,17 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4530,7 +4049,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4548,327 +4067,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="61.625" customWidth="1"/>
-    <col min="7" max="7" width="25.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G4" t="str">
-        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> d varchar(10) PRIMARY KEY</v>
-      </c>
-      <c r="I4" t="str">
-        <f>" " &amp; E4</f>
-        <v xml:space="preserve"> d</v>
-      </c>
-      <c r="J4" t="str">
-        <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _d: string;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G5" t="str">
-        <f>" " &amp; E5 &amp; " " &amp; F5</f>
-        <v xml:space="preserve"> c integer</v>
-      </c>
-      <c r="I5" t="str">
-        <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,c</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" ref="J5:J8" si="0">"private _"&amp;E5&amp;": string;"</f>
-        <v>private _c: string;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="G6" t="str">
-        <f>" " &amp; E6 &amp; " " &amp; F6</f>
-        <v xml:space="preserve"> n boolean</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" ref="I6:I8" si="1">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,n</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>private _n: string;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G7" t="str">
-        <f>" " &amp; E7 &amp; " " &amp; F7</f>
-        <v xml:space="preserve"> wtt integer</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="str">
-        <f>" " &amp; E8 &amp; " " &amp; F8</f>
-        <v xml:space="preserve"> bz varchar(50)</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,bz</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>private _bz: string;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="10"/>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" t="str">
-        <f>CONCATENATE(G4,G5,G6,G7,G8,)</f>
-        <v xml:space="preserve"> d varchar(10) PRIMARY KEY c integer n boolean wtt integer bz varchar(50)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" t="str">
-        <f>CONCATENATE(I4,I5,I6,I7,I8,)</f>
-        <v xml:space="preserve"> d ,c ,n ,bz</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" t="str">
-        <f>CONCATENATE(I5,I6,I7,I8,)</f>
-        <v xml:space="preserve"> ,c ,n ,bz</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" t="str">
-        <f>CONCATENATE(I6,I7,I8,)</f>
-        <v xml:space="preserve"> ,n ,bz</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A14" location="一览!A1" display="返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4890,10 +4092,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -5053,7 +4255,9 @@
       <c r="A9" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>306</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
         <v>139</v>
@@ -5081,7 +4285,9 @@
       <c r="A10" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>305</v>
+      </c>
       <c r="C10" s="11"/>
       <c r="D10" s="10" t="s">
         <v>69</v>
@@ -5110,13 +4316,13 @@
         <v>122</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>173</v>
@@ -5201,32 +4407,34 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="27">
       <c r="A16" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B16" s="5"/>
+        <v>285</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="D16" s="5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G16" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
@@ -5235,14 +4443,14 @@
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>38</v>
@@ -5254,16 +4462,16 @@
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>172</v>
@@ -5275,16 +4483,16 @@
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>300</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>172</v>
@@ -5296,7 +4504,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -5312,12 +4520,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5339,10 +4547,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -5639,35 +4847,25 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>318</v>
-      </c>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5"/>
@@ -5688,7 +4886,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -5704,12 +4902,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5731,10 +4929,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -5808,10 +5006,10 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>133</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -5837,10 +5035,10 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="21"/>
       <c r="D7" s="5" t="s">
         <v>32</v>
       </c>
@@ -5864,10 +5062,10 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -5894,11 +5092,11 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>190</v>
@@ -5920,10 +5118,10 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -5949,10 +5147,10 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="21"/>
       <c r="D11" s="5" t="s">
         <v>83</v>
       </c>
@@ -5976,10 +5174,10 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>85</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -6006,22 +5204,22 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6049,12 +5247,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6071,15 +5269,15 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -6237,17 +5435,17 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -6292,7 +5490,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
@@ -6316,4 +5514,243 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="str">
+        <f>" " &amp; E3 &amp; " " &amp; F3 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> ji VARCHAR(50) PRIMARY KEY</v>
+      </c>
+      <c r="I3" t="str">
+        <f>" " &amp; E3</f>
+        <v xml:space="preserve"> ji</v>
+      </c>
+      <c r="J3" t="str">
+        <f>"private _"&amp;E3&amp;": string;"</f>
+        <v>private _ji: string;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" ," &amp; E4 &amp; " " &amp; F4 &amp; " "</f>
+        <v xml:space="preserve"> ,jn VARCHAR(100) </v>
+      </c>
+      <c r="I4" t="str">
+        <f>" ," &amp; E4</f>
+        <v xml:space="preserve"> ,jn</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J5" si="0">"private _"&amp;E4&amp;": string;"</f>
+        <v>private _jn: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5" si="1">" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,jg VARCHAR(100) </v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" ref="I5" si="2">" ," &amp; E5</f>
+        <v xml:space="preserve"> ,jg</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>private _jg: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="G15" t="str">
+        <f>CONCATENATE(G3,G4,G5,G6,G7,G8,G9,G10,G11,G12)</f>
+        <v xml:space="preserve"> ji VARCHAR(50) PRIMARY KEY ,jn VARCHAR(100)  ,jg VARCHAR(100) </v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="G16" t="str">
+        <f>CONCATENATE(I3,I4,I5,I6,I7,I8,I9,I10,I11,I12)</f>
+        <v xml:space="preserve"> ji ,jn ,jg</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A14" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="用户偏好" sheetId="39" r:id="rId16"/>
     <sheet name="系統設置表数据" sheetId="46" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1174,10 +1174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0：本人创建，1：本人创建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1294,6 +1290,10 @@
   </si>
   <si>
     <t>wd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：本人创建，1：他人创建，2：系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1792,7 +1792,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1924,10 +1924,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2245,13 +2245,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -2274,14 +2274,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>57</v>
@@ -2289,14 +2289,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
@@ -2304,17 +2304,17 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -2503,7 +2503,7 @@
         <v>287</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>58</v>
@@ -2584,7 +2584,7 @@
         <v>290</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>38</v>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F2" s="26"/>
     </row>
@@ -4607,17 +4607,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>264</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -4634,14 +4634,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>278</v>
@@ -4668,10 +4668,10 @@
         <v>297</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G6" t="str">
         <f>" " &amp; E6 &amp; " " &amp; F6</f>
@@ -4688,11 +4688,11 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>281</v>
@@ -4871,8 +4871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5282,7 +5282,7 @@
         <v>299</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>299</v>
@@ -5658,19 +5658,19 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6057,7 +6057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -6158,13 +6158,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>91</v>
@@ -6194,7 +6194,7 @@
         <v>129</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>98</v>

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="335">
   <si>
     <t>表名</t>
   </si>
@@ -1294,6 +1294,18 @@
   </si>
   <si>
     <t>0：本人创建，1：他人创建，2：系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:关闭，1:10m， 2:30m，3:1h，4:4h，5:1d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全天：99:99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复：9999/12/31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1792,7 +1804,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4872,7 +4884,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5029,7 +5041,9 @@
       <c r="A8" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>333</v>
+      </c>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
         <v>68</v>
@@ -5057,7 +5071,9 @@
       <c r="A9" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>334</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
         <v>139</v>
@@ -5085,7 +5101,9 @@
       <c r="A10" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>333</v>
+      </c>
       <c r="C10" s="11"/>
       <c r="D10" s="10" t="s">
         <v>69</v>
@@ -5222,7 +5240,9 @@
       <c r="A16" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>332</v>
+      </c>
       <c r="D16" s="5" t="s">
         <v>282</v>
       </c>
@@ -5318,10 +5338,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J19"/>
+  <dimension ref="A2:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5693,6 +5713,12 @@
     <row r="19" spans="1:7">
       <c r="A19" s="18" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="D22" s="1">
+        <f>60*24</f>
+        <v>1440</v>
       </c>
     </row>
   </sheetData>

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="337">
   <si>
     <t>表名</t>
   </si>
@@ -546,10 +546,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开始日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -980,332 +976,344 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>pwi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rnpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_b_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j_h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：关闭，1：每日，2：每周，3：每月，4：每年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gnpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人别称</t>
+  </si>
+  <si>
+    <t>联系人别称拼音</t>
+  </si>
+  <si>
+    <t>联系人头像</t>
+  </si>
+  <si>
+    <t>联系人名称</t>
+  </si>
+  <si>
+    <t>联系人名称拼音</t>
+  </si>
+  <si>
+    <t>联系人联系方式</t>
+  </si>
+  <si>
+    <t>1已注册，0未注册用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始日程事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：未读，1：已读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>du</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程总表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否提醒</t>
+  </si>
+  <si>
+    <t>0：否，1：是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_bh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户头像表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：本人创建，1：他人创建，2：系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:关闭，1:10m， 2:30m，3:1h，4:4h，5:1d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全天：99:99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复：9999/12/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>gtd_j_h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pwi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rnpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_b_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>j_h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：关闭，1：每日，2：每周，3：每月，4：每年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间戳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拼音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gnpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wtt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人别称</t>
-  </si>
-  <si>
-    <t>联系人别称拼音</t>
-  </si>
-  <si>
-    <t>联系人头像</t>
-  </si>
-  <si>
-    <t>联系人名称</t>
-  </si>
-  <si>
-    <t>联系人名称拼音</t>
-  </si>
-  <si>
-    <t>联系人联系方式</t>
-  </si>
-  <si>
-    <t>1已注册，0未注册用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒时间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pni</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始日程事件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：未读，1：已读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>du</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>归属</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间戳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_st</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>st</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程总表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否提醒</t>
-  </si>
-  <si>
-    <t>0：否，1：是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_bh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户头像表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bhi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：本人创建，1：他人创建，2：系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:关闭，1:10m， 2:30m，3:1h，4:4h，5:1d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全天：99:99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复：9999/12/31</t>
+    <t>计划类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：下载，0：未下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jtd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1804,7 +1812,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1840,26 +1848,26 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1867,7 +1875,7 @@
         <v>123</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1875,7 +1883,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1883,15 +1891,15 @@
         <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1899,7 +1907,7 @@
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1907,7 +1915,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1915,7 +1923,7 @@
         <v>107</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1923,23 +1931,23 @@
         <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2000,8 +2008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2023,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="F1" s="24"/>
     </row>
@@ -2077,7 +2085,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>92</v>
@@ -2104,7 +2112,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>93</v>
@@ -2127,57 +2135,67 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="A9" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5"/>
@@ -2239,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2257,13 +2275,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -2286,14 +2304,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>57</v>
@@ -2301,14 +2319,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>324</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
@@ -2316,32 +2334,32 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2381,7 +2399,7 @@
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2404,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -2434,7 +2452,7 @@
         <v>56</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>57</v>
@@ -2454,11 +2472,11 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>63</v>
@@ -2481,11 +2499,11 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>64</v>
@@ -2508,14 +2526,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>58</v>
@@ -2535,11 +2553,11 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>62</v>
@@ -2562,14 +2580,14 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>38</v>
@@ -2589,14 +2607,14 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>38</v>
@@ -2619,7 +2637,7 @@
         <v>50</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>50</v>
@@ -2628,7 +2646,7 @@
         <v>65</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ref="G11:G12" si="3">" ," &amp; E11 &amp; " " &amp; F11 &amp; " "</f>
@@ -2652,7 +2670,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>29</v>
@@ -2672,17 +2690,17 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G13" t="e">
         <f>CONCATENATE(G4,G5,G6,#REF!,G7,G8,G9,G10,#REF!,#REF!,G11,G12)</f>
@@ -2723,7 +2741,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2746,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -2776,7 +2794,7 @@
         <v>51</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>57</v>
@@ -2803,7 +2821,7 @@
         <v>134</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>53</v>
@@ -2823,14 +2841,14 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>135</v>
+        <v>321</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>135</v>
+        <v>321</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>53</v>
@@ -2850,14 +2868,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>29</v>
@@ -2865,17 +2883,17 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2995,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -3170,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -3193,11 +3211,11 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>89</v>
@@ -3249,10 +3267,10 @@
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>46</v>
@@ -3276,7 +3294,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>90</v>
@@ -3303,10 +3321,10 @@
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>46</v>
@@ -3328,13 +3346,13 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -3382,7 +3400,7 @@
         <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3392,7 +3410,7 @@
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="5:7">
@@ -3403,7 +3421,7 @@
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G19" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
@@ -3412,64 +3430,64 @@
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" t="s">
         <v>184</v>
-      </c>
-      <c r="G20" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="F21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="F22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="F23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="F24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="F25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" t="s">
         <v>186</v>
-      </c>
-      <c r="G25" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3513,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -3536,14 +3554,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>28</v>
@@ -3563,14 +3581,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>46</v>
@@ -3590,14 +3608,14 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>46</v>
@@ -3617,14 +3635,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>46</v>
@@ -3644,14 +3662,14 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>46</v>
@@ -3671,17 +3689,17 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -3759,7 +3777,7 @@
         <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G19" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
@@ -3768,17 +3786,17 @@
     </row>
     <row r="20" spans="1:7">
       <c r="F20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="F21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="F22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3809,152 +3827,152 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" t="s">
         <v>204</v>
-      </c>
-      <c r="C6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E6" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4053,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -4083,7 +4101,7 @@
         <v>114</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -4102,10 +4120,10 @@
         <v>115</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -4121,10 +4139,10 @@
         <v>112</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G10" si="0">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -4140,10 +4158,10 @@
         <v>117</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -4159,7 +4177,7 @@
         <v>118</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>29</v>
@@ -4178,10 +4196,10 @@
         <v>116</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -4190,17 +4208,17 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
@@ -4273,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -4303,7 +4321,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -4326,7 +4344,7 @@
         <v>114</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
@@ -4349,7 +4367,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>13</v>
@@ -4372,7 +4390,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>15</v>
@@ -4395,7 +4413,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>13</v>
@@ -4418,7 +4436,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>13</v>
@@ -4441,7 +4459,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>38</v>
@@ -4466,10 +4484,10 @@
         <v>17</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
@@ -4489,7 +4507,7 @@
         <v>119</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>11</v>
@@ -4505,17 +4523,17 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4596,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F2" s="26"/>
     </row>
@@ -4619,17 +4637,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -4646,17 +4664,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G5" t="str">
         <f>" " &amp; E5 &amp; " " &amp; F5</f>
@@ -4673,17 +4691,17 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G6" t="str">
         <f>" " &amp; E6 &amp; " " &amp; F6</f>
@@ -4700,17 +4718,17 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G7" t="str">
         <f>" " &amp; E7 &amp; " " &amp; F7</f>
@@ -4883,8 +4901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4907,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F2" s="26"/>
     </row>
@@ -4991,7 +5009,7 @@
         <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>29</v>
@@ -5011,12 +5029,12 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>70</v>
@@ -5042,14 +5060,14 @@
         <v>68</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
         <v>68</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>38</v>
@@ -5069,14 +5087,14 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>71</v>
@@ -5102,14 +5120,14 @@
         <v>69</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="10" t="s">
         <v>69</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>99</v>
@@ -5132,16 +5150,16 @@
         <v>122</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
@@ -5185,14 +5203,14 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>29</v>
@@ -5223,34 +5241,34 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="G16" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
@@ -5259,14 +5277,14 @@
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>38</v>
@@ -5278,19 +5296,19 @@
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>298</v>
-      </c>
       <c r="F18" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G18" t="str">
         <f>CONCATENATE(I5,I6,I7,I8,I9,I10,I11,I12,I13,)</f>
@@ -5299,19 +5317,19 @@
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G19" t="str">
         <f>CONCATENATE(I6,I7,I8,I9,I10,I11,I12,I13,I14,)</f>
@@ -5364,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F2" s="26"/>
     </row>
@@ -5394,7 +5412,7 @@
         <v>127</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -5448,7 +5466,7 @@
         <v>128</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>29</v>
@@ -5468,12 +5486,12 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>70</v>
@@ -5504,7 +5522,7 @@
         <v>68</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>38</v>
@@ -5524,7 +5542,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
@@ -5560,7 +5578,7 @@
         <v>69</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>38</v>
@@ -5643,10 +5661,10 @@
         <v>126</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ref="G13" si="3">" ," &amp; E13 &amp; " " &amp; F13 &amp; " "</f>
@@ -5663,34 +5681,34 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5762,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -5792,7 +5810,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>28</v>
@@ -5839,7 +5857,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>133</v>
@@ -5907,7 +5925,7 @@
         <v>77</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -5924,14 +5942,14 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>28</v>
@@ -5963,7 +5981,7 @@
         <v>81</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
@@ -6019,7 +6037,7 @@
         <v>84</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
@@ -6036,17 +6054,17 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6101,13 +6119,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -6137,7 +6155,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>28</v>
@@ -6184,13 +6202,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>91</v>
@@ -6220,7 +6238,7 @@
         <v>129</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>98</v>
@@ -6247,7 +6265,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>98</v>
@@ -6267,17 +6285,17 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IdeaProjects\GTD2\A-开发相关文档素材\6.二期文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -15,19 +20,20 @@
     <sheet name="日程事件表" sheetId="9" r:id="rId6"/>
     <sheet name="日程特殊事件表" sheetId="45" r:id="rId7"/>
     <sheet name="日程参与人表" sheetId="10" r:id="rId8"/>
-    <sheet name="提醒时间表" sheetId="11" r:id="rId9"/>
-    <sheet name="计划表" sheetId="41" r:id="rId10"/>
-    <sheet name="参与人头像" sheetId="48" r:id="rId11"/>
-    <sheet name="参与人" sheetId="24" r:id="rId12"/>
-    <sheet name="群组" sheetId="43" r:id="rId13"/>
-    <sheet name="群组参与人关系" sheetId="8" r:id="rId14"/>
-    <sheet name="系統設置表" sheetId="29" r:id="rId15"/>
-    <sheet name="用户偏好" sheetId="39" r:id="rId16"/>
-    <sheet name="系統設置表数据" sheetId="46" r:id="rId17"/>
+    <sheet name="计划日程特殊表" sheetId="49" r:id="rId9"/>
+    <sheet name="提醒时间表" sheetId="11" r:id="rId10"/>
+    <sheet name="计划表" sheetId="41" r:id="rId11"/>
+    <sheet name="参与人头像" sheetId="48" r:id="rId12"/>
+    <sheet name="参与人" sheetId="24" r:id="rId13"/>
+    <sheet name="群组" sheetId="43" r:id="rId14"/>
+    <sheet name="群组参与人关系" sheetId="8" r:id="rId15"/>
+    <sheet name="系統設置表" sheetId="29" r:id="rId16"/>
+    <sheet name="用户偏好" sheetId="39" r:id="rId17"/>
+    <sheet name="系統設置表数据" sheetId="46" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="348">
   <si>
     <t>表名</t>
   </si>
@@ -1314,13 +1320,57 @@
   </si>
   <si>
     <t>jtd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划日程特殊事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划日程特殊事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划内容主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划内容主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1456,7 +1506,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1525,6 +1575,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1812,14 +1865,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2005,10 +2058,279 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> wi varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> wi</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _wi: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,si varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,si</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J9" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _si: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,st varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I9" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,st</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _st: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,wd varchar(20) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,wd</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _wd: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,wt varchar(20) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,wt</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _wt: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,wtt integer </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,wtt</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _wtt: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+        <v xml:space="preserve"> wi varchar(50) PRIMARY KEY ,si varchar(50)  ,st varchar(50)  ,wd varchar(20)  ,wt varchar(20)  ,wtt integer </v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <v xml:space="preserve"> wi ,si ,st ,wd ,wt ,wtt</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A16" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2030,10 +2352,10 @@
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="F1" s="24"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
@@ -2253,8 +2575,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2280,10 +2602,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2394,8 +2716,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2421,10 +2743,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2736,8 +3058,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2763,10 +3085,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2985,8 +3307,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3012,10 +3334,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -3160,8 +3482,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3187,10 +3509,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -3503,8 +3825,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3530,10 +3852,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -3812,8 +4134,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3982,7 +4304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4044,7 +4366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4070,10 +4392,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
@@ -4264,7 +4586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4290,10 +4612,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -4581,7 +4903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4613,10 +4935,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -4898,7 +5220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4924,10 +5246,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -5355,11 +5677,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5381,10 +5703,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -5753,7 +6075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5779,10 +6101,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -6098,20 +6420,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
@@ -6119,15 +6440,15 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>291</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="F2" s="24"/>
+      <c r="E2" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -6139,218 +6460,329 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>338</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>337</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>248</v>
+        <v>341</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> wi varchar(50) PRIMARY KEY</v>
+        <v xml:space="preserve"> sji varchar(50) PRIMARY KEY</v>
       </c>
       <c r="I4" t="str">
         <f>" " &amp; E4</f>
-        <v xml:space="preserve"> wi</v>
+        <v xml:space="preserve"> sji</v>
       </c>
       <c r="J4" t="str">
         <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _wi: string;</v>
+        <v>private _sji: string;</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>339</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>89</v>
+        <v>340</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,si varchar(50) </v>
+        <v xml:space="preserve"> ,ji varchar(50) </v>
       </c>
       <c r="I5" t="str">
         <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,si</v>
+        <v xml:space="preserve"> ,ji</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J9" si="0">"private _"&amp;E5&amp;": string;"</f>
-        <v>private _si: string;</v>
+        <f t="shared" ref="J5:J13" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _ji: string;</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>327</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>91</v>
+        <v>245</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,st varchar(50) </v>
+        <f t="shared" ref="G6:G13" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,spn varchar(50) </v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" ref="I6:I9" si="2">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,st</v>
+        <f t="shared" ref="I6:I13" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,spn</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>private _st: string;</v>
+        <v>private _spn: string;</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>328</v>
+      <c r="A7" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,wd varchar(20) </v>
+        <v xml:space="preserve"> ,sd varchar(20) </v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,wd</v>
+        <v xml:space="preserve"> ,sd</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>private _wd: string;</v>
+        <v>private _sd: string;</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>249</v>
+      <c r="A8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,wt varchar(20) </v>
+        <v xml:space="preserve"> ,st varchar(20) </v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,wt</v>
+        <v xml:space="preserve"> ,st</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>private _wt: string;</v>
+        <v>private _st: string;</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>279</v>
+      <c r="A9" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>276</v>
+        <v>38</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,wtt integer </v>
+        <v xml:space="preserve"> ,ed varchar(20) </v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,wtt</v>
+        <v xml:space="preserve"> ,ed</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>private _wtt: string;</v>
+        <v>private _ed: string;</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="A10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,et varchar(20) </v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,et</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>private _et: string;</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>344</v>
+      </c>
       <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="D11" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ji integer </v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ji</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ji: string;</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="D12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,bz varchar(50) </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,bz</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>private _bz: string;</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="A13" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sta varchar(4) </v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sta</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sta: string;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="18" t="s">
-        <v>60</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
       <c r="G16" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
-        <v xml:space="preserve"> wi varchar(50) PRIMARY KEY ,si varchar(50)  ,st varchar(50)  ,wd varchar(20)  ,wt varchar(20)  ,wtt integer </v>
-      </c>
-    </row>
-    <row r="17" spans="7:7">
+        <v xml:space="preserve"> sji varchar(50) PRIMARY KEY ,ji varchar(50)  ,spn varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,ji integer  ,bz varchar(50)  ,sta varchar(4) </v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="G17" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
-        <v xml:space="preserve"> wi ,si ,st ,wd ,wt ,wtt</v>
+        <v xml:space="preserve"> sji ,ji ,spn ,sd ,st ,ed ,et ,ji ,bz ,sta</v>
       </c>
     </row>
   </sheetData>
@@ -6358,10 +6790,6 @@
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A16" location="一览!A1" display="返回"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -20,15 +20,15 @@
     <sheet name="日程事件表" sheetId="9" r:id="rId6"/>
     <sheet name="日程特殊事件表" sheetId="45" r:id="rId7"/>
     <sheet name="日程参与人表" sheetId="10" r:id="rId8"/>
-    <sheet name="计划日程特殊表" sheetId="49" r:id="rId9"/>
-    <sheet name="提醒时间表" sheetId="11" r:id="rId10"/>
-    <sheet name="计划表" sheetId="41" r:id="rId11"/>
-    <sheet name="参与人头像" sheetId="48" r:id="rId12"/>
-    <sheet name="参与人" sheetId="24" r:id="rId13"/>
-    <sheet name="群组" sheetId="43" r:id="rId14"/>
-    <sheet name="群组参与人关系" sheetId="8" r:id="rId15"/>
-    <sheet name="系統設置表" sheetId="29" r:id="rId16"/>
-    <sheet name="用户偏好" sheetId="39" r:id="rId17"/>
+    <sheet name="提醒时间表" sheetId="11" r:id="rId9"/>
+    <sheet name="计划表" sheetId="41" r:id="rId10"/>
+    <sheet name="参与人头像" sheetId="48" r:id="rId11"/>
+    <sheet name="参与人" sheetId="24" r:id="rId12"/>
+    <sheet name="群组" sheetId="43" r:id="rId13"/>
+    <sheet name="群组参与人关系" sheetId="8" r:id="rId14"/>
+    <sheet name="系統設置表" sheetId="29" r:id="rId15"/>
+    <sheet name="用户偏好" sheetId="39" r:id="rId16"/>
+    <sheet name="计划日程特殊表" sheetId="49" r:id="rId17"/>
     <sheet name="系統設置表数据" sheetId="46" r:id="rId18"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="354">
   <si>
     <t>表名</t>
   </si>
@@ -1335,35 +1335,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>计划内容主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划内容主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_jt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ji</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划内容主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划内容主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
+    <t>spn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划日程特殊表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增《计划日程特殊表》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1876,7 +1900,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2004,8 +2028,12 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="6"/>
@@ -2051,6 +2079,7 @@
     <hyperlink ref="A5" location="日程事件表!A1" display="日程表"/>
     <hyperlink ref="A2" location="账户表!A1" display="账户表"/>
     <hyperlink ref="A14" location="日程总表!A1" display="日程总表"/>
+    <hyperlink ref="A15" location="计划日程特殊表!A1" display="计划日程特殊表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2059,279 +2088,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="F2" s="25"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="str">
-        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> wi varchar(50) PRIMARY KEY</v>
-      </c>
-      <c r="I4" t="str">
-        <f>" " &amp; E4</f>
-        <v xml:space="preserve"> wi</v>
-      </c>
-      <c r="J4" t="str">
-        <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _wi: string;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="str">
-        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,si varchar(50) </v>
-      </c>
-      <c r="I5" t="str">
-        <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,si</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" ref="J5:J9" si="0">"private _"&amp;E5&amp;": string;"</f>
-        <v>private _si: string;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,st varchar(50) </v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" ref="I6:I9" si="2">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,st</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>private _st: string;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,wd varchar(20) </v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,wd</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>private _wd: string;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,wt varchar(20) </v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,wt</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>private _wt: string;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,wtt integer </v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,wtt</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>private _wtt: string;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" t="str">
-        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
-        <v xml:space="preserve"> wi varchar(50) PRIMARY KEY ,si varchar(50)  ,st varchar(50)  ,wd varchar(20)  ,wt varchar(20)  ,wtt integer </v>
-      </c>
-    </row>
-    <row r="17" spans="7:7">
-      <c r="G17" t="str">
-        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
-        <v xml:space="preserve"> wi ,si ,st ,wd ,wt ,wtt</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A16" location="一览!A1" display="返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2575,7 +2335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J11"/>
   <sheetViews>
@@ -2716,7 +2476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
@@ -3058,7 +2818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
@@ -3307,7 +3067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
@@ -3482,7 +3242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J26"/>
   <sheetViews>
@@ -3825,12 +3585,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4131,6 +3891,389 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="31.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> jti varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> jti</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _jti: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,ji varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,ji</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J13" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _ji: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G13" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,spn varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I13" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,spn</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _spn: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sd varchar(20) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sd</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sd: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,st varchar(20) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,st</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _st: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ed varchar(20) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ed</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ed: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,et varchar(20) </v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,et</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>private _et: string;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,px integer </v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,px</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>private _px: string;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,bz varchar(50) </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,bz</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>private _bz: string;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sta varchar(4) </v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sta</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sta: string;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+        <v xml:space="preserve"> jti varchar(50) PRIMARY KEY ,ji varchar(50)  ,spn varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,px integer  ,bz varchar(50)  ,sta varchar(4) </v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <v xml:space="preserve"> jti ,ji ,spn ,sd ,st ,ed ,et ,px ,bz ,sta</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A20" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4305,10 +4448,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4357,6 +4500,17 @@
       </c>
       <c r="D3" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="7">
+        <v>43571</v>
+      </c>
+      <c r="C4" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -5223,9 +5377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -6078,9 +6230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -6423,16 +6573,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="31.875" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
@@ -6440,15 +6591,15 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>291</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="F2" s="27"/>
+      <c r="E2" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -6460,329 +6611,218 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>338</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>337</v>
+        <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>341</v>
+        <v>248</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> sji varchar(50) PRIMARY KEY</v>
+        <v xml:space="preserve"> wi varchar(50) PRIMARY KEY</v>
       </c>
       <c r="I4" t="str">
         <f>" " &amp; E4</f>
-        <v xml:space="preserve"> sji</v>
+        <v xml:space="preserve"> wi</v>
       </c>
       <c r="J4" t="str">
         <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _sji: string;</v>
+        <v>private _wi: string;</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>339</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>340</v>
+        <v>89</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,ji varchar(50) </v>
+        <v xml:space="preserve"> ,si varchar(50) </v>
       </c>
       <c r="I5" t="str">
         <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,ji</v>
+        <v xml:space="preserve"> ,si</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J13" si="0">"private _"&amp;E5&amp;": string;"</f>
-        <v>private _ji: string;</v>
+        <f t="shared" ref="J5:J9" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _si: string;</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B6" s="5"/>
+        <v>327</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>327</v>
+      </c>
       <c r="D6" s="5" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>245</v>
+        <v>91</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" ref="G6:G13" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,spn varchar(50) </v>
+        <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,st varchar(50) </v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" ref="I6:I13" si="2">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,spn</v>
+        <f t="shared" ref="I6:I9" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,st</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>private _spn: string;</v>
+        <v>private _st: string;</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>70</v>
+      <c r="A7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>328</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,sd varchar(20) </v>
+        <v xml:space="preserve"> ,wd varchar(20) </v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,sd</v>
+        <v xml:space="preserve"> ,wd</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>private _sd: string;</v>
+        <v>private _wd: string;</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>91</v>
+      <c r="A8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,st varchar(20) </v>
+        <v xml:space="preserve"> ,wt varchar(20) </v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,st</v>
+        <v xml:space="preserve"> ,wt</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>private _st: string;</v>
+        <v>private _wt: string;</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>71</v>
+      <c r="A9" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>38</v>
+        <v>276</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,ed varchar(20) </v>
+        <v xml:space="preserve"> ,wtt integer </v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,ed</v>
+        <v xml:space="preserve"> ,wtt</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>private _ed: string;</v>
+        <v>private _wtt: string;</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,et varchar(20) </v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,et</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>private _et: string;</v>
-      </c>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="5" t="s">
-        <v>344</v>
-      </c>
+      <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,ji integer </v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,ji</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>private _ji: string;</v>
-      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="5" t="s">
-        <v>124</v>
-      </c>
+      <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,bz varchar(50) </v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,bz</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>private _bz: string;</v>
-      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,sta varchar(4) </v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,sta</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>private _sta: string;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="A16" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="G16" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
-        <v xml:space="preserve"> sji varchar(50) PRIMARY KEY ,ji varchar(50)  ,spn varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,ji integer  ,bz varchar(50)  ,sta varchar(4) </v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="D17" s="1"/>
+        <v xml:space="preserve"> wi varchar(50) PRIMARY KEY ,si varchar(50)  ,st varchar(50)  ,wd varchar(20)  ,wt varchar(20)  ,wtt integer </v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
       <c r="G17" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
-        <v xml:space="preserve"> sji ,ji ,spn ,sd ,st ,ed ,et ,ji ,bz ,sta</v>
+        <v xml:space="preserve"> wi ,si ,st ,wd ,wt ,wtt</v>
       </c>
     </row>
   </sheetData>
@@ -6790,6 +6830,10 @@
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A16" location="一览!A1" display="返回"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IdeaProjects\GTD2\A-开发相关文档素材\6.二期文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -23,11 +28,12 @@
     <sheet name="群组参与人关系" sheetId="8" r:id="rId14"/>
     <sheet name="系統設置表" sheetId="29" r:id="rId15"/>
     <sheet name="用户偏好" sheetId="39" r:id="rId16"/>
-    <sheet name="系統設置表数据" sheetId="46" r:id="rId17"/>
+    <sheet name="计划日程特殊表" sheetId="49" r:id="rId17"/>
+    <sheet name="系統設置表数据" sheetId="46" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="354">
   <si>
     <t>表名</t>
   </si>
@@ -1314,13 +1320,81 @@
   </si>
   <si>
     <t>jtd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划日程特殊事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划日程特殊事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划内容主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划内容主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_jt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划日程特殊表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增《计划日程特殊表》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1456,7 +1530,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1525,6 +1599,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1812,18 +1889,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1951,8 +2028,12 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="6"/>
@@ -1998,6 +2079,7 @@
     <hyperlink ref="A5" location="日程事件表!A1" display="日程表"/>
     <hyperlink ref="A2" location="账户表!A1" display="账户表"/>
     <hyperlink ref="A14" location="日程总表!A1" display="日程总表"/>
+    <hyperlink ref="A15" location="计划日程特殊表!A1" display="计划日程特殊表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2005,11 +2087,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2030,10 +2112,10 @@
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="F1" s="24"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
@@ -2254,7 +2336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2280,10 +2362,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2395,7 +2477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2421,10 +2503,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2737,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2763,10 +2845,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2986,7 +3068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3012,10 +3094,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -3161,7 +3243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3187,10 +3269,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -3504,11 +3586,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3530,10 +3612,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -3813,7 +3895,390 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="31.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> jti varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> jti</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _jti: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,ji varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,ji</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J13" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _ji: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G13" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,spn varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I13" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,spn</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _spn: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sd varchar(20) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sd</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sd: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,st varchar(20) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,st</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _st: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ed varchar(20) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ed</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ed: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,et varchar(20) </v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,et</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>private _et: string;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,px integer </v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,px</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>private _px: string;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,bz varchar(50) </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,bz</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>private _bz: string;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sta varchar(4) </v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sta</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sta: string;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+        <v xml:space="preserve"> jti varchar(50) PRIMARY KEY ,ji varchar(50)  ,spn varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,px integer  ,bz varchar(50)  ,sta varchar(4) </v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <v xml:space="preserve"> jti ,ji ,spn ,sd ,st ,ed ,et ,px ,bz ,sta</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A20" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3982,11 +4447,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4037,6 +4502,17 @@
         <v>104</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="7">
+        <v>43571</v>
+      </c>
+      <c r="C4" t="s">
+        <v>353</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4044,7 +4520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4070,10 +4546,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
@@ -4264,7 +4740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4290,10 +4766,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -4581,7 +5057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4613,10 +5089,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -4898,11 +5374,466 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> si varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> si</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _si: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,sn varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,sn</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J13" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _sn: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,ui varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I13" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,ui</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ui: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sd varchar(20) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sd</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sd: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,st varchar(20) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,st</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _st: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ed varchar(20) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ed</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ed: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,et varchar(20) </v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,et</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>private _et: string;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="27">
+      <c r="A11" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,rt varchar(4) </v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,rt</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>private _rt: string;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ji varchar(50) </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ji</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ji: string;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sr</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sr: string;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
+        <v xml:space="preserve"> si varchar(50) PRIMARY KEY ,sn varchar(50)  ,ui varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,rt varchar(4)  ,ji varchar(50) </v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,)</f>
+        <v xml:space="preserve"> si ,sn ,ui ,sd ,st ,ed ,et ,rt ,ji</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" t="str">
+        <f>CONCATENATE(I5,I6,I7,I8,I9,I10,I11,I12,I13,)</f>
+        <v xml:space="preserve"> ,sn ,ui ,sd ,st ,ed ,et ,rt ,ji ,sr</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" t="str">
+        <f>CONCATENATE(I6,I7,I8,I9,I10,I11,I12,I13,I14,)</f>
+        <v xml:space="preserve"> ,ui ,sd ,st ,ed ,et ,rt ,ji ,sr</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A20" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J22"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4919,15 +5850,15 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="F2" s="26"/>
+      <c r="E2" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -4939,92 +5870,92 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>89</v>
+        <v>244</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> si varchar(50) PRIMARY KEY</v>
+        <v xml:space="preserve"> spi varchar(50) PRIMARY KEY</v>
       </c>
       <c r="I4" t="str">
         <f>" " &amp; E4</f>
-        <v xml:space="preserve"> si</v>
+        <v xml:space="preserve"> spi</v>
       </c>
       <c r="J4" t="str">
         <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _si: string;</v>
+        <v>private _spi: string;</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,sn varchar(50) </v>
+        <v xml:space="preserve"> ,si varchar(50) </v>
       </c>
       <c r="I5" t="str">
         <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,sn</v>
+        <v xml:space="preserve"> ,si</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" ref="J5:J13" si="0">"private _"&amp;E5&amp;": string;"</f>
-        <v>private _sn: string;</v>
+        <v>private _si: string;</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,ui varchar(50) </v>
+        <v xml:space="preserve"> ,spn varchar(50) </v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" ref="I6:I13" si="2">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,ui</v>
+        <f t="shared" ref="I6:I12" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,spn</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>private _ui: string;</v>
+        <v>private _spn: string;</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5059,9 +5990,7 @@
       <c r="A8" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>331</v>
-      </c>
+      <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
         <v>68</v>
@@ -5089,12 +6018,10 @@
       <c r="A9" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>332</v>
-      </c>
+      <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>71</v>
@@ -5119,9 +6046,7 @@
       <c r="A10" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>331</v>
-      </c>
+      <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="10" t="s">
         <v>69</v>
@@ -5130,7 +6055,7 @@
         <v>139</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
@@ -5145,200 +6070,147 @@
         <v>private _et: string;</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="27">
+    <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>274</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>273</v>
+        <v>75</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,rt varchar(4) </v>
+        <v xml:space="preserve"> ,ji varchar(50) </v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,rt</v>
+        <v xml:space="preserve"> ,ji</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>private _rt: string;</v>
+        <v>private _ji: string;</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,ji varchar(50) </v>
+        <v xml:space="preserve"> ,bz varchar(50) </v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,ji</v>
+        <v xml:space="preserve"> ,bz</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>private _ji: string;</v>
+        <v>private _bz: string;</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B13" s="5"/>
+        <v>126</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" s="5" t="s">
-        <v>224</v>
+        <v>126</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>29</v>
+        <v>172</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" ref="G13" si="3">" ," &amp; E13 &amp; " " &amp; F13 &amp; " "</f>
+        <v xml:space="preserve"> ,sta varchar(4) </v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,sr</v>
+        <f t="shared" ref="I13" si="4">" ," &amp; E13</f>
+        <v xml:space="preserve"> ,sta</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>private _sr: string;</v>
+        <v>private _sta: string;</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>124</v>
+        <v>275</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>124</v>
+        <v>275</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>29</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B15" s="5"/>
+        <v>312</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="D15" s="5" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>282</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
       <c r="G16" t="str">
-        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
-        <v xml:space="preserve"> si varchar(50) PRIMARY KEY ,sn varchar(50)  ,ui varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,rt varchar(4)  ,ji varchar(50) </v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="D17" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>38</v>
-      </c>
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+        <v xml:space="preserve"> spi varchar(50) PRIMARY KEY ,si varchar(50)  ,spn varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,ji varchar(50)  ,bz varchar(50)  ,sta varchar(4) </v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="G17" t="str">
-        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,)</f>
-        <v xml:space="preserve"> si ,sn ,ui ,sd ,st ,ed ,et ,rt ,ji</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G18" t="str">
-        <f>CONCATENATE(I5,I6,I7,I8,I9,I10,I11,I12,I13,)</f>
-        <v xml:space="preserve"> ,sn ,ui ,sd ,st ,ed ,et ,rt ,ji ,sr</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G19" t="str">
-        <f>CONCATENATE(I6,I7,I8,I9,I10,I11,I12,I13,I14,)</f>
-        <v xml:space="preserve"> ,ui ,sd ,st ,ed ,et ,rt ,ji ,sr</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="18" t="s">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <v xml:space="preserve"> spi ,si ,spn ,sd ,st ,ed ,et ,ji ,bz ,sta</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="18" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="D22" s="1">
+        <f>60*24</f>
+        <v>1440</v>
       </c>
     </row>
   </sheetData>
@@ -5347,19 +6219,362 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A20" location="一览!A1" display="返回"/>
+    <hyperlink ref="A19" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J22"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> pi varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> pi</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _pi: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,si varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,si</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J12" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _si: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,st varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I12" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,st</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _st: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,son varchar(50) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,son</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _son: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sa varchar(4) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sa</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sa: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ai varchar(50) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ai</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ai: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ib varchar(4) </v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ib</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ib: string;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="D11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,bi varchar(50) </v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,bi</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>private _bi: string;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sdt varchar(4) </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sdt</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sdt: string;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+        <v xml:space="preserve"> pi varchar(50) PRIMARY KEY ,si varchar(50)  ,st varchar(50)  ,son varchar(50)  ,sa varchar(4)  ,ai varchar(50)  ,ib varchar(4)  ,bi varchar(50)  ,sdt varchar(4) </v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <v xml:space="preserve"> pi ,si ,st ,son ,sa ,ai ,ib ,bi ,sdt</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A15" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5376,758 +6591,15 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>291</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="str">
-        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> spi varchar(50) PRIMARY KEY</v>
-      </c>
-      <c r="I4" t="str">
-        <f>" " &amp; E4</f>
-        <v xml:space="preserve"> spi</v>
-      </c>
-      <c r="J4" t="str">
-        <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _spi: string;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="str">
-        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,si varchar(50) </v>
-      </c>
-      <c r="I5" t="str">
-        <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,si</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" ref="J5:J13" si="0">"private _"&amp;E5&amp;": string;"</f>
-        <v>private _si: string;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,spn varchar(50) </v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" ref="I6:I12" si="2">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,spn</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>private _spn: string;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,sd varchar(20) </v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,sd</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>private _sd: string;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,st varchar(20) </v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,st</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>private _st: string;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,ed varchar(20) </v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,ed</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>private _ed: string;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,et varchar(20) </v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,et</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>private _et: string;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,ji varchar(50) </v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,ji</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>private _ji: string;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,bz varchar(50) </v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,bz</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>private _bz: string;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" ref="G13" si="3">" ," &amp; E13 &amp; " " &amp; F13 &amp; " "</f>
-        <v xml:space="preserve"> ,sta varchar(4) </v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" ref="I13" si="4">" ," &amp; E13</f>
-        <v xml:space="preserve"> ,sta</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>private _sta: string;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" t="str">
-        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
-        <v xml:space="preserve"> spi varchar(50) PRIMARY KEY ,si varchar(50)  ,spn varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,ji varchar(50)  ,bz varchar(50)  ,sta varchar(4) </v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="G17" t="str">
-        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
-        <v xml:space="preserve"> spi ,si ,spn ,sd ,st ,ed ,et ,ji ,bz ,sta</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="D22" s="1">
-        <f>60*24</f>
-        <v>1440</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A19" location="一览!A1" display="返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="F2" s="24"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="str">
-        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> pi varchar(50) PRIMARY KEY</v>
-      </c>
-      <c r="I4" t="str">
-        <f>" " &amp; E4</f>
-        <v xml:space="preserve"> pi</v>
-      </c>
-      <c r="J4" t="str">
-        <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _pi: string;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="str">
-        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,si varchar(50) </v>
-      </c>
-      <c r="I5" t="str">
-        <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,si</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" ref="J5:J12" si="0">"private _"&amp;E5&amp;": string;"</f>
-        <v>private _si: string;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,st varchar(50) </v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" ref="I6:I12" si="2">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,st</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>private _st: string;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="D7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,son varchar(50) </v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,son</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>private _son: string;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,sa varchar(4) </v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,sa</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>private _sa: string;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,ai varchar(50) </v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,ai</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>private _ai: string;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,ib varchar(4) </v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,ib</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>private _ib: string;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="D11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,bi varchar(50) </v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,bi</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>private _bi: string;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,sdt varchar(4) </v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,sdt</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>private _sdt: string;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="G16" t="str">
-        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
-        <v xml:space="preserve"> pi varchar(50) PRIMARY KEY ,si varchar(50)  ,st varchar(50)  ,son varchar(50)  ,sa varchar(4)  ,ai varchar(50)  ,ib varchar(4)  ,bi varchar(50)  ,sdt varchar(4) </v>
-      </c>
-    </row>
-    <row r="17" spans="7:7">
-      <c r="G17" t="str">
-        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
-        <v xml:space="preserve"> pi ,si ,st ,son ,sa ,ai ,ib ,bi ,sdt</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A15" location="一览!A1" display="返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" firstSheet="6" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="353">
   <si>
     <t>表名</t>
   </si>
@@ -1348,10 +1348,6 @@
   </si>
   <si>
     <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2029,7 +2025,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>219</v>
@@ -3898,8 +3894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3921,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F2" s="27"/>
     </row>
@@ -3951,7 +3947,7 @@
         <v>337</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -3978,7 +3974,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
@@ -4005,7 +4001,7 @@
         <v>341</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>29</v>
@@ -4033,7 +4029,7 @@
         <v>135</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>38</v>
@@ -4144,10 +4140,10 @@
         <v>343</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
@@ -4191,47 +4187,37 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>131</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>126</v>
+        <v>275</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>170</v>
+        <v>279</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,sta varchar(4) </v>
+        <v xml:space="preserve"> ,wtt integer </v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,sta</v>
+        <v xml:space="preserve"> ,wtt</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>private _sta: string;</v>
+        <v>private _wtt: string;</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="5" t="s">
-        <v>275</v>
-      </c>
+      <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>344</v>
-      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5"/>
@@ -4248,7 +4234,7 @@
       <c r="F16" s="4"/>
       <c r="G16" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
-        <v xml:space="preserve"> jti varchar(50) PRIMARY KEY ,ji varchar(50)  ,spn varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,px integer  ,bz varchar(50)  ,sta varchar(4) </v>
+        <v xml:space="preserve"> jti varchar(50) PRIMARY KEY ,ji varchar(50)  ,spn varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,px integer  ,bz varchar(50)  ,wtt integer </v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4257,7 +4243,7 @@
       <c r="D17" s="1"/>
       <c r="G17" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
-        <v xml:space="preserve"> jti ,ji ,spn ,sd ,st ,ed ,et ,px ,bz ,sta</v>
+        <v xml:space="preserve"> jti ,ji ,spn ,sd ,st ,ed ,et ,px ,bz ,wtt</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4274,6 +4260,7 @@
     <hyperlink ref="A20" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4450,7 +4437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -4510,7 +4497,7 @@
         <v>43571</v>
       </c>
       <c r="C4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IdeaProjects\GTD2\A-开发相关文档素材\6.二期文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" firstSheet="6" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -31,9 +26,9 @@
     <sheet name="计划日程特殊表" sheetId="49" r:id="rId17"/>
     <sheet name="系統設置表数据" sheetId="46" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -41,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="353">
   <si>
     <t>表名</t>
   </si>
@@ -1390,7 +1385,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1885,14 +1880,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2083,7 +2078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2332,7 +2327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2473,7 +2468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2815,7 +2810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3064,7 +3059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3239,7 +3234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3582,7 +3577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3891,10 +3886,10 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -4265,7 +4260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4434,7 +4429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -4507,7 +4502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4727,7 +4722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5044,7 +5039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5361,10 +5356,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -5816,11 +5813,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6142,60 +6139,81 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B14" s="5"/>
+        <v>280</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>330</v>
+      </c>
       <c r="D14" s="5" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>276</v>
+        <v>172</v>
+      </c>
+      <c r="G14" t="str">
+        <f>CONCATENATE(G2,G3,G4,G5,G6,G7,G8,G9,G10,)</f>
+        <v xml:space="preserve"> spi varchar(50) PRIMARY KEY ,si varchar(50)  ,spn varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20) </v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" t="str">
+    <row r="17" spans="1:7">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
         <v xml:space="preserve"> spi varchar(50) PRIMARY KEY ,si varchar(50)  ,spn varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,ji varchar(50)  ,bz varchar(50)  ,sta varchar(4) </v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="G17" t="str">
+    <row r="18" spans="1:7">
+      <c r="G18" t="str">
         <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
         <v xml:space="preserve"> spi ,si ,spn ,sd ,st ,ed ,et ,ji ,bz ,sta</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="18" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="D22" s="1">
+    <row r="23" spans="1:7">
+      <c r="D23" s="1">
         <f>60*24</f>
         <v>1440</v>
       </c>
@@ -6206,7 +6224,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A19" location="一览!A1" display="返回"/>
+    <hyperlink ref="A20" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6214,7 +6232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6557,7 +6575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IdeaProjects\GTD2\A-开发相关文档素材\6.二期文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -26,9 +31,9 @@
     <sheet name="计划日程特殊表" sheetId="49" r:id="rId17"/>
     <sheet name="系統設置表数据" sheetId="46" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="357">
   <si>
     <t>表名</t>
   </si>
@@ -1286,10 +1291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0：本人创建，1：他人创建，2：系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0:关闭，1:10m， 2:30m，3:1h，4:4h，5:1d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1326,66 +1327,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>计划内容主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划内容主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_jt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划日程特殊表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增《计划日程特殊表》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：本人创建，1：他人创建，2：系统本地日历,3:系统计划3优先级类型，4：系统计划无优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>计划ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计划内容主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划内容主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_jt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jti</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>px</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划日程特殊表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增《计划日程特殊表》</t>
+    <t>计划ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1880,14 +1901,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2020,7 +2041,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>219</v>
@@ -2078,7 +2099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2104,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F1" s="25"/>
     </row>
@@ -2255,16 +2276,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="D9" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>335</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>336</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>220</v>
@@ -2327,7 +2348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2468,7 +2489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2810,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3059,7 +3080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3234,7 +3255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3577,7 +3598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3886,11 +3907,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3912,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F2" s="27"/>
     </row>
@@ -3935,14 +3956,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -3962,14 +3983,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>353</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
@@ -3983,30 +4004,30 @@
         <v xml:space="preserve"> ,ji</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J13" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <f t="shared" ref="J5:J14" si="0">"private _"&amp;E5&amp;": string;"</f>
         <v>private _ji: string;</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" ref="G6:G13" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <f t="shared" ref="G6:G14" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
         <v xml:space="preserve"> ,spn varchar(50) </v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" ref="I6:I13" si="2">" ," &amp; E6</f>
+        <f t="shared" ref="I6:I14" si="2">" ," &amp; E6</f>
         <v xml:space="preserve"> ,spn</v>
       </c>
       <c r="J6" t="str">
@@ -4024,7 +4045,7 @@
         <v>135</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>38</v>
@@ -4128,17 +4149,17 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
@@ -4208,11 +4229,31 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>354</v>
+      </c>
       <c r="B14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="D14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,si varchar(50) </v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,si</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>private _si: string;</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5"/>
@@ -4260,7 +4301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4429,7 +4470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -4492,7 +4533,7 @@
         <v>43571</v>
       </c>
       <c r="C4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -4502,7 +4543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4722,7 +4763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5039,7 +5080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5356,11 +5397,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5518,7 +5559,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
@@ -5548,7 +5589,7 @@
         <v>138</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
@@ -5578,7 +5619,7 @@
         <v>69</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="10" t="s">
@@ -5717,7 +5758,7 @@
         <v>280</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>280</v>
@@ -5773,12 +5814,12 @@
         <v xml:space="preserve"> ,sn ,ui ,sd ,st ,ed ,et ,rt ,ji ,sr</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.25" customHeight="1">
+    <row r="19" spans="1:7" ht="40.5">
       <c r="A19" s="5" t="s">
         <v>297</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>297</v>
@@ -5813,7 +5854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -6142,7 +6183,7 @@
         <v>280</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>280</v>
@@ -6232,7 +6273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6575,7 +6616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IdeaProjects\GTD2\A-开发相关文档素材\6.二期文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -31,9 +26,9 @@
     <sheet name="计划日程特殊表" sheetId="49" r:id="rId17"/>
     <sheet name="系統設置表数据" sheetId="46" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1152,10 +1147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0：未读，1：已读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1400,13 +1391,17 @@
   </si>
   <si>
     <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：未读，0：已读</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1901,14 +1896,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2033,15 +2028,15 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>219</v>
@@ -2099,7 +2094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2125,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F1" s="25"/>
     </row>
@@ -2276,16 +2271,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="D9" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>335</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>220</v>
@@ -2348,7 +2343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2369,13 +2364,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F2" s="25"/>
     </row>
@@ -2398,14 +2393,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>57</v>
@@ -2413,14 +2408,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
@@ -2428,17 +2423,17 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2489,7 +2484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2516,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F2" s="25"/>
     </row>
@@ -2627,7 +2622,7 @@
         <v>285</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>58</v>
@@ -2708,7 +2703,7 @@
         <v>288</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>38</v>
@@ -2831,7 +2826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2935,11 +2930,11 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>255</v>
@@ -3080,7 +3075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3255,7 +3250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3598,7 +3593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3907,7 +3902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3933,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F2" s="27"/>
     </row>
@@ -3956,14 +3951,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -3983,14 +3978,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
@@ -4010,14 +4005,14 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>29</v>
@@ -4045,7 +4040,7 @@
         <v>135</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>38</v>
@@ -4149,17 +4144,17 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>342</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
@@ -4230,17 +4225,17 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>356</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
@@ -4301,7 +4296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4470,7 +4465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -4533,7 +4528,7 @@
         <v>43571</v>
       </c>
       <c r="C4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -4543,7 +4538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4763,7 +4758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5080,7 +5075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5113,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F2" s="27"/>
     </row>
@@ -5136,17 +5131,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>262</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -5163,14 +5158,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>276</v>
@@ -5190,17 +5185,17 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G6" t="str">
         <f>" " &amp; E6 &amp; " " &amp; F6</f>
@@ -5217,11 +5212,11 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>279</v>
@@ -5397,11 +5392,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5559,7 +5554,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
@@ -5589,7 +5584,7 @@
         <v>138</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
@@ -5619,7 +5614,7 @@
         <v>69</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="10" t="s">
@@ -5758,7 +5753,7 @@
         <v>280</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>280</v>
@@ -5795,16 +5790,16 @@
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1">
       <c r="A18" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>171</v>
@@ -5816,16 +5811,16 @@
     </row>
     <row r="19" spans="1:7" ht="40.5">
       <c r="A19" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>298</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>171</v>
@@ -5854,11 +5849,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="B16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6183,7 +6178,7 @@
         <v>280</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>280</v>
@@ -6216,19 +6211,19 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -6273,7 +6268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6616,7 +6611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6720,13 +6715,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>91</v>
@@ -6756,7 +6751,7 @@
         <v>129</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>98</v>

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="计划日程特殊表" sheetId="49" r:id="rId17"/>
     <sheet name="系統設置表数据" sheetId="46" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -877,10 +877,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1：系统 2：自定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日程关联ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1395,6 +1391,10 @@
   </si>
   <si>
     <t>1：未读，0：已读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:系统jt，1：系统sp，2：自定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1896,7 +1896,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1935,7 +1935,7 @@
         <v>165</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1943,7 +1943,7 @@
         <v>161</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1951,7 +1951,7 @@
         <v>162</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>123</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1967,7 +1967,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1975,7 +1975,7 @@
         <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1983,7 +1983,7 @@
         <v>163</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1991,7 +1991,7 @@
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1999,7 +1999,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2007,7 +2007,7 @@
         <v>107</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2015,7 +2015,7 @@
         <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2023,20 +2023,20 @@
         <v>164</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>219</v>
@@ -2097,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F1" s="25"/>
     </row>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>92</v>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>93</v>
@@ -2237,12 +2237,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="27">
       <c r="A7" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>223</v>
+        <v>356</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>218</v>
@@ -2256,31 +2256,31 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="D9" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>334</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>220</v>
@@ -2364,13 +2364,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F2" s="25"/>
     </row>
@@ -2393,14 +2393,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>57</v>
@@ -2408,14 +2408,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
@@ -2423,32 +2423,32 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F2" s="25"/>
     </row>
@@ -2541,7 +2541,7 @@
         <v>56</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>57</v>
@@ -2561,11 +2561,11 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>63</v>
@@ -2588,11 +2588,11 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>64</v>
@@ -2615,14 +2615,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>58</v>
@@ -2642,11 +2642,11 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>62</v>
@@ -2669,14 +2669,14 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>38</v>
@@ -2696,14 +2696,14 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>38</v>
@@ -2726,7 +2726,7 @@
         <v>50</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>50</v>
@@ -2759,7 +2759,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>29</v>
@@ -2779,17 +2779,17 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="G13" t="e">
         <f>CONCATENATE(G4,G5,G6,#REF!,G7,G8,G9,G10,#REF!,#REF!,G11,G12)</f>
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F2" s="25"/>
     </row>
@@ -2883,7 +2883,7 @@
         <v>51</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>57</v>
@@ -2910,7 +2910,7 @@
         <v>134</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>53</v>
@@ -2930,14 +2930,14 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>53</v>
@@ -2957,14 +2957,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>278</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>29</v>
@@ -2972,17 +2972,17 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F2" s="25"/>
     </row>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F2" s="25"/>
     </row>
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F2" s="25"/>
     </row>
@@ -3928,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F2" s="27"/>
     </row>
@@ -3951,14 +3951,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -3978,14 +3978,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
@@ -4005,14 +4005,14 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>29</v>
@@ -4040,7 +4040,7 @@
         <v>135</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>38</v>
@@ -4144,17 +4144,17 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>341</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
@@ -4198,17 +4198,17 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
@@ -4225,17 +4225,17 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>355</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
@@ -4528,7 +4528,7 @@
         <v>43571</v>
       </c>
       <c r="C4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F2" s="25"/>
     </row>
@@ -4614,7 +4614,7 @@
         <v>115</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>166</v>
@@ -4633,7 +4633,7 @@
         <v>112</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>167</v>
@@ -4652,7 +4652,7 @@
         <v>117</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>168</v>
@@ -4671,7 +4671,7 @@
         <v>118</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>29</v>
@@ -4690,7 +4690,7 @@
         <v>116</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>169</v>
@@ -4702,17 +4702,17 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F2" s="25"/>
     </row>
@@ -4815,7 +4815,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -4861,7 +4861,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>13</v>
@@ -4884,7 +4884,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>15</v>
@@ -4907,7 +4907,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>13</v>
@@ -4930,7 +4930,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>13</v>
@@ -4953,7 +4953,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>38</v>
@@ -4978,7 +4978,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>172</v>
@@ -5001,7 +5001,7 @@
         <v>119</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>11</v>
@@ -5017,17 +5017,17 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F2" s="27"/>
     </row>
@@ -5131,17 +5131,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
@@ -5158,17 +5158,17 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>300</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G5" t="str">
         <f>" " &amp; E5 &amp; " " &amp; F5</f>
@@ -5185,17 +5185,17 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G6" t="str">
         <f>" " &amp; E6 &amp; " " &amp; F6</f>
@@ -5212,17 +5212,17 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G7" t="str">
         <f>" " &amp; E7 &amp; " " &amp; F7</f>
@@ -5395,8 +5395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5419,7 +5419,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F2" s="27"/>
     </row>
@@ -5503,7 +5503,7 @@
         <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>29</v>
@@ -5554,7 +5554,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
@@ -5584,7 +5584,7 @@
         <v>138</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
@@ -5614,7 +5614,7 @@
         <v>69</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="10" t="s">
@@ -5644,13 +5644,13 @@
         <v>122</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>172</v>
@@ -5697,14 +5697,14 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>29</v>
@@ -5735,34 +5735,34 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="G16" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
@@ -5771,14 +5771,14 @@
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>38</v>
@@ -5790,16 +5790,16 @@
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1">
       <c r="A18" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>171</v>
@@ -5811,16 +5811,16 @@
     </row>
     <row r="19" spans="1:7" ht="40.5">
       <c r="A19" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>171</v>
@@ -5876,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F2" s="27"/>
     </row>
@@ -5906,7 +5906,7 @@
         <v>127</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -5960,7 +5960,7 @@
         <v>128</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>29</v>
@@ -6175,16 +6175,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>172</v>
@@ -6196,34 +6196,34 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -6293,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F2" s="25"/>
     </row>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>133</v>
@@ -6455,11 +6455,11 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>189</v>
@@ -6567,17 +6567,17 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6632,13 +6632,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F2" s="25"/>
     </row>
@@ -6668,7 +6668,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>28</v>
@@ -6715,13 +6715,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>91</v>
@@ -6751,7 +6751,7 @@
         <v>129</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>98</v>
@@ -6778,7 +6778,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>98</v>
@@ -6798,17 +6798,17 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" firstSheet="7" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="用户偏好" sheetId="39" r:id="rId16"/>
     <sheet name="计划日程特殊表" sheetId="49" r:id="rId17"/>
     <sheet name="系統設置表数据" sheetId="46" r:id="rId18"/>
+    <sheet name="语音表" sheetId="50" r:id="rId19"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="382">
   <si>
     <t>表名</t>
   </si>
@@ -1395,6 +1396,106 @@
   </si>
   <si>
     <t>0:系统jt，1：系统sp，2：自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_su</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音句型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.问句，2.陈述句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subtsn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sustsn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大分类描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小分类描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（备用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE, ONE, MULTI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语义环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语义结果是否多条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1537,7 +1638,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1606,6 +1707,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1896,7 +2000,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2097,7 +2201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2119,10 +2223,10 @@
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="F1" s="25"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
@@ -2369,10 +2473,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="F2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2510,10 +2614,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="F2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2852,10 +2956,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="F2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -3101,10 +3205,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="F2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -3254,7 +3358,7 @@
   <dimension ref="A2:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3276,10 +3380,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="F2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -3619,10 +3723,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="F2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -3927,10 +4031,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -4464,6 +4568,376 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> sui varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> sui</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private "&amp;E4&amp;": string;"</f>
+        <v>private sui: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,subt VARCHAR(20) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,subt</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5" si="0">"private "&amp;E5&amp;": string;"</f>
+        <v>private subt: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="str">
+        <f>" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,subtsn VARCHAR(20) </v>
+      </c>
+      <c r="I6" t="str">
+        <f>" ," &amp; E6</f>
+        <v xml:space="preserve"> ,subtsn</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" ref="J6" si="1">"private "&amp;E6&amp;": string;"</f>
+        <v>private subtsn: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="str">
+        <f>" ," &amp; E7 &amp; " " &amp; F7 &amp; " "</f>
+        <v xml:space="preserve"> ,sust VARCHAR(20) </v>
+      </c>
+      <c r="I7" t="str">
+        <f>" ," &amp; E7</f>
+        <v xml:space="preserve"> ,sust</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" ref="J7" si="2">"private "&amp;E7&amp;": string;"</f>
+        <v>private sust: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="str">
+        <f>" ," &amp; E8 &amp; " " &amp; F8 &amp; " "</f>
+        <v xml:space="preserve"> ,sustsn VARCHAR(20) </v>
+      </c>
+      <c r="I8" t="str">
+        <f>" ," &amp; E8</f>
+        <v xml:space="preserve"> ,sustsn</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" ref="J8" si="3">"private "&amp;E8&amp;": string;"</f>
+        <v>private sustsn: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="str">
+        <f>" ," &amp; E9 &amp; " " &amp; F9 &amp; " "</f>
+        <v xml:space="preserve"> ,suc VARCHAR(20) </v>
+      </c>
+      <c r="I9" t="str">
+        <f>" ," &amp; E9</f>
+        <v xml:space="preserve"> ,suc</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" ref="J9:J13" si="4">"private "&amp;E9&amp;": string;"</f>
+        <v>private suc: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ref="G10:G13" si="5">" ," &amp; E10 &amp; " " &amp; F10 &amp; " "</f>
+        <v xml:space="preserve"> ,sut VARCHAR(20) </v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" ref="I10:I13" si="6">" ," &amp; E10</f>
+        <v xml:space="preserve"> ,sut</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="4"/>
+        <v>private sut: string;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> ,sus VARCHAR(20) </v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ,sus</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="4"/>
+        <v>private sus: string;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> ,sum VARCHAR(20) </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ,sum</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="4"/>
+        <v>private sum: string;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="G22" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12)</f>
+        <v xml:space="preserve"> sui varchar(50) PRIMARY KEY ,subt VARCHAR(20)  ,subtsn VARCHAR(20)  ,sust VARCHAR(20)  ,sustsn VARCHAR(20)  ,suc VARCHAR(20)  ,sut VARCHAR(20)  ,sus VARCHAR(20)  ,sum VARCHAR(20) </v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="G23" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12)</f>
+        <v xml:space="preserve"> sui ,subt ,subtsn ,sust ,sustsn ,suc ,sut ,sus ,sum</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A20" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
@@ -4564,10 +5038,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
@@ -4784,10 +5258,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="F2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -5107,10 +5581,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -5418,10 +5892,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -5875,10 +6349,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -6292,10 +6766,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="F2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -6637,10 +7111,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="F2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -1415,14 +1415,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>语音句型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.问句，2.陈述句</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1496,6 +1488,14 @@
   </si>
   <si>
     <t>语义结果是否多条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true：需要，false：不需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音自动激活</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2000,7 +2000,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4573,7 +4573,7 @@
   <dimension ref="A2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4626,7 +4626,7 @@
         <v>359</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>28</v>
@@ -4646,14 +4646,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>46</v>
@@ -4673,16 +4673,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>46</v>
@@ -4702,16 +4702,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>46</v>
@@ -4731,16 +4731,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>46</v>
@@ -4767,7 +4767,7 @@
         <v>360</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>46</v>
@@ -4781,32 +4781,32 @@
         <v xml:space="preserve"> ,suc</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" ref="J9:J13" si="4">"private "&amp;E9&amp;": string;"</f>
+        <f t="shared" ref="J9:J12" si="4">"private "&amp;E9&amp;": string;"</f>
         <v>private suc: string;</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" ref="G10:G13" si="5">" ," &amp; E10 &amp; " " &amp; F10 &amp; " "</f>
+        <f t="shared" ref="G10:G12" si="5">" ," &amp; E10 &amp; " " &amp; F10 &amp; " "</f>
         <v xml:space="preserve"> ,sut VARCHAR(20) </v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" ref="I10:I13" si="6">" ," &amp; E10</f>
+        <f t="shared" ref="I10:I12" si="6">" ," &amp; E10</f>
         <v xml:space="preserve"> ,sut</v>
       </c>
       <c r="J10" t="str">
@@ -4816,16 +4816,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>46</v>
@@ -4845,14 +4845,14 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>365</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>46</v>

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="381">
   <si>
     <t>表名</t>
   </si>
@@ -1439,10 +1439,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>语音标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>subt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1475,10 +1471,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（备用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NONE, ONE, MULTI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1496,6 +1488,10 @@
   </si>
   <si>
     <t>语音自动激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音tips</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2000,7 +1996,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4573,7 +4569,7 @@
   <dimension ref="A2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4646,14 +4642,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>46</v>
@@ -4673,16 +4669,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>46</v>
@@ -4702,16 +4698,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>46</v>
@@ -4731,16 +4727,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>46</v>
@@ -4787,13 +4783,11 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>376</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>365</v>
@@ -4816,13 +4810,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>364</v>

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" firstSheet="7" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -1263,10 +1263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ranpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hiu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1492,6 +1488,10 @@
   </si>
   <si>
     <t>语音tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bhiu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1996,7 +1996,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>219</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F1" s="26"/>
     </row>
@@ -2342,7 +2342,7 @@
         <v>218</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>218</v>
@@ -2371,16 +2371,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="D9" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>333</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>220</v>
@@ -2446,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2530,7 +2530,7 @@
         <v>319</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>323</v>
+        <v>380</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>321</v>
@@ -2722,7 +2722,7 @@
         <v>284</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>58</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F2" s="28"/>
     </row>
@@ -4051,14 +4051,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
@@ -4078,14 +4078,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
@@ -4105,14 +4105,14 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>29</v>
@@ -4140,7 +4140,7 @@
         <v>135</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>38</v>
@@ -4244,17 +4244,17 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>340</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
@@ -4325,17 +4325,17 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>354</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
@@ -4568,7 +4568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -4586,13 +4586,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F2" s="26"/>
     </row>
@@ -4615,14 +4615,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>28</v>
@@ -4642,14 +4642,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>46</v>
@@ -4669,16 +4669,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>46</v>
@@ -4698,16 +4698,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>46</v>
@@ -4727,16 +4727,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>46</v>
@@ -4756,14 +4756,14 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>46</v>
@@ -4783,14 +4783,14 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>46</v>
@@ -4810,16 +4810,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>379</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>46</v>
@@ -4839,14 +4839,14 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>46</v>
@@ -4996,7 +4996,7 @@
         <v>43571</v>
       </c>
       <c r="C4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -6022,7 +6022,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
@@ -6052,7 +6052,7 @@
         <v>138</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
@@ -6082,7 +6082,7 @@
         <v>69</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="10" t="s">
@@ -6221,7 +6221,7 @@
         <v>279</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>279</v>
@@ -6261,7 +6261,7 @@
         <v>293</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>293</v>
@@ -6282,7 +6282,7 @@
         <v>295</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>295</v>
@@ -6646,7 +6646,7 @@
         <v>279</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>279</v>
@@ -7183,13 +7183,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>91</v>
@@ -7219,7 +7219,7 @@
         <v>129</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>98</v>

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoji\git\GTD2-dev\A-开发相关文档素材\6.二期文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -15,21 +20,22 @@
     <sheet name="日程事件表" sheetId="9" r:id="rId6"/>
     <sheet name="日程特殊事件表" sheetId="45" r:id="rId7"/>
     <sheet name="日程参与人表" sheetId="10" r:id="rId8"/>
-    <sheet name="提醒时间表" sheetId="11" r:id="rId9"/>
-    <sheet name="计划表" sheetId="41" r:id="rId10"/>
-    <sheet name="参与人头像" sheetId="48" r:id="rId11"/>
-    <sheet name="参与人" sheetId="24" r:id="rId12"/>
-    <sheet name="群组" sheetId="43" r:id="rId13"/>
-    <sheet name="群组参与人关系" sheetId="8" r:id="rId14"/>
-    <sheet name="系統設置表" sheetId="29" r:id="rId15"/>
-    <sheet name="用户偏好" sheetId="39" r:id="rId16"/>
-    <sheet name="计划日程特殊表" sheetId="49" r:id="rId17"/>
-    <sheet name="系統設置表数据" sheetId="46" r:id="rId18"/>
-    <sheet name="语音表" sheetId="50" r:id="rId19"/>
+    <sheet name="日程语义标签标注表" sheetId="51" r:id="rId9"/>
+    <sheet name="提醒时间表" sheetId="11" r:id="rId10"/>
+    <sheet name="计划表" sheetId="41" r:id="rId11"/>
+    <sheet name="参与人头像" sheetId="48" r:id="rId12"/>
+    <sheet name="参与人" sheetId="24" r:id="rId13"/>
+    <sheet name="群组" sheetId="43" r:id="rId14"/>
+    <sheet name="群组参与人关系" sheetId="8" r:id="rId15"/>
+    <sheet name="系統設置表" sheetId="29" r:id="rId16"/>
+    <sheet name="用户偏好" sheetId="39" r:id="rId17"/>
+    <sheet name="计划日程特殊表" sheetId="49" r:id="rId18"/>
+    <sheet name="系統設置表数据" sheetId="46" r:id="rId19"/>
+    <sheet name="语音表" sheetId="50" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="392">
   <si>
     <t>表名</t>
   </si>
@@ -1492,13 +1498,57 @@
   </si>
   <si>
     <t>bhiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程语义标签标注表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_mk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语义标签标注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语义标签使用半角逗号分割，查询时使用like模糊查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标注类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1634,7 +1684,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1703,6 +1753,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1996,18 +2049,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2194,7 +2247,276 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> wi varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> wi</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _wi: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,si varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,si</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J9" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _si: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,st varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I9" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,st</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _st: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,wd varchar(20) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,wd</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _wd: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,wt varchar(20) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,wt</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _wt: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,wtt integer </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,wtt</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _wtt: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+        <v xml:space="preserve"> wi varchar(50) PRIMARY KEY ,si varchar(50)  ,st varchar(50)  ,wd varchar(20)  ,wt varchar(20)  ,wtt integer </v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <v xml:space="preserve"> wi ,si ,st ,wd ,wt ,wtt</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A16" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2219,10 +2541,10 @@
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="F1" s="26"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
@@ -2442,11 +2764,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2469,10 +2791,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2583,8 +2905,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2610,10 +2932,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2925,8 +3247,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2952,10 +3274,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -3174,8 +3496,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3201,10 +3523,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -3349,8 +3671,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3376,10 +3698,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -3692,8 +4014,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3719,10 +4041,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -4001,8 +4323,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4027,10 +4349,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="F2" s="28"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -4395,8 +4717,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4564,8 +4886,81 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="164.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="7">
+        <v>43415</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="7">
+        <v>43528</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="7">
+        <v>43571</v>
+      </c>
+      <c r="C4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4591,10 +4986,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -4932,85 +5327,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="164.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="7">
-        <v>43415</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="7">
-        <v>43528</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="7">
-        <v>43571</v>
-      </c>
-      <c r="C4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:H7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5032,10 +5354,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
@@ -5226,7 +5548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5252,10 +5574,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -5543,7 +5865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5575,10 +5897,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="F2" s="28"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -5860,7 +6182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5886,10 +6208,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="F2" s="28"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -6317,7 +6639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6343,10 +6665,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="F2" s="28"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -6736,7 +7058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6760,10 +7082,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -7079,11 +7401,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7091,7 +7413,7 @@
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7100,15 +7422,15 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>290</v>
+        <v>381</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="F2" s="26"/>
+      <c r="E2" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -7120,219 +7442,110 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>317</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>317</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>247</v>
+        <v>383</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="str">
-        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> wi varchar(50) PRIMARY KEY</v>
-      </c>
-      <c r="I4" t="str">
-        <f>" " &amp; E4</f>
-        <v xml:space="preserve"> wi</v>
-      </c>
-      <c r="J4" t="str">
-        <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _wi: string;</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>384</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>384</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>89</v>
+        <v>385</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="str">
-        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,si varchar(50) </v>
-      </c>
-      <c r="I5" t="str">
-        <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,si</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" ref="J5:J9" si="0">"private _"&amp;E5&amp;": string;"</f>
-        <v>private _si: string;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="1:10" ht="27">
       <c r="A6" s="5" t="s">
-        <v>324</v>
+        <v>386</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>324</v>
+        <v>388</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>324</v>
+        <v>386</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>91</v>
+        <v>387</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="str">
-        <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,st varchar(50) </v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" ref="I6:I9" si="2">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,st</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>private _st: string;</v>
-      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="5"/>
+        <v>389</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>391</v>
+      </c>
       <c r="D7" s="5" t="s">
-        <v>129</v>
+        <v>389</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>325</v>
+        <v>390</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,wd varchar(20) </v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,wd</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>private _wd: string;</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>34</v>
+        <v>274</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>274</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,wt varchar(20) </v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,wt</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>private _wt: string;</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="5" t="s">
-        <v>274</v>
-      </c>
+      <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,wtt integer </v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,wtt</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>private _wtt: string;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="18" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1">
+      <c r="A12" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G16" t="str">
-        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
-        <v xml:space="preserve"> wi varchar(50) PRIMARY KEY ,si varchar(50)  ,st varchar(50)  ,wd varchar(20)  ,wt varchar(20)  ,wtt integer </v>
-      </c>
-    </row>
-    <row r="17" spans="7:7">
-      <c r="G17" t="str">
-        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
-        <v xml:space="preserve"> wi ,si ,st ,wd ,wt ,wtt</v>
-      </c>
+      <c r="C12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7340,7 +7553,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A16" location="一览!A1" display="返回"/>
+    <hyperlink ref="A12" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -7061,7 +7061,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -7402,10 +7404,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J12"/>
+  <dimension ref="A2:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7463,6 +7465,18 @@
       <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> mki varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> mki</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private "&amp;E4&amp;": string;"</f>
+        <v>private mki: string;</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
@@ -7478,6 +7492,18 @@
       <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,si varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,si</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J8" si="0">"private "&amp;E5&amp;": string;"</f>
+        <v>private si: string;</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="27">
       <c r="A6" s="5" t="s">
@@ -7495,6 +7521,18 @@
       <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G8" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,mkl varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I8" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,mkl</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private mkl: string;</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
@@ -7512,6 +7550,18 @@
       <c r="F7" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,mkt varchar(50) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,mkt</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private mkt: string;</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
@@ -7526,6 +7576,18 @@
       </c>
       <c r="F8" s="4" t="s">
         <v>275</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,wtt integer </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,wtt</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private wtt: string;</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7542,10 +7604,19 @@
       <c r="C12"/>
       <c r="E12"/>
       <c r="F12"/>
-      <c r="G12"/>
+      <c r="G12" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8)</f>
+        <v xml:space="preserve"> mki varchar(50) PRIMARY KEY ,si varchar(50)  ,mkl varchar(50)  ,mkt varchar(50)  ,wtt integer </v>
+      </c>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="G13" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8)</f>
+        <v xml:space="preserve"> mki ,si ,mkl ,mkt ,wtt</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -14,24 +14,26 @@
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
     <sheet name="更新日志" sheetId="23" r:id="rId2"/>
-    <sheet name="账户表" sheetId="44" r:id="rId3"/>
-    <sheet name="用户信息表" sheetId="4" r:id="rId4"/>
-    <sheet name="日程总表" sheetId="47" r:id="rId5"/>
-    <sheet name="日程事件表" sheetId="9" r:id="rId6"/>
-    <sheet name="日程特殊事件表" sheetId="45" r:id="rId7"/>
-    <sheet name="日程参与人表" sheetId="10" r:id="rId8"/>
-    <sheet name="日程语义标签标注表" sheetId="51" r:id="rId9"/>
-    <sheet name="提醒时间表" sheetId="11" r:id="rId10"/>
-    <sheet name="计划表" sheetId="41" r:id="rId11"/>
-    <sheet name="参与人头像" sheetId="48" r:id="rId12"/>
-    <sheet name="参与人" sheetId="24" r:id="rId13"/>
-    <sheet name="群组" sheetId="43" r:id="rId14"/>
-    <sheet name="群组参与人关系" sheetId="8" r:id="rId15"/>
-    <sheet name="系統設置表" sheetId="29" r:id="rId16"/>
-    <sheet name="用户偏好" sheetId="39" r:id="rId17"/>
-    <sheet name="计划日程特殊表" sheetId="49" r:id="rId18"/>
-    <sheet name="系統設置表数据" sheetId="46" r:id="rId19"/>
-    <sheet name="语音表" sheetId="50" r:id="rId20"/>
+    <sheet name="日程、提醒和计划设计" sheetId="52" r:id="rId3"/>
+    <sheet name="账户表" sheetId="44" r:id="rId4"/>
+    <sheet name="用户信息表" sheetId="4" r:id="rId5"/>
+    <sheet name="日程总表" sheetId="47" r:id="rId6"/>
+    <sheet name="日程事件表" sheetId="9" r:id="rId7"/>
+    <sheet name="日程特殊事件表" sheetId="45" r:id="rId8"/>
+    <sheet name="日程备忘表" sheetId="53" r:id="rId9"/>
+    <sheet name="计划日程特殊表" sheetId="49" r:id="rId10"/>
+    <sheet name="日程参与人表" sheetId="10" r:id="rId11"/>
+    <sheet name="日程语义标签标注表" sheetId="51" r:id="rId12"/>
+    <sheet name="提醒时间表" sheetId="11" r:id="rId13"/>
+    <sheet name="计划表" sheetId="41" r:id="rId14"/>
+    <sheet name="参与人头像" sheetId="48" r:id="rId15"/>
+    <sheet name="参与人" sheetId="24" r:id="rId16"/>
+    <sheet name="群组" sheetId="43" r:id="rId17"/>
+    <sheet name="群组参与人关系" sheetId="8" r:id="rId18"/>
+    <sheet name="系統設置表" sheetId="29" r:id="rId19"/>
+    <sheet name="用户偏好" sheetId="39" r:id="rId20"/>
+    <sheet name="系統設置表数据" sheetId="46" r:id="rId21"/>
+    <sheet name="语音表" sheetId="50" r:id="rId22"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="451">
   <si>
     <t>表名</t>
   </si>
@@ -1369,179 +1371,427 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>计划ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：未读，0：已读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:系统jt，1：系统sp，2：自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_su</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subtsn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sustsn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大分类描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小分类描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE, ONE, MULTI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语义环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语义结果是否多条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true：需要，false：不需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音自动激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bhiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程语义标签标注表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_mk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语义标签标注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语义标签使用半角逗号分割，查询时使用like模糊查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标注类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内建日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公开日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示在日历的日程数量上，日程一览中显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重叠日期的公共日历项，根据优先级在日历上只显示最高优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日历</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（计划表）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程保存在日程表（gtd_c）和特殊日程表（gtd_jt）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程保存在日程表（gtd_c）和日程重复表（gtd_sp）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闹铃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备忘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在日历和日程一览不显示，语音无法查询，每日日程页面不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在日历和日程一览不显示，语音可以查询，每日日程页面不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持附加重复、提醒、日历（或者叫计划）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持附加重复、提醒、日历（或者叫计划）、完成状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在日历和日程一览不显示，语音可以查询，每日日程页面显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒9点前出门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10点到客户公司拜访客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新版本备份与恢复功能Bug修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拜访脉策科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系XXX客户，跟进项目进展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天我借给XXX五万块钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天XXX告诉我，冥王星项目的材料不全，需要补齐，具体内容稍后他会发给我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天打了电话给XXX，他让我周五再给他打个电话确认下项目进展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息时间结束闹铃（10分钟闹铃、等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作时间结束闹铃（15分钟、30分钟闹铃、等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤箱时间闹铃（10分钟闹铃、等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起床闹铃（早上7点、下午1点、等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私有日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私有日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示在日历的日期上，日程一览显示在左侧日期下方，一览中不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>较公共日历显示优先级更高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结婚纪念日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伴侣、父母、孩子、朋友、同学等生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业、获奖等纪念日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥王星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人/工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普吉岛旅行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效吉软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归属（gs）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0：本人创建，1：他人创建，2：系统本地日历,3:系统计划3优先级类型，4：系统计划无优先级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计划ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：未读，0：已读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:系统jt，1：系统sp，2：自定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_su</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sust</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subtsn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sustsn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大分类描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小分类描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NONE, ONE, MULTI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语义环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语义结果是否多条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true：需要，false：不需要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音自动激活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音tips</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bhiu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程语义标签标注表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gtd_mk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mki</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语义标签标注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mkl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语义标签使用半角逗号分割，查询时使用like模糊查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标注类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mkt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
+    <t>0：本人创建</t>
+  </si>
+  <si>
+    <t>1：他人创建</t>
+  </si>
+  <si>
+    <t>2：系统本地日历</t>
+  </si>
+  <si>
+    <t>3: 优先级类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4：无优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5: 备忘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_mo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程备忘表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程备忘ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备忘内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1549,7 +1799,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1593,6 +1843,34 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1684,7 +1962,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1769,6 +2047,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1792,6 +2088,782 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="1943100"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>日程表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gtd_c</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="1371600"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>日程重复表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gtd_sp</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="肘形连接符 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6858000" y="1652588"/>
+          <a:ext cx="1371600" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆角矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11658600" y="2524125"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>特殊日程表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gtd_jt</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="肘形连接符 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="2224088"/>
+          <a:ext cx="1371600" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="圆角矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="295275"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>计划表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gtd_j_h</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="857250"/>
+          <a:ext cx="0" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="圆角矩形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="1943100"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>提醒表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gtd_e</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+          <a:endCxn id="17" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4114800" y="2224088"/>
+          <a:ext cx="1371600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dashDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="圆角矩形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="3429000"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>日程标签表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gtd_mk</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="23" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601200" y="2505075"/>
+          <a:ext cx="0" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="圆角矩形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11658600" y="3429000"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>备忘表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>gtd_mo</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="肘形连接符 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="2224088"/>
+          <a:ext cx="1371600" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2060,7 +3132,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2248,10 +3320,404 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="31.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> jti varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> jti</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _jti: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,ji varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,ji</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J14" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _ji: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G14" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,spn varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I14" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,spn</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _spn: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sd varchar(20) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sd</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sd: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,st varchar(20) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,st</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _st: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ed varchar(20) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ed</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ed: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,et varchar(20) </v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,et</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>private _et: string;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,px integer </v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,px</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>private _px: string;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,bz varchar(50) </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,bz</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>private _bz: string;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,wtt integer </v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,wtt</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>private _wtt: string;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,si varchar(50) </v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,si</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>private _si: string;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+        <v xml:space="preserve"> jti varchar(50) PRIMARY KEY ,ji varchar(50)  ,spn varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,px integer  ,bz varchar(50)  ,wtt integer </v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <v xml:space="preserve"> jti ,ji ,spn ,sd ,st ,ed ,et ,px ,bz ,wtt</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A20" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2268,15 +3734,589 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>290</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" s="33"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> pi varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> pi</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _pi: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,si varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,si</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J12" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _si: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,st varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I12" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,st</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _st: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,son varchar(50) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,son</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _son: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sa varchar(4) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sa</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sa: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ai varchar(50) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ai</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ai: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ib varchar(4) </v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ib</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ib: string;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="D11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,bi varchar(50) </v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,bi</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>private _bi: string;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sdt varchar(4) </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sdt</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sdt: string;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+        <v xml:space="preserve"> pi varchar(50) PRIMARY KEY ,si varchar(50)  ,st varchar(50)  ,son varchar(50)  ,sa varchar(4)  ,ai varchar(50)  ,ib varchar(4)  ,bi varchar(50)  ,sdt varchar(4) </v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <v xml:space="preserve"> pi ,si ,st ,son ,sa ,ai ,ib ,bi ,sdt</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A15" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="F2" s="33"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> mki varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> mki</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private "&amp;E4&amp;": string;"</f>
+        <v>private mki: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,si varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,si</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J8" si="0">"private "&amp;E5&amp;": string;"</f>
+        <v>private si: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="27">
+      <c r="A6" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G8" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,mkl varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I8" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,mkl</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private mkl: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,mkt varchar(50) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,mkt</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private mkt: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,wtt integer </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,wtt</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private wtt: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1">
+      <c r="A12" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8)</f>
+        <v xml:space="preserve"> mki varchar(50) PRIMARY KEY ,si varchar(50)  ,mkl varchar(50)  ,mkt varchar(50)  ,wtt integer </v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="G13" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8)</f>
+        <v xml:space="preserve"> mki ,si ,mkl ,mkt ,wtt</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A12" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2515,7 +4555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -2541,10 +4581,10 @@
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="F1" s="27"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
@@ -2664,7 +4704,7 @@
         <v>218</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>218</v>
@@ -2764,7 +4804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J11"/>
   <sheetViews>
@@ -2791,10 +4831,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -2852,7 +4892,7 @@
         <v>319</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>321</v>
@@ -2905,12 +4945,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="A7:E7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2932,10 +4972,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -3247,7 +5287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
@@ -3274,10 +5314,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -3496,7 +5536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
@@ -3523,10 +5563,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -3671,7 +5711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J26"/>
   <sheetViews>
@@ -3698,10 +5738,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -4014,12 +6054,85 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="164.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="7">
+        <v>43415</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="7">
+        <v>43528</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="7">
+        <v>43571</v>
+      </c>
+      <c r="C4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4041,10 +6154,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -4323,406 +6436,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="31.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="F2" s="29"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="str">
-        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> jti varchar(50) PRIMARY KEY</v>
-      </c>
-      <c r="I4" t="str">
-        <f>" " &amp; E4</f>
-        <v xml:space="preserve"> jti</v>
-      </c>
-      <c r="J4" t="str">
-        <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _jti: string;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="str">
-        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,ji varchar(50) </v>
-      </c>
-      <c r="I5" t="str">
-        <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,ji</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" ref="J5:J14" si="0">"private _"&amp;E5&amp;": string;"</f>
-        <v>private _ji: string;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" ref="G6:G14" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,spn varchar(50) </v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" ref="I6:I14" si="2">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,spn</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>private _spn: string;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,sd varchar(20) </v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,sd</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>private _sd: string;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,st varchar(20) </v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,st</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>private _st: string;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,ed varchar(20) </v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,ed</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>private _ed: string;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,et varchar(20) </v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,et</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>private _et: string;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,px integer </v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,px</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>private _px: string;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,bz varchar(50) </v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,bz</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>private _bz: string;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,wtt integer </v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,wtt</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>private _wtt: string;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,si varchar(50) </v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,si</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="0"/>
-        <v>private _si: string;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" t="str">
-        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
-        <v xml:space="preserve"> jti varchar(50) PRIMARY KEY ,ji varchar(50)  ,spn varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,px integer  ,bz varchar(50)  ,wtt integer </v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="G17" t="str">
-        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
-        <v xml:space="preserve"> jti ,ji ,spn ,sd ,st ,ed ,et ,px ,bz ,wtt</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A20" location="一览!A1" display="返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4886,85 +6605,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="164.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="7">
-        <v>43415</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="7">
-        <v>43528</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="7">
-        <v>43571</v>
-      </c>
-      <c r="C4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4981,15 +6627,15 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="F2" s="27"/>
+      <c r="E2" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -5010,14 +6656,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>28</v>
@@ -5037,14 +6683,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>46</v>
@@ -5064,16 +6710,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>46</v>
@@ -5093,16 +6739,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>46</v>
@@ -5122,16 +6768,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>46</v>
@@ -5151,14 +6797,14 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>46</v>
@@ -5178,14 +6824,14 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>46</v>
@@ -5205,16 +6851,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>378</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>46</v>
@@ -5234,14 +6880,14 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>46</v>
@@ -5329,10 +6975,313 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:P55"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" s="30" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="28" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="31" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="31" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="31" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="31" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="31" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="31" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="28" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="31" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="31" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="31" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="31" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="28" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="31" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="31" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="31" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="31" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="28" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="31" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="31" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="31" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="31" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="28" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="31" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="31" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" s="31" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="P32" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16">
+      <c r="B33" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="P33" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16">
+      <c r="B34" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16">
+      <c r="B35" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="P35" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16">
+      <c r="B36" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="P36" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="B37" t="s">
+        <v>403</v>
+      </c>
+      <c r="P37" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16">
+      <c r="B38" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="P38" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16">
+      <c r="B39" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="P39" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16">
+      <c r="B40" t="s">
+        <v>404</v>
+      </c>
+      <c r="P40" s="30" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16">
+      <c r="B41" s="29" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16">
+      <c r="B42" s="29" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16">
+      <c r="B43" s="29" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16">
+      <c r="B44" s="29" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16">
+      <c r="B45" s="29" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16">
+      <c r="B46" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16">
+      <c r="B47" s="29" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16">
+      <c r="B48" s="29" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="29" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="29" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="29" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="29" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="29" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5354,10 +7303,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
@@ -5547,7 +7496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I18"/>
   <sheetViews>
@@ -5574,10 +7523,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -5864,12 +7813,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:F6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5897,10 +7846,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="F2" s="29"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -6181,12 +8130,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6208,10 +8157,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="F2" s="29"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -6583,7 +8532,7 @@
         <v>293</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>293</v>
@@ -6604,7 +8553,7 @@
         <v>295</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>348</v>
+        <v>438</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>295</v>
@@ -6623,425 +8572,6 @@
     <row r="20" spans="1:7">
       <c r="A20" s="18" t="s">
         <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A20" location="一览!A1" display="返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="B16:E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="F2" s="29"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="str">
-        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> spi varchar(50) PRIMARY KEY</v>
-      </c>
-      <c r="I4" t="str">
-        <f>" " &amp; E4</f>
-        <v xml:space="preserve"> spi</v>
-      </c>
-      <c r="J4" t="str">
-        <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _spi: string;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="str">
-        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,si varchar(50) </v>
-      </c>
-      <c r="I5" t="str">
-        <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,si</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" ref="J5:J13" si="0">"private _"&amp;E5&amp;": string;"</f>
-        <v>private _si: string;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,spn varchar(50) </v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" ref="I6:I12" si="2">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,spn</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>private _spn: string;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,sd varchar(20) </v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,sd</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>private _sd: string;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,st varchar(20) </v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,st</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>private _st: string;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,ed varchar(20) </v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,ed</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>private _ed: string;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,et varchar(20) </v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,et</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>private _et: string;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,ji varchar(50) </v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,ji</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>private _ji: string;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,bz varchar(50) </v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,bz</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>private _bz: string;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" ref="G13" si="3">" ," &amp; E13 &amp; " " &amp; F13 &amp; " "</f>
-        <v xml:space="preserve"> ,sta varchar(4) </v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" ref="I13" si="4">" ," &amp; E13</f>
-        <v xml:space="preserve"> ,sta</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>private _sta: string;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" t="str">
-        <f>CONCATENATE(G2,G3,G4,G5,G6,G7,G8,G9,G10,)</f>
-        <v xml:space="preserve"> spi varchar(50) PRIMARY KEY ,si varchar(50)  ,spn varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20) </v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" t="str">
-        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
-        <v xml:space="preserve"> spi varchar(50) PRIMARY KEY ,si varchar(50)  ,spn varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,ji varchar(50)  ,bz varchar(50)  ,sta varchar(4) </v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="G18" t="str">
-        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
-        <v xml:space="preserve"> spi ,si ,spn ,sd ,st ,ed ,et ,ji ,bz ,sta</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="D23" s="1">
-        <f>60*24</f>
-        <v>1440</v>
       </c>
     </row>
   </sheetData>
@@ -7059,10 +8589,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J17"/>
+  <dimension ref="A2:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:G17"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7079,15 +8609,15 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="F2" s="27"/>
+      <c r="E2" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -7099,43 +8629,43 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>184</v>
+        <v>243</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> pi varchar(50) PRIMARY KEY</v>
+        <v xml:space="preserve"> spi varchar(50) PRIMARY KEY</v>
       </c>
       <c r="I4" t="str">
         <f>" " &amp; E4</f>
-        <v xml:space="preserve"> pi</v>
+        <v xml:space="preserve"> spi</v>
       </c>
       <c r="J4" t="str">
         <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _pi: string;</v>
+        <v>private _spi: string;</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -7145,7 +8675,7 @@
         <v>89</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -7156,237 +8686,311 @@
         <v xml:space="preserve"> ,si</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J12" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <f t="shared" ref="J5:J13" si="0">"private _"&amp;E5&amp;": string;"</f>
         <v>private _si: string;</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>133</v>
-      </c>
+      <c r="A6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>91</v>
+        <v>244</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,st varchar(50) </v>
+        <v xml:space="preserve"> ,spn varchar(50) </v>
       </c>
       <c r="I6" t="str">
         <f t="shared" ref="I6:I12" si="2">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,st</v>
+        <v xml:space="preserve"> ,spn</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>private _st: string;</v>
+        <v>private _spn: string;</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="D7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>76</v>
+      <c r="A7" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,son varchar(50) </v>
+        <v xml:space="preserve"> ,sd varchar(20) </v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,son</v>
+        <v xml:space="preserve"> ,sd</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>private _son: string;</v>
+        <v>private _sd: string;</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>77</v>
+      <c r="A8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,sa varchar(4) </v>
+        <v xml:space="preserve"> ,st varchar(20) </v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,sa</v>
+        <v xml:space="preserve"> ,st</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>private _sa: string;</v>
+        <v>private _st: string;</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>189</v>
+      <c r="A9" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,ai varchar(50) </v>
+        <v xml:space="preserve"> ,ed varchar(20) </v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,ai</v>
+        <v xml:space="preserve"> ,ed</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>private _ai: string;</v>
+        <v>private _ed: string;</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>81</v>
+      <c r="A10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,ib varchar(4) </v>
+        <v xml:space="preserve"> ,et varchar(20) </v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,ib</v>
+        <v xml:space="preserve"> ,et</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>private _ib: string;</v>
+        <v>private _et: string;</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="22"/>
+      <c r="A11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,bi varchar(50) </v>
+        <v xml:space="preserve"> ,ji varchar(50) </v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,bi</v>
+        <v xml:space="preserve"> ,ji</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>private _bi: string;</v>
+        <v>private _ji: string;</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>85</v>
-      </c>
+      <c r="A12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,sdt varchar(4) </v>
+        <v xml:space="preserve"> ,bz varchar(50) </v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,sdt</v>
+        <v xml:space="preserve"> ,bz</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>private _sdt: string;</v>
+        <v>private _bz: string;</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" ref="G13" si="3">" ," &amp; E13 &amp; " " &amp; F13 &amp; " "</f>
+        <v xml:space="preserve"> ,sta varchar(4) </v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ref="I13" si="4">" ," &amp; E13</f>
+        <v xml:space="preserve"> ,sta</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sta: string;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" t="str">
+        <f>CONCATENATE(G2,G3,G4,G5,G6,G7,G8,G9,G10,)</f>
+        <v xml:space="preserve"> spi varchar(50) PRIMARY KEY ,si varchar(50)  ,spn varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20) </v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5" t="s">
+      <c r="B15" s="5"/>
+      <c r="D15" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="18" t="s">
+    <row r="16" spans="1:10">
+      <c r="A16" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+        <v xml:space="preserve"> spi varchar(50) PRIMARY KEY ,si varchar(50)  ,spn varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,ji varchar(50)  ,bz varchar(50)  ,sta varchar(4) </v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="G18" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <v xml:space="preserve"> spi ,si ,spn ,sd ,st ,ed ,et ,ji ,bz ,sta</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="G16" t="str">
-        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
-        <v xml:space="preserve"> pi varchar(50) PRIMARY KEY ,si varchar(50)  ,st varchar(50)  ,son varchar(50)  ,sa varchar(4)  ,ai varchar(50)  ,ib varchar(4)  ,bi varchar(50)  ,sdt varchar(4) </v>
-      </c>
-    </row>
-    <row r="17" spans="7:7">
-      <c r="G17" t="str">
-        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
-        <v xml:space="preserve"> pi ,si ,st ,son ,sa ,ai ,ib ,bi ,sdt</v>
+    <row r="23" spans="1:7">
+      <c r="D23" s="1">
+        <f>60*24</f>
+        <v>1440</v>
       </c>
     </row>
   </sheetData>
@@ -7395,7 +8999,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A15" location="一览!A1" display="返回"/>
+    <hyperlink ref="A20" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7404,19 +9008,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J13"/>
+  <dimension ref="A2:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
@@ -7424,15 +9027,15 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>381</v>
+        <v>446</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="F2" s="27"/>
+      <c r="E2" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -7444,178 +9047,290 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>317</v>
+        <v>447</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>383</v>
+        <v>448</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> mki varchar(50) PRIMARY KEY</v>
+        <v xml:space="preserve"> moi varchar(50) PRIMARY KEY</v>
       </c>
       <c r="I4" t="str">
         <f>" " &amp; E4</f>
-        <v xml:space="preserve"> mki</v>
+        <v xml:space="preserve"> moi</v>
       </c>
       <c r="J4" t="str">
-        <f>"private "&amp;E4&amp;": string;"</f>
-        <v>private mki: string;</v>
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _moi: string;</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>385</v>
+        <v>75</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,si varchar(50) </v>
+        <v xml:space="preserve"> ,ji varchar(50) </v>
       </c>
       <c r="I5" t="str">
         <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,si</v>
+        <v xml:space="preserve"> ,ji</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J8" si="0">"private "&amp;E5&amp;": string;"</f>
-        <v>private si: string;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="27">
+        <f t="shared" ref="J5:J12" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _ji: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>388</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>386</v>
+        <v>449</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>387</v>
+        <v>450</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" ref="G6:G8" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,mkl varchar(50) </v>
+        <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,mon varchar(50) </v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" ref="I6:I8" si="2">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,mkl</v>
+        <f t="shared" ref="I6:I12" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,mon</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>private mkl: string;</v>
+        <v>private _mon: string;</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>390</v>
+      <c r="A7" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,mkt varchar(50) </v>
+        <v xml:space="preserve"> ,sd varchar(20) </v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,mkt</v>
+        <v xml:space="preserve"> ,sd</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>private mkt: string;</v>
+        <v>private _sd: string;</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>278</v>
+      <c r="A8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>275</v>
+        <v>38</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,wtt integer </v>
+        <v xml:space="preserve"> ,st varchar(20) </v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,wtt</v>
+        <v xml:space="preserve"> ,st</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>private wtt: string;</v>
+        <v>private _st: string;</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1">
-      <c r="A12" s="18" t="s">
+      <c r="A9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ed varchar(20) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ed</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ed: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,et varchar(20) </v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,et</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>private _et: string;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,wtt integer </v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,wtt</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>private _wtt: string;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,si varchar(50) </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,si</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>private _si: string;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11)</f>
+        <v xml:space="preserve"> moi varchar(50) PRIMARY KEY ,ji varchar(50)  ,mon varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,wtt integer </v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="G15" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11)</f>
+        <v xml:space="preserve"> moi ,ji ,mon ,sd ,st ,ed ,et ,wtt</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="18" t="s">
         <v>60</v>
-      </c>
-      <c r="C12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12" t="str">
-        <f>CONCATENATE(G4,G5,G6,G7,G8)</f>
-        <v xml:space="preserve"> mki varchar(50) PRIMARY KEY ,si varchar(50)  ,mkl varchar(50)  ,mkt varchar(50)  ,wtt integer </v>
-      </c>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="G13" t="str">
-        <f>CONCATENATE(I4,I5,I6,I7,I8)</f>
-        <v xml:space="preserve"> mki ,si ,mkl ,mkt ,wtt</v>
       </c>
     </row>
   </sheetData>
@@ -7624,7 +9339,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A12" location="一览!A1" display="返回"/>
+    <hyperlink ref="A18" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="458">
   <si>
     <t>表名</t>
   </si>
@@ -1794,12 +1794,40 @@
     <t>mon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>附件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fjt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/17 增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fjn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件名称/KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1873,8 +1901,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1884,6 +1928,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1962,7 +2012,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2069,6 +2119,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3320,10 +3379,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J20"/>
+  <dimension ref="A2:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3416,7 +3475,7 @@
         <v xml:space="preserve"> ,ji</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J14" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <f t="shared" ref="J5:J17" si="0">"private _"&amp;E5&amp;": string;"</f>
         <v>private _ji: string;</v>
       </c>
     </row>
@@ -3435,11 +3494,11 @@
         <v>29</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" ref="G6:G14" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <f t="shared" ref="G6:G17" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
         <v xml:space="preserve"> ,spn varchar(50) </v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" ref="I6:I14" si="2">" ," &amp; E6</f>
+        <f t="shared" ref="I6:I17" si="2">" ," &amp; E6</f>
         <v xml:space="preserve"> ,spn</v>
       </c>
       <c r="J6" t="str">
@@ -3613,89 +3672,176 @@
         <v>private _bz: string;</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:10" s="37" customFormat="1">
+      <c r="A13" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>453</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,fjt varchar(20) </v>
+      </c>
+      <c r="I13" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,fjt</v>
+      </c>
+      <c r="J13" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>private _fjt: string;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="37" customFormat="1">
+      <c r="A14" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>456</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,fjn varchar(20) </v>
+      </c>
+      <c r="I14" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,fjn</v>
+      </c>
+      <c r="J14" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>private _fjn: string;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="37" customFormat="1">
+      <c r="A15" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>454</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,fj varchar(50) </v>
+      </c>
+      <c r="I15" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,fj</v>
+      </c>
+      <c r="J15" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>private _fj: string;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5" t="s">
+      <c r="B16" s="5"/>
+      <c r="D16" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="G13" t="str">
+      <c r="G16" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> ,wtt integer </v>
       </c>
-      <c r="I13" t="str">
+      <c r="I16" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> ,wtt</v>
       </c>
-      <c r="J13" t="str">
+      <c r="J16" t="str">
         <f t="shared" si="0"/>
         <v>private _wtt: string;</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5" t="s">
+    <row r="17" spans="1:10">
+      <c r="A17" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5" t="s">
+      <c r="B17" s="5"/>
+      <c r="D17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G14" t="str">
+      <c r="G17" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> ,si varchar(50) </v>
       </c>
-      <c r="I14" t="str">
+      <c r="I17" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> ,si</v>
       </c>
-      <c r="J14" t="str">
+      <c r="J17" t="str">
         <f t="shared" si="0"/>
         <v>private _si: string;</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" t="str">
-        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+    <row r="18" spans="1:10">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G16)</f>
         <v xml:space="preserve"> jti varchar(50) PRIMARY KEY ,ji varchar(50)  ,spn varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,px integer  ,bz varchar(50)  ,wtt integer </v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="G17" t="str">
-        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="G20" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I16)</f>
         <v xml:space="preserve"> jti ,ji ,spn ,sd ,st ,ed ,et ,px ,bz ,wtt</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="18" t="s">
+    <row r="23" spans="1:10">
+      <c r="A23" s="18" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3705,7 +3851,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A20" location="一览!A1" display="返回"/>
+    <hyperlink ref="A23" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -9010,8 +9156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -20,20 +20,24 @@
     <sheet name="日程总表" sheetId="47" r:id="rId6"/>
     <sheet name="日程事件表" sheetId="9" r:id="rId7"/>
     <sheet name="日程特殊事件表" sheetId="45" r:id="rId8"/>
-    <sheet name="日程备忘表" sheetId="53" r:id="rId9"/>
-    <sheet name="计划日程特殊表" sheetId="49" r:id="rId10"/>
-    <sheet name="日程参与人表" sheetId="10" r:id="rId11"/>
-    <sheet name="日程语义标签标注表" sheetId="51" r:id="rId12"/>
-    <sheet name="提醒时间表" sheetId="11" r:id="rId13"/>
-    <sheet name="计划表" sheetId="41" r:id="rId14"/>
-    <sheet name="参与人头像" sheetId="48" r:id="rId15"/>
-    <sheet name="参与人" sheetId="24" r:id="rId16"/>
-    <sheet name="群组" sheetId="43" r:id="rId17"/>
-    <sheet name="群组参与人关系" sheetId="8" r:id="rId18"/>
-    <sheet name="系統設置表" sheetId="29" r:id="rId19"/>
-    <sheet name="用户偏好" sheetId="39" r:id="rId20"/>
-    <sheet name="系統設置表数据" sheetId="46" r:id="rId21"/>
-    <sheet name="语音表" sheetId="50" r:id="rId22"/>
+    <sheet name="计划日程特殊表" sheetId="49" r:id="rId9"/>
+    <sheet name="日历、日历项、事件、备忘设计" sheetId="54" r:id="rId10"/>
+    <sheet name="事件表" sheetId="55" r:id="rId11"/>
+    <sheet name="任务表" sheetId="57" r:id="rId12"/>
+    <sheet name="备忘表" sheetId="53" r:id="rId13"/>
+    <sheet name="日历项表" sheetId="58" r:id="rId14"/>
+    <sheet name="日程参与人表" sheetId="10" r:id="rId15"/>
+    <sheet name="日程语义标签标注表" sheetId="51" r:id="rId16"/>
+    <sheet name="提醒时间表" sheetId="11" r:id="rId17"/>
+    <sheet name="计划表" sheetId="41" r:id="rId18"/>
+    <sheet name="参与人头像" sheetId="48" r:id="rId19"/>
+    <sheet name="参与人" sheetId="24" r:id="rId20"/>
+    <sheet name="群组" sheetId="43" r:id="rId21"/>
+    <sheet name="群组参与人关系" sheetId="8" r:id="rId22"/>
+    <sheet name="系統設置表" sheetId="29" r:id="rId23"/>
+    <sheet name="用户偏好" sheetId="39" r:id="rId24"/>
+    <sheet name="系統設置表数据" sheetId="46" r:id="rId25"/>
+    <sheet name="语音表" sheetId="50" r:id="rId26"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -45,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="543">
   <si>
     <t>表名</t>
   </si>
@@ -1779,10 +1783,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日程备忘ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>moi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1820,6 +1820,352 @@
   </si>
   <si>
     <t>附件名称/KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日历项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备忘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按日查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备忘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程/事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务/事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建日期/完成日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小任务/事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按月查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属日期/重复日期/截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按唯一识别符查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程/事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无, 可以设置完成后自动创建一个新的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询/修改/删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_ev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rtevi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件归属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：本人创建，1：他人创建，2：系统本地日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒设置文字表示（一览显示冗余）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复设置文字表示（一览显示冗余）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: 日程，2：任务，3：小任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复事件创建第一个事件ID,用于重复日程修改/删除操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程：所属日期，任务：创建/完成日期，小任务：创建日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备忘ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逗号分隔的标签名称
+(冗余字段, 方便一览显示)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件数量
+(冗余字段, 方便一览显示)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isrt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成后创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：未完成，1：已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成后填入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时填入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成后是否自动创建任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件数量（一览显示冗余）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日历项ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日历项类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jtt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日历项表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体的日期，10月1日国庆节通过插入多条记录解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：节日，1：活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：下载，1：自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jtc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2012,7 +2358,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2115,12 +2461,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2128,6 +2468,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2925,6 +3274,1866 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="981075"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>日历表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gtd_j_h</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="2352675"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>日历项表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gtd_jt</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9263062" y="2352675"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>事件表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gtd_ev</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11658600" y="2352675"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>备忘表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gtd_mo</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆角矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6862762" y="3943350"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>日程表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gtd_c</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆角矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9263062" y="3943350"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>任务表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gtd_t</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10977562" y="3943350"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>小任务表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gtd_mt</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="肘形连接符 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8577262" y="2571750"/>
+          <a:ext cx="1028700" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="肘形连接符 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10291762" y="2571750"/>
+          <a:ext cx="1028700" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9948862" y="2914650"/>
+          <a:ext cx="0" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="圆角矩形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9263062" y="981075"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>标签表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gtd_mk</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="1543050"/>
+          <a:ext cx="0" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="肘形连接符 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="1262063"/>
+          <a:ext cx="1033462" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="圆角矩形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10977562" y="981075"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>提醒表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gtd_e</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="圆角矩形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12692062" y="981075"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>附件表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gtd_att</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="圆角矩形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14406562" y="981075"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>参与人表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gtd_d</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="圆角矩形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6872287" y="5314950"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>账户表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gtd_a</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>332422</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>332422</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="圆角矩形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8562022" y="5314950"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用户信息表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gtd_u</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>650557</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>650557</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="圆角矩形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10251757" y="5314950"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>联系人头像表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gtd_bh</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>282892</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>282892</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="圆角矩形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11941492" y="5314950"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>联系人表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gtd_b</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>601027</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>601027</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="圆角矩形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13631227" y="5314950"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>群组表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gtd_g</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="圆角矩形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15320962" y="5314950"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>群成员表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gtd_b_x</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="圆角矩形 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6862762" y="6172200"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>系统设置表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gtd_s</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>332422</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>332422</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="圆角矩形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8562022" y="6172200"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用户偏好表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gtd_y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>650557</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>650557</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="圆角矩形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10251757" y="6172200"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>语音参数表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gtd_su</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="圆角矩形标注 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10172699" y="1685926"/>
+          <a:ext cx="1933575" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -38333"/>
+            <a:gd name="adj2" fmla="val 72256"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>一览</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>日历</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>查询</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>显示使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>精准查询需要配合子表</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>282892</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>282892</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="圆角矩形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11941492" y="6172200"/>
+          <a:ext cx="1371600" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9887"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:prstDash val="dashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>新消息表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gtd_st</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -3379,491 +5588,181 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J23"/>
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="B5:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="31.875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="F2" s="35"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="str">
-        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> jti varchar(50) PRIMARY KEY</v>
-      </c>
-      <c r="I4" t="str">
-        <f>" " &amp; E4</f>
-        <v xml:space="preserve"> jti</v>
-      </c>
-      <c r="J4" t="str">
-        <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _jti: string;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="str">
-        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,ji varchar(50) </v>
-      </c>
-      <c r="I5" t="str">
-        <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,ji</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" ref="J5:J17" si="0">"private _"&amp;E5&amp;": string;"</f>
-        <v>private _ji: string;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" ref="G6:G17" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,spn varchar(50) </v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" ref="I6:I17" si="2">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,spn</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>private _spn: string;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,sd varchar(20) </v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,sd</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>private _sd: string;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,st varchar(20) </v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,st</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>private _st: string;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,ed varchar(20) </v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,ed</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>private _ed: string;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,et varchar(20) </v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,et</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>private _et: string;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,px integer </v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,px</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>private _px: string;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,bz varchar(50) </v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,bz</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>private _bz: string;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="37" customFormat="1">
-      <c r="A13" s="36" t="s">
-        <v>451</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>455</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>451</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>453</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,fjt varchar(20) </v>
-      </c>
-      <c r="I13" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,fjt</v>
-      </c>
-      <c r="J13" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>private _fjt: string;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="37" customFormat="1">
-      <c r="A14" s="36" t="s">
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
         <v>457</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>455</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>457</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>456</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,fjn varchar(20) </v>
-      </c>
-      <c r="I14" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,fjn</v>
-      </c>
-      <c r="J14" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>private _fjn: string;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="37" customFormat="1">
-      <c r="A15" s="36" t="s">
-        <v>452</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>455</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>452</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>454</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,fj varchar(50) </v>
-      </c>
-      <c r="I15" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,fj</v>
-      </c>
-      <c r="J15" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>private _fj: string;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="D16" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,wtt integer </v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,wtt</v>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="0"/>
-        <v>private _wtt: string;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="D17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,si varchar(50) </v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,si</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="0"/>
-        <v>private _si: string;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" t="str">
-        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G16)</f>
-        <v xml:space="preserve"> jti varchar(50) PRIMARY KEY ,ji varchar(50)  ,spn varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,px integer  ,bz varchar(50)  ,wtt integer </v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="G20" t="str">
-        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I16)</f>
-        <v xml:space="preserve"> jti ,ji ,spn ,sd ,st ,ed ,et ,px ,bz ,wtt</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="18" t="s">
-        <v>60</v>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C10" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>465</v>
+      </c>
+      <c r="C19" t="s">
+        <v>458</v>
+      </c>
+      <c r="E19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="C20" t="s">
+        <v>469</v>
+      </c>
+      <c r="E20" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="C21" t="s">
+        <v>470</v>
+      </c>
+      <c r="E21" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="C22" t="s">
+        <v>473</v>
+      </c>
+      <c r="E22" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="C23" t="s">
+        <v>466</v>
+      </c>
+      <c r="E23" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>475</v>
+      </c>
+      <c r="C24" t="s">
+        <v>458</v>
+      </c>
+      <c r="E24" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="C25" t="s">
+        <v>469</v>
+      </c>
+      <c r="E25" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="C26" t="s">
+        <v>470</v>
+      </c>
+      <c r="E26" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="C27" t="s">
+        <v>473</v>
+      </c>
+      <c r="E27" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="C28" t="s">
+        <v>466</v>
+      </c>
+      <c r="E28" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" t="s">
+        <v>479</v>
+      </c>
+      <c r="C30" t="s">
+        <v>480</v>
+      </c>
+      <c r="E30" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="C31" t="s">
+        <v>470</v>
+      </c>
+      <c r="E31" t="s">
+        <v>481</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A23" location="一览!A1" display="返回"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J17"/>
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A2:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3880,15 +5779,15 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>483</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="F2" s="33"/>
+      <c r="E2" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -3900,294 +5799,717 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>22</v>
+        <v>485</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>19</v>
+        <v>485</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>184</v>
+        <v>487</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> pi varchar(50) PRIMARY KEY</v>
+        <v xml:space="preserve"> evi varchar(50) PRIMARY KEY</v>
       </c>
       <c r="I4" t="str">
         <f>" " &amp; E4</f>
-        <v xml:space="preserve"> pi</v>
+        <v xml:space="preserve"> evi</v>
       </c>
       <c r="J4" t="str">
         <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _pi: string;</v>
+        <v>private _evi: string;</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>132</v>
+        <v>486</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>486</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>89</v>
+        <v>488</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,si varchar(50) </v>
+        <v xml:space="preserve"> ,evn varchar(50) </v>
       </c>
       <c r="I5" t="str">
         <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,si</v>
+        <v xml:space="preserve"> ,evn</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J12" si="0">"private _"&amp;E5&amp;": string;"</f>
-        <v>private _si: string;</v>
+        <f t="shared" ref="J5:J17" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _evn: string;</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>133</v>
-      </c>
+      <c r="A6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>91</v>
+        <v>241</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,st varchar(50) </v>
+        <v xml:space="preserve"> ,ui varchar(50) </v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" ref="I6:I12" si="2">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,st</v>
+        <f t="shared" ref="I6:I17" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,ui</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>private _st: string;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="D7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>76</v>
+        <v>private _ui: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="27">
+      <c r="A7" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>490</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,son varchar(50) </v>
+        <v xml:space="preserve"> ,evd varchar(20) </v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,son</v>
+        <v xml:space="preserve"> ,evd</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>private _son: string;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>77</v>
+        <v>private _evd: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="27">
+      <c r="A8" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>492</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,sa varchar(4) </v>
+        <v xml:space="preserve"> ,rtevi varchar(50) </v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,sa</v>
+        <v xml:space="preserve"> ,rtevi</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>private _sa: string;</v>
+        <v>private _rtevi: string;</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>269</v>
+        <v>72</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ji varchar(50) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ji</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ji: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,bz varchar(50) </v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,bz</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>private _bz: string;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,type varchar(4) </v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,type</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>private _type: string;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,tx varchar(50) </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,tx</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>private _tx: string;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,rt</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>private _rt: string;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,fj</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>private _fj: string;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,wtt</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>private _wtt: string;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,utt</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>private _utt: string;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
+        <v xml:space="preserve"> evi varchar(50) PRIMARY KEY ,evn varchar(50)  ,ui varchar(50)  ,evd varchar(20)  ,rtevi varchar(50)  ,ji varchar(50)  ,bz varchar(50)  ,type varchar(4)  ,tx varchar(50) </v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,gs</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>private _gs: string;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,)</f>
+        <v xml:space="preserve"> evi ,evn ,ui ,evd ,rtevi ,ji ,bz ,type ,tx</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" t="str">
+        <f>CONCATENATE(I5,I6,I7,I8,I9,I10,I11,I12,I13,)</f>
+        <v xml:space="preserve"> ,evn ,ui ,evd ,rtevi ,ji ,bz ,type ,tx ,rt</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" t="str">
+        <f>CONCATENATE(I6,I7,I8,I9,I10,I11,I12,I13,I15,)</f>
+        <v xml:space="preserve"> ,ui ,evd ,rtevi ,ji ,bz ,type ,tx ,rt ,wtt</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A21" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A2:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>510</v>
+      </c>
+      <c r="F2" s="39"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> evi varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> evi</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _evi: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,cs varchar(4) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,cs</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J10" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _cs: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="G6" t="str">
+        <f>" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,isrt varchar(4) </v>
+      </c>
+      <c r="I6" t="str">
+        <f>" ," &amp; E6</f>
+        <v xml:space="preserve"> ,isrt</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _isrt: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" ref="G7:G8" si="1">" ," &amp; E7 &amp; " " &amp; F7 &amp; " "</f>
+        <v xml:space="preserve"> ,cd varchar(20) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" ref="I7:I10" si="2">" ," &amp; E7</f>
+        <v xml:space="preserve"> ,cd</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _cd: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,fd varchar(20) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,fd</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _fd: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>274</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>189</v>
+        <v>278</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,ai varchar(50) </v>
+        <v>275</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,ai</v>
+        <v xml:space="preserve"> ,wtt</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>private _ai: string;</v>
+        <v>private _wtt: string;</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>78</v>
-      </c>
+      <c r="A10" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>81</v>
+        <v>494</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,ib varchar(4) </v>
+        <v>495</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,ib</v>
+        <v xml:space="preserve"> ,utt</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>private _ib: string;</v>
+        <v>private _utt: string;</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="D11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,bi varchar(50) </v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,bi</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>private _bi: string;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,sdt varchar(4) </v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,sdt</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>private _sdt: string;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5" t="s">
-        <v>274</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>275</v>
-      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="18" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="G16" t="str">
-        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
-        <v xml:space="preserve"> pi varchar(50) PRIMARY KEY ,si varchar(50)  ,st varchar(50)  ,son varchar(50)  ,sa varchar(4)  ,ai varchar(50)  ,ib varchar(4)  ,bi varchar(50)  ,sdt varchar(4) </v>
-      </c>
-    </row>
-    <row r="17" spans="7:7">
-      <c r="G17" t="str">
-        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
-        <v xml:space="preserve"> pi ,si ,st ,son ,sa ,ai ,ib ,bi ,sdt</v>
       </c>
     </row>
   </sheetData>
@@ -4203,12 +6525,977 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A2:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="31.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="F2" s="39"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> moi varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> moi</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _moi: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,ji varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,ji</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J9" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _ji: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,mon varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I9" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,mon</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _mon: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="40.5">
+      <c r="A7" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,mk varchar(50) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,mk</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _mk: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="40.5">
+      <c r="A8" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,fj varchar(50) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,fj</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _fj: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,wtt integer </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,wtt</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _wtt: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" t="e">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,#REF!,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="G12" t="e">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,#REF!,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A15" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A2:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="31.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" s="39"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> jti varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> jti</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _jti: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,ji varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,ji</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J12" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _ji: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,spn varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I12" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,spn</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _spn: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="27">
+      <c r="A7" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sd varchar(20) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sd</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sd: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" ref="G8" si="3">" ," &amp; E8 &amp; " " &amp; F8 &amp; " "</f>
+        <v xml:space="preserve"> ,jtt varchar(4) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" ref="I8:I9" si="4">" ," &amp; E8</f>
+        <v xml:space="preserve"> ,jtt</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _jtt: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" ref="G9" si="5">" ," &amp; E9 &amp; " " &amp; F9 &amp; " "</f>
+        <v xml:space="preserve"> ,jtc varchar(4) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" ref="I9" si="6">" ," &amp; E9</f>
+        <v xml:space="preserve"> ,jtc</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _jtc: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,px integer </v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,px</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>private _px: string;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,bz varchar(50) </v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,bz</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>private _bz: string;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,wtt integer </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,wtt</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>private _wtt: string;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" t="e">
+        <f>CONCATENATE(G4,G5,G6,G7,#REF!,#REF!,#REF!,G10,G11,G12)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="G16" t="e">
+        <f>CONCATENATE(I4,I5,I6,I7,#REF!,#REF!,#REF!,I10,I11,I12)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A19" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" s="37"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> pi varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> pi</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _pi: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,si varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,si</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J12" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _si: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,st varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I12" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,st</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _st: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,son varchar(50) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,son</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _son: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sa varchar(4) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sa</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sa: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ai varchar(50) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ai</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ai: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,ib varchar(4) </v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,ib</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ib: string;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="D11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,bi varchar(50) </v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,bi</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>private _bi: string;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sdt varchar(4) </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sdt</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sdt: string;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+        <v xml:space="preserve"> pi varchar(50) PRIMARY KEY ,si varchar(50)  ,st varchar(50)  ,son varchar(50)  ,sa varchar(4)  ,ai varchar(50)  ,ib varchar(4)  ,bi varchar(50)  ,sdt varchar(4) </v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <v xml:space="preserve"> pi ,si ,st ,son ,sa ,ai ,ib ,bi ,sdt</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A15" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4230,10 +7517,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="37" t="s">
         <v>381</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -4432,12 +7719,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4459,10 +7746,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -4701,12 +7988,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4727,10 +8014,10 @@
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="37" t="s">
         <v>329</v>
       </c>
-      <c r="F1" s="33"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
@@ -4950,12 +8237,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4977,10 +8264,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -5085,1115 +8372,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A11" location="一览!A1" display="返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="F2" s="33"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" t="str">
-        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> pwi varchar(50) PRIMARY KEY</v>
-      </c>
-      <c r="I4" t="str">
-        <f>" " &amp; E4</f>
-        <v xml:space="preserve"> pwi</v>
-      </c>
-      <c r="J4" t="str">
-        <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _pwi: string;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="str">
-        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,ran varchar(50) </v>
-      </c>
-      <c r="I5" t="str">
-        <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,ran</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" ref="J5:J10" si="0">"private _"&amp;E5&amp;": string;"</f>
-        <v>private _ran: string;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" ref="G6:G10" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,ranpy varchar(20) </v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" ref="I6:I10" si="2">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,ranpy</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>private _ranpy: string;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,hiu varchar(200) </v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,hiu</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>private _hiu: string;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,rn varchar(20) </v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,rn</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>private _rn: string;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,rnpy varchar(20) </v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,rnpy</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>private _rnpy: string;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,rc varchar(20) </v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,rc</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>private _rc: string;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" ref="G11:G12" si="3">" ," &amp; E11 &amp; " " &amp; F11 &amp; " "</f>
-        <v xml:space="preserve"> ,rel varchar(4) </v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" ref="I11:I12" si="4">" ," &amp; E11</f>
-        <v xml:space="preserve"> ,rel</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" ref="J11:J12" si="5">"private _"&amp;E11&amp;": string;"</f>
-        <v>private _rel: string;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> ,ui varchar(50) </v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> ,ui</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="5"/>
-        <v>private _ui: string;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="G13" t="e">
-        <f>CONCATENATE(G4,G5,G6,#REF!,G7,G8,G9,G10,#REF!,#REF!,G11,G12)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" t="e">
-        <f>CONCATENATE(I4,I5,I6,#REF!,I7,I8,I9,I10,#REF!,#REF!,I11,I12)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A17" location="一览!A1" display="返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="F2" s="33"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" t="str">
-        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> gi varchar(50) PRIMARY KEY</v>
-      </c>
-      <c r="I4" t="str">
-        <f>" " &amp; E4</f>
-        <v xml:space="preserve"> gi</v>
-      </c>
-      <c r="J4" t="str">
-        <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _gi: string;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" t="str">
-        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,gn varchar(50) </v>
-      </c>
-      <c r="I5" t="str">
-        <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,gn</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" ref="J5:J6" si="0">"private _"&amp;E5&amp;": string;"</f>
-        <v>private _gn: string;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" ref="G6" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,gm varchar(50) </v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" ref="I6" si="2">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,gm</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>private _gm: string;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" t="str">
-        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
-        <v xml:space="preserve"> gi varchar(50) PRIMARY KEY ,gn varchar(50)  ,gm varchar(50) </v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" t="str">
-        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
-        <v xml:space="preserve"> gi ,gn ,gm</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A20" location="一览!A1" display="返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="F2" s="33"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" t="str">
-        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> bi varchar(50) PRIMARY KEY</v>
-      </c>
-      <c r="I4" t="str">
-        <f>" " &amp; E4</f>
-        <v xml:space="preserve"> bi</v>
-      </c>
-      <c r="J4" t="str">
-        <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _bi: string;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" t="str">
-        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,bmi varchar(50) </v>
-      </c>
-      <c r="I5" t="str">
-        <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,bmi</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" ref="J5" si="0">"private _"&amp;E5&amp;": string;"</f>
-        <v>private _bmi: string;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="G16" t="str">
-        <f>CONCATENATE(G2,G3,G4,G5,G6,G7,G8,G9,G10,G11)</f>
-        <v xml:space="preserve"> bi varchar(50) PRIMARY KEY ,bmi varchar(50) </v>
-      </c>
-    </row>
-    <row r="17" spans="7:7">
-      <c r="G17" t="str">
-        <f>CONCATENATE(I2,I3,I4,I5,I6,I7,I8,I9,I10,I11)</f>
-        <v xml:space="preserve"> bi ,bmi</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A14" location="一览!A1" display="返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="F2" s="33"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="str">
-        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> si varchar(50) PRIMARY KEY</v>
-      </c>
-      <c r="I4" t="str">
-        <f>" " &amp; E4</f>
-        <v xml:space="preserve"> si</v>
-      </c>
-      <c r="J4" t="str">
-        <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _si: string;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="str">
-        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,st VARCHAR(20) </v>
-      </c>
-      <c r="I5" t="str">
-        <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,st</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" ref="J5:J9" si="0">"private _"&amp;E5&amp;": string;"</f>
-        <v>private _st: string;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,stn VARCHAR(20) </v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" ref="I6:I9" si="2">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,stn</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>private _stn: string;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,sn VARCHAR(20) </v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,sn</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>private _sn: string;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,yk VARCHAR(20) </v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,yk</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>private _yk: string;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,yv VARCHAR(400) </v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,yv</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>private _yv: string;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7">
-      <c r="E17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7">
-      <c r="G18" t="str">
-        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
-        <v xml:space="preserve"> si varchar(50) PRIMARY KEY ,st VARCHAR(20)  ,stn VARCHAR(20)  ,sn VARCHAR(20)  ,yk VARCHAR(20)  ,yv VARCHAR(400) </v>
-      </c>
-    </row>
-    <row r="19" spans="5:7">
-      <c r="E19" t="s">
-        <v>148</v>
-      </c>
-      <c r="G19" t="str">
-        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
-        <v xml:space="preserve"> si ,st ,stn ,sn ,yk ,yv</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7">
-      <c r="E20" t="s">
-        <v>191</v>
-      </c>
-      <c r="F20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7">
-      <c r="F21" t="s">
-        <v>182</v>
-      </c>
-      <c r="G21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7">
-      <c r="F22" t="s">
-        <v>181</v>
-      </c>
-      <c r="G22" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7">
-      <c r="F23" t="s">
-        <v>180</v>
-      </c>
-      <c r="G23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7">
-      <c r="F24" t="s">
-        <v>179</v>
-      </c>
-      <c r="G24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="5:7">
-      <c r="F25" t="s">
-        <v>185</v>
-      </c>
-      <c r="G25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="5:7">
-      <c r="E26" t="s">
-        <v>194</v>
-      </c>
-      <c r="F26" t="s">
-        <v>193</v>
-      </c>
-      <c r="G26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A16" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6275,6 +8453,1115 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="F2" s="37"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> pwi varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> pwi</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _pwi: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,ran varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,ran</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J10" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _ran: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G10" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,ranpy varchar(20) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I10" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,ranpy</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _ranpy: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,hiu varchar(200) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,hiu</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _hiu: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,rn varchar(20) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,rn</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _rn: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,rnpy varchar(20) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,rnpy</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _rnpy: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,rc varchar(20) </v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,rc</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>private _rc: string;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" ref="G11:G12" si="3">" ," &amp; E11 &amp; " " &amp; F11 &amp; " "</f>
+        <v xml:space="preserve"> ,rel varchar(4) </v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" ref="I11:I12" si="4">" ," &amp; E11</f>
+        <v xml:space="preserve"> ,rel</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" ref="J11:J12" si="5">"private _"&amp;E11&amp;": string;"</f>
+        <v>private _rel: string;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> ,ui varchar(50) </v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> ,ui</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="5"/>
+        <v>private _ui: string;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G13" t="e">
+        <f>CONCATENATE(G4,G5,G6,#REF!,G7,G8,G9,G10,#REF!,#REF!,G11,G12)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" t="e">
+        <f>CONCATENATE(I4,I5,I6,#REF!,I7,I8,I9,I10,#REF!,#REF!,I11,I12)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A17" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="F2" s="37"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> gi varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> gi</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _gi: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,gn varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,gn</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J6" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _gn: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,gm varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,gm</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _gm: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+        <v xml:space="preserve"> gi varchar(50) PRIMARY KEY ,gn varchar(50)  ,gm varchar(50) </v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <v xml:space="preserve"> gi ,gn ,gm</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A20" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="37"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> bi varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> bi</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _bi: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,bmi varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,bmi</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _bmi: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="G16" t="str">
+        <f>CONCATENATE(G2,G3,G4,G5,G6,G7,G8,G9,G10,G11)</f>
+        <v xml:space="preserve"> bi varchar(50) PRIMARY KEY ,bmi varchar(50) </v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" t="str">
+        <f>CONCATENATE(I2,I3,I4,I5,I6,I7,I8,I9,I10,I11)</f>
+        <v xml:space="preserve"> bi ,bmi</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A14" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="37"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> si varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> si</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _si: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,st VARCHAR(20) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,st</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J9" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _st: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,stn VARCHAR(20) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I9" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,stn</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _stn: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,sn VARCHAR(20) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,sn</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _sn: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,yk VARCHAR(20) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,yk</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _yk: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,yv VARCHAR(400) </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,yv</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _yv: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="E17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="G18" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+        <v xml:space="preserve"> si varchar(50) PRIMARY KEY ,st VARCHAR(20)  ,stn VARCHAR(20)  ,sn VARCHAR(20)  ,yk VARCHAR(20)  ,yv VARCHAR(400) </v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <v xml:space="preserve"> si ,st ,stn ,sn ,yk ,yv</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="F21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7">
+      <c r="F22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7">
+      <c r="F23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="F24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="F25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7">
+      <c r="E26" t="s">
+        <v>194</v>
+      </c>
+      <c r="F26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A16" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6300,10 +9587,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -6582,7 +9869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -6751,7 +10038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J23"/>
   <sheetViews>
@@ -6778,10 +10065,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="37" t="s">
         <v>356</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -7124,7 +10411,7 @@
   <dimension ref="B3:P55"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7427,7 +10714,7 @@
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7449,10 +10736,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
@@ -7669,10 +10956,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -7964,7 +11251,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7992,10 +11279,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="38" t="s">
         <v>302</v>
       </c>
-      <c r="F2" s="35"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -8281,7 +11568,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8303,10 +11590,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="F2" s="35"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -8738,7 +12025,7 @@
   <dimension ref="A2:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8760,10 +12047,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="F2" s="35"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -9154,10 +12441,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J18"/>
+  <dimension ref="A2:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9173,15 +12460,15 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>446</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="34" t="s">
-        <v>445</v>
-      </c>
-      <c r="F2" s="35"/>
+      <c r="E2" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -9193,50 +12480,50 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>447</v>
+        <v>334</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>447</v>
+        <v>333</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>448</v>
+        <v>341</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G4" t="str">
         <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> moi varchar(50) PRIMARY KEY</v>
+        <v xml:space="preserve"> jti varchar(50) PRIMARY KEY</v>
       </c>
       <c r="I4" t="str">
         <f>" " &amp; E4</f>
-        <v xml:space="preserve"> moi</v>
+        <v xml:space="preserve"> jti</v>
       </c>
       <c r="J4" t="str">
         <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _moi: string;</v>
+        <v>private _jti: string;</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>73</v>
+        <v>348</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>73</v>
+        <v>349</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>75</v>
+        <v>342</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
@@ -9250,35 +12537,35 @@
         <v xml:space="preserve"> ,ji</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J12" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <f t="shared" ref="J5:J17" si="0">"private _"&amp;E5&amp;": string;"</f>
         <v>private _ji: string;</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>449</v>
+        <v>335</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>449</v>
+        <v>336</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>450</v>
+        <v>343</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,mon varchar(50) </v>
+        <f t="shared" ref="G6:G17" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,spn varchar(50) </v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" ref="I6:I12" si="2">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,mon</v>
+        <f t="shared" ref="I6:I17" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,spn</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>private _mon: string;</v>
+        <v>private _spn: string;</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9291,7 +12578,7 @@
         <v>135</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>70</v>
+        <v>344</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>38</v>
@@ -9339,7 +12626,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
@@ -9395,87 +12682,228 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>274</v>
+        <v>337</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>278</v>
+        <v>345</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>275</v>
+        <v>339</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,wtt integer </v>
+        <v xml:space="preserve"> ,px integer </v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,wtt</v>
+        <v xml:space="preserve"> ,px</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>private _wtt: string;</v>
+        <v>private _px: string;</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,si varchar(50) </v>
+        <v xml:space="preserve"> ,bz varchar(50) </v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,si</v>
+        <v xml:space="preserve"> ,bz</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
+        <v>private _bz: string;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="35" customFormat="1">
+      <c r="A13" s="34" t="s">
+        <v>450</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>450</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,fjt varchar(20) </v>
+      </c>
+      <c r="I13" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,fjt</v>
+      </c>
+      <c r="J13" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>private _fjt: string;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="35" customFormat="1">
+      <c r="A14" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,fjn varchar(20) </v>
+      </c>
+      <c r="I14" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,fjn</v>
+      </c>
+      <c r="J14" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>private _fjn: string;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="35" customFormat="1">
+      <c r="A15" s="34" t="s">
+        <v>451</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>451</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,fj varchar(50) </v>
+      </c>
+      <c r="I15" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,fj</v>
+      </c>
+      <c r="J15" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>private _fj: string;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,wtt integer </v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,wtt</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>private _wtt: string;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,si varchar(50) </v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,si</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
         <v>private _si: string;</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" t="str">
-        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11)</f>
-        <v xml:space="preserve"> moi varchar(50) PRIMARY KEY ,ji varchar(50)  ,mon varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,wtt integer </v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="G15" t="str">
-        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11)</f>
-        <v xml:space="preserve"> moi ,ji ,mon ,sd ,st ,ed ,et ,wtt</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G16)</f>
+        <v xml:space="preserve"> jti varchar(50) PRIMARY KEY ,ji varchar(50)  ,spn varchar(50)  ,sd varchar(20)  ,st varchar(20)  ,ed varchar(20)  ,et varchar(20)  ,px integer  ,bz varchar(50)  ,wtt integer </v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="G20" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I16)</f>
+        <v xml:space="preserve"> jti ,ji ,spn ,sd ,st ,ed ,et ,px ,bz ,wtt</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="18" t="s">
         <v>60</v>
       </c>
     </row>
@@ -9485,7 +12913,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A18" location="一览!A1" display="返回"/>
+    <hyperlink ref="A23" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="546">
   <si>
     <t>表名</t>
   </si>
@@ -2166,6 +2166,18 @@
   </si>
   <si>
     <t>jtc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人数量(一览显示冗余)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4211,7 +4223,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>gtd_att</a:t>
+            <a:t>gtd_fj</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -5593,8 +5605,8 @@
   </sheetPr>
   <dimension ref="B5:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5759,10 +5771,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A2:J21"/>
+  <dimension ref="A2:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5856,7 +5868,7 @@
         <v xml:space="preserve"> ,evn</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J17" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <f t="shared" ref="J5:J18" si="0">"private _"&amp;E5&amp;": string;"</f>
         <v>private _evn: string;</v>
       </c>
     </row>
@@ -5879,7 +5891,7 @@
         <v xml:space="preserve"> ,ui varchar(50) </v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" ref="I6:I17" si="2">" ," &amp; E6</f>
+        <f t="shared" ref="I6:I18" si="2">" ," &amp; E6</f>
         <v xml:space="preserve"> ,ui</v>
       </c>
       <c r="J6" t="str">
@@ -6113,88 +6125,102 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B15" s="5"/>
+        <v>543</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>544</v>
+      </c>
       <c r="D15" s="5" t="s">
-        <v>274</v>
+        <v>543</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>278</v>
+        <v>545</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>275</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,wtt</v>
+        <v xml:space="preserve"> ,pn</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
-        <v>private _wtt: string;</v>
+        <v>private _pn: string;</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
-        <v>493</v>
+        <v>274</v>
       </c>
       <c r="B16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>493</v>
+        <v>274</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>494</v>
+        <v>278</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>495</v>
+        <v>275</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,utt</v>
+        <v xml:space="preserve"> ,wtt</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
-        <v>private _utt: string;</v>
+        <v>private _wtt: string;</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,utt</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>private _utt: string;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G17" t="str">
+      <c r="G18" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
         <v xml:space="preserve"> evi varchar(50) PRIMARY KEY ,evn varchar(50)  ,ui varchar(50)  ,evd varchar(20)  ,rtevi varchar(50)  ,ji varchar(50)  ,bz varchar(50)  ,type varchar(4)  ,tx varchar(50) </v>
       </c>
-      <c r="I17" t="str">
+      <c r="I18" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> ,gs</v>
       </c>
-      <c r="J17" t="str">
+      <c r="J18" t="str">
         <f t="shared" si="0"/>
         <v>private _gs: string;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" t="str">
-        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,)</f>
-        <v xml:space="preserve"> evi ,evn ,ui ,evd ,rtevi ,ji ,bz ,type ,tx</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1">
@@ -6204,23 +6230,34 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" t="str">
-        <f>CONCATENATE(I5,I6,I7,I8,I9,I10,I11,I12,I13,)</f>
-        <v xml:space="preserve"> ,evn ,ui ,evd ,rtevi ,ji ,bz ,type ,tx ,rt</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,)</f>
+        <v xml:space="preserve"> evi ,evn ,ui ,evd ,rtevi ,ji ,bz ,type ,tx</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14.25" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" t="str">
-        <f>CONCATENATE(I6,I7,I8,I9,I10,I11,I12,I13,I15,)</f>
+        <f>CONCATENATE(I5,I6,I7,I8,I9,I10,I11,I12,I13,)</f>
+        <v xml:space="preserve"> ,evn ,ui ,evd ,rtevi ,ji ,bz ,type ,tx ,rt</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" t="str">
+        <f>CONCATENATE(I6,I7,I8,I9,I10,I11,I12,I13,I16,)</f>
         <v xml:space="preserve"> ,ui ,evd ,rtevi ,ji ,bz ,type ,tx ,rt ,wtt</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="18" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" s="18" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6230,7 +6267,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A21" location="一览!A1" display="返回"/>
+    <hyperlink ref="A22" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6974,7 +7011,7 @@
         <v xml:space="preserve"> ,jtt varchar(4) </v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" ref="I8:I9" si="4">" ," &amp; E8</f>
+        <f t="shared" ref="I8" si="4">" ," &amp; E8</f>
         <v xml:space="preserve"> ,jtt</v>
       </c>
       <c r="J8" t="str">
@@ -7150,7 +7187,7 @@
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="548">
   <si>
     <t>表名</t>
   </si>
@@ -2178,6 +2178,14 @@
   </si>
   <si>
     <t>pn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件关联ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享人原事件ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5771,10 +5779,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A2:J22"/>
+  <dimension ref="A2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5868,7 +5876,7 @@
         <v xml:space="preserve"> ,evn</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J18" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <f t="shared" ref="J5:J19" si="0">"private _"&amp;E5&amp;": string;"</f>
         <v>private _evn: string;</v>
       </c>
     </row>
@@ -5891,7 +5899,7 @@
         <v xml:space="preserve"> ,ui varchar(50) </v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" ref="I6:I18" si="2">" ," &amp; E6</f>
+        <f t="shared" ref="I6:I19" si="2">" ," &amp; E6</f>
         <v xml:space="preserve"> ,ui</v>
       </c>
       <c r="J6" t="str">
@@ -6150,88 +6158,94 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="D16" s="5" t="s">
+      <c r="B17" s="5"/>
+      <c r="D17" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="I16" t="str">
+      <c r="I17" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> ,wtt</v>
       </c>
-      <c r="J16" t="str">
+      <c r="J17" t="str">
         <f t="shared" si="0"/>
         <v>private _wtt: string;</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="5" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="D17" s="5" t="s">
+      <c r="B18" s="5"/>
+      <c r="D18" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="I17" t="str">
+      <c r="I18" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> ,utt</v>
       </c>
-      <c r="J17" t="str">
+      <c r="J18" t="str">
         <f t="shared" si="0"/>
         <v>private _utt: string;</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="5" t="s">
+    <row r="19" spans="1:10">
+      <c r="A19" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G18" t="str">
+      <c r="G19" t="str">
         <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
         <v xml:space="preserve"> evi varchar(50) PRIMARY KEY ,evn varchar(50)  ,ui varchar(50)  ,evd varchar(20)  ,rtevi varchar(50)  ,ji varchar(50)  ,bz varchar(50)  ,type varchar(4)  ,tx varchar(50) </v>
       </c>
-      <c r="I18" t="str">
+      <c r="I19" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> ,gs</v>
       </c>
-      <c r="J18" t="str">
+      <c r="J19" t="str">
         <f t="shared" si="0"/>
         <v>private _gs: string;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" t="str">
-        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,)</f>
-        <v xml:space="preserve"> evi ,evn ,ui ,evd ,rtevi ,ji ,bz ,type ,tx</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1">
@@ -6241,23 +6255,34 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" t="str">
-        <f>CONCATENATE(I5,I6,I7,I8,I9,I10,I11,I12,I13,)</f>
-        <v xml:space="preserve"> ,evn ,ui ,evd ,rtevi ,ji ,bz ,type ,tx ,rt</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,)</f>
+        <v xml:space="preserve"> evi ,evn ,ui ,evd ,rtevi ,ji ,bz ,type ,tx</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.25" customHeight="1">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" t="str">
-        <f>CONCATENATE(I6,I7,I8,I9,I10,I11,I12,I13,I16,)</f>
+        <f>CONCATENATE(I5,I6,I7,I8,I9,I10,I11,I12,I13,)</f>
+        <v xml:space="preserve"> ,evn ,ui ,evd ,rtevi ,ji ,bz ,type ,tx ,rt</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" t="str">
+        <f>CONCATENATE(I6,I7,I8,I9,I10,I11,I12,I13,I17,)</f>
         <v xml:space="preserve"> ,ui ,evd ,rtevi ,ji ,bz ,type ,tx ,rt ,wtt</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="18" t="s">
+    <row r="23" spans="1:10">
+      <c r="A23" s="18" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6267,7 +6292,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A22" location="一览!A1" display="返回"/>
+    <hyperlink ref="A23" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -11605,7 +11630,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D13" sqref="D13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="554">
   <si>
     <t>表名</t>
   </si>
@@ -1987,22 +1987,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>事件归属</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2186,6 +2170,46 @@
   </si>
   <si>
     <t>共享人原事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复设置参数JSON格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒设置参数JSON格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5613,8 +5637,8 @@
   </sheetPr>
   <dimension ref="B5:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5779,10 +5803,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A2:J23"/>
+  <dimension ref="A2:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5876,7 +5900,7 @@
         <v xml:space="preserve"> ,evn</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J19" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <f t="shared" ref="J5:J21" si="0">"private _"&amp;E5&amp;": string;"</f>
         <v>private _evn: string;</v>
       </c>
     </row>
@@ -5895,11 +5919,11 @@
         <v>29</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" ref="G6:G12" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <f t="shared" ref="G6:G13" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
         <v xml:space="preserve"> ,ui varchar(50) </v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" ref="I6:I19" si="2">" ," &amp; E6</f>
+        <f t="shared" ref="I6:I21" si="2">" ," &amp; E6</f>
         <v xml:space="preserve"> ,ui</v>
       </c>
       <c r="J6" t="str">
@@ -5912,7 +5936,7 @@
         <v>489</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
@@ -5942,7 +5966,7 @@
         <v>491</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
@@ -6028,7 +6052,7 @@
         <v>496</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>496</v>
@@ -6054,23 +6078,19 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>498</v>
+        <v>544</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>505</v>
+        <v>553</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>498</v>
+        <v>544</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>500</v>
+        <v>548</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,tx varchar(50) </v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="2"/>
@@ -6083,206 +6103,260 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>499</v>
+        <v>545</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>499</v>
+        <v>545</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>501</v>
+        <v>549</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,txs varchar(50) </v>
+      </c>
       <c r="I13" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,rt</v>
+        <v xml:space="preserve"> ,txs</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>private _rt: string;</v>
+        <v>private _txs: string;</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,fj</v>
+        <v xml:space="preserve"> ,rt</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
-        <v>private _fj: string;</v>
+        <v>private _rt: string;</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>544</v>
+        <v>502</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>275</v>
+        <v>29</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,pn</v>
+        <v xml:space="preserve"> ,rts</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
-        <v>private _pn: string;</v>
+        <v>private _rts: string;</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
-        <v>223</v>
+        <v>528</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>224</v>
+        <v>512</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,fj</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>private _fj: string;</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B17" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="D17" s="5" t="s">
-        <v>274</v>
+        <v>539</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>278</v>
+        <v>541</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>275</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,wtt</v>
+        <v xml:space="preserve"> ,pn</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
-        <v>private _wtt: string;</v>
+        <v>private _pn: string;</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,wtt</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>private _wtt: string;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="D18" s="5" t="s">
+      <c r="B20" s="5"/>
+      <c r="D20" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="I18" t="str">
+      <c r="I20" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> ,utt</v>
       </c>
-      <c r="J18" t="str">
+      <c r="J20" t="str">
         <f t="shared" si="0"/>
         <v>private _utt: string;</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="F19" s="4" t="s">
+    <row r="21" spans="1:10">
+      <c r="A21" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G19" t="str">
-        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,)</f>
-        <v xml:space="preserve"> evi varchar(50) PRIMARY KEY ,evn varchar(50)  ,ui varchar(50)  ,evd varchar(20)  ,rtevi varchar(50)  ,ji varchar(50)  ,bz varchar(50)  ,type varchar(4)  ,tx varchar(50) </v>
-      </c>
-      <c r="I19" t="str">
+      <c r="G21" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G13,)</f>
+        <v xml:space="preserve"> evi varchar(50) PRIMARY KEY ,evn varchar(50)  ,ui varchar(50)  ,evd varchar(20)  ,rtevi varchar(50)  ,ji varchar(50)  ,bz varchar(50)  ,type varchar(4)  ,txs varchar(50) </v>
+      </c>
+      <c r="I21" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> ,gs</v>
       </c>
-      <c r="J19" t="str">
+      <c r="J21" t="str">
         <f t="shared" si="0"/>
         <v>private _gs: string;</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" t="str">
-        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,)</f>
-        <v xml:space="preserve"> evi ,evn ,ui ,evd ,rtevi ,ji ,bz ,type ,tx</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" t="str">
-        <f>CONCATENATE(I5,I6,I7,I8,I9,I10,I11,I12,I13,)</f>
-        <v xml:space="preserve"> ,evn ,ui ,evd ,rtevi ,ji ,bz ,type ,tx ,rt</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" ht="14.25" customHeight="1">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" t="str">
-        <f>CONCATENATE(I6,I7,I8,I9,I10,I11,I12,I13,I17,)</f>
-        <v xml:space="preserve"> ,ui ,evd ,rtevi ,ji ,bz ,type ,tx ,rt ,wtt</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="18" t="s">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I13,)</f>
+        <v xml:space="preserve"> evi ,evn ,ui ,evd ,rtevi ,ji ,bz ,type ,txs</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" t="str">
+        <f>CONCATENATE(I5,I6,I7,I8,I9,I10,I11,I13,I15,)</f>
+        <v xml:space="preserve"> ,evn ,ui ,evd ,rtevi ,ji ,bz ,type ,txs ,rts</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" t="str">
+        <f>CONCATENATE(I6,I7,I8,I9,I10,I11,I13,I15,I19,)</f>
+        <v xml:space="preserve"> ,ui ,evd ,rtevi ,ji ,bz ,type ,txs ,rts ,wtt</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="18" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6292,7 +6366,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A23" location="一览!A1" display="返回"/>
+    <hyperlink ref="A25" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6307,7 +6381,7 @@
   <dimension ref="A2:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6324,13 +6398,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F2" s="39"/>
     </row>
@@ -6380,19 +6454,19 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G5" t="str">
         <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
@@ -6409,19 +6483,19 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G6" t="str">
         <f>" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
@@ -6438,16 +6512,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>38</v>
@@ -6470,14 +6544,14 @@
         <v>471</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
         <v>471</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>38</v>
@@ -6640,11 +6714,11 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>447</v>
@@ -6721,20 +6795,20 @@
     </row>
     <row r="7" spans="1:10" ht="40.5">
       <c r="A7" s="10" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>513</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>517</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -6751,20 +6825,20 @@
     </row>
     <row r="8" spans="1:10" ht="40.5">
       <c r="A8" s="10" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -6876,7 +6950,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -6905,11 +6979,11 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>341</v>
@@ -6989,7 +7063,7 @@
         <v>467</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
@@ -7016,20 +7090,20 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>535</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>539</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" ref="G8" si="3">" ," &amp; E8 &amp; " " &amp; F8 &amp; " "</f>
@@ -7046,20 +7120,20 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" ref="G9" si="5">" ," &amp; E9 &amp; " " &amp; F9 &amp; " "</f>
@@ -11630,7 +11704,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:F13"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" firstSheet="2" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -24,21 +24,29 @@
     <sheet name="日历、日历项、事件、备忘设计" sheetId="54" r:id="rId10"/>
     <sheet name="事件表" sheetId="55" r:id="rId11"/>
     <sheet name="任务表" sheetId="57" r:id="rId12"/>
-    <sheet name="备忘表" sheetId="53" r:id="rId13"/>
-    <sheet name="日历项表" sheetId="58" r:id="rId14"/>
-    <sheet name="日程参与人表" sheetId="10" r:id="rId15"/>
-    <sheet name="日程语义标签标注表" sheetId="51" r:id="rId16"/>
-    <sheet name="提醒时间表" sheetId="11" r:id="rId17"/>
-    <sheet name="计划表" sheetId="41" r:id="rId18"/>
-    <sheet name="参与人头像" sheetId="48" r:id="rId19"/>
-    <sheet name="参与人" sheetId="24" r:id="rId20"/>
-    <sheet name="群组" sheetId="43" r:id="rId21"/>
-    <sheet name="群组参与人关系" sheetId="8" r:id="rId22"/>
-    <sheet name="系統設置表" sheetId="29" r:id="rId23"/>
-    <sheet name="用户偏好" sheetId="39" r:id="rId24"/>
-    <sheet name="系統設置表数据" sheetId="46" r:id="rId25"/>
-    <sheet name="语音表" sheetId="50" r:id="rId26"/>
+    <sheet name="附件表" sheetId="59" r:id="rId13"/>
+    <sheet name="备忘表" sheetId="53" r:id="rId14"/>
+    <sheet name="日历项表" sheetId="58" r:id="rId15"/>
+    <sheet name="参与人表" sheetId="60" r:id="rId16"/>
+    <sheet name="语义标签标注表" sheetId="61" r:id="rId17"/>
+    <sheet name="日程参与人表" sheetId="10" r:id="rId18"/>
+    <sheet name="日程语义标签标注表" sheetId="51" r:id="rId19"/>
+    <sheet name="提醒时间表" sheetId="11" r:id="rId20"/>
+    <sheet name="计划表" sheetId="41" r:id="rId21"/>
+    <sheet name="参与人头像" sheetId="48" r:id="rId22"/>
+    <sheet name="参与人" sheetId="24" r:id="rId23"/>
+    <sheet name="群组" sheetId="43" r:id="rId24"/>
+    <sheet name="群组参与人关系" sheetId="8" r:id="rId25"/>
+    <sheet name="系統設置表" sheetId="29" r:id="rId26"/>
+    <sheet name="用户偏好" sheetId="39" r:id="rId27"/>
+    <sheet name="系統設置表数据" sheetId="46" r:id="rId28"/>
+    <sheet name="语音表" sheetId="50" r:id="rId29"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="15" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="16" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="620">
   <si>
     <t>表名</t>
   </si>
@@ -2210,6 +2218,270 @@
   </si>
   <si>
     <t>提醒设置参数JSON格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件后缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fjn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event=事件 memo=备忘 calendar=日历项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_fj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">undel 未删除 del 已删除 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsynch 未同步 synch 已同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">nosend 未发送，noaccepted未接受，accepted已接受，rejected已拒绝 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程发送状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unmod 不可修改，mod可修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event=事件 memo=备忘 calendar=日历项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件参与人表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>di</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标注类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event=事件 memo=备忘 calendar=日历项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语义标签标注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语义标签使用半角逗号分割，查询时使用like模糊查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gtd_mk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程语义标签标注表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2402,7 +2674,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2517,11 +2789,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5637,7 +5921,7 @@
   </sheetPr>
   <dimension ref="B5:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -5806,7 +6090,7 @@
   <dimension ref="A2:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5828,10 +6112,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="39" t="s">
         <v>484</v>
       </c>
-      <c r="F2" s="39"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -6403,10 +6687,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="39" t="s">
         <v>506</v>
       </c>
-      <c r="F2" s="39"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -6662,6 +6946,222 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>570</v>
+      </c>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="43" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="D3" s="43" t="s">
+        <v>568</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>567</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="27">
+      <c r="A4" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4</f>
+        <v xml:space="preserve"> obt integer</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> obt</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _obt: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,obi varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,obi</v>
+      </c>
+      <c r="J5" t="str">
+        <f>"private _"&amp;E5&amp;": string;"</f>
+        <v>private _obi: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="str">
+        <f>" ," &amp; E8 &amp; " " &amp; F8 &amp; " "</f>
+        <v xml:space="preserve"> ,fj varchar(50) </v>
+      </c>
+      <c r="I8" t="str">
+        <f>" ," &amp; E8</f>
+        <v xml:space="preserve"> ,fj</v>
+      </c>
+      <c r="J8" t="str">
+        <f>"private _"&amp;E8&amp;": string;"</f>
+        <v>private _fj: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="G9" t="str">
+        <f>" ," &amp; E9 &amp; " " &amp; F9 &amp; " "</f>
+        <v xml:space="preserve"> ,wtt integer </v>
+      </c>
+      <c r="I9" t="str">
+        <f>" ," &amp; E9</f>
+        <v xml:space="preserve"> ,wtt</v>
+      </c>
+      <c r="J9" t="str">
+        <f>"private _"&amp;E9&amp;": string;"</f>
+        <v>private _wtt: string;</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -6690,10 +7190,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="39" t="s">
         <v>445</v>
       </c>
-      <c r="F2" s="39"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -6926,7 +7426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -6955,10 +7455,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="F2" s="39"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -7281,7 +7781,563 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A2:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>598</v>
+      </c>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="43" t="s">
+        <v>597</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>597</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>597</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>596</v>
+      </c>
+      <c r="F4" s="42"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" " &amp; E5 &amp; " " &amp; F5 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> pi varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I5" t="str">
+        <f>" " &amp; E5</f>
+        <v xml:space="preserve"> pi</v>
+      </c>
+      <c r="J5" t="str">
+        <f>"private _"&amp;E5&amp;": string;"</f>
+        <v>private _pi: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="G6" t="str">
+        <f>" " &amp; E6 &amp; " " &amp; F6</f>
+        <v xml:space="preserve"> obt integer</v>
+      </c>
+      <c r="I6" t="str">
+        <f>" " &amp; E6</f>
+        <v xml:space="preserve"> obt</v>
+      </c>
+      <c r="J6" t="str">
+        <f>"private _"&amp;E6&amp;": string;"</f>
+        <v>private _obt: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="G7" t="str">
+        <f>" ," &amp; E7 &amp; " " &amp; F7 &amp; " "</f>
+        <v xml:space="preserve"> ,obi varchar(50) </v>
+      </c>
+      <c r="I7" t="str">
+        <f>" ," &amp; E7</f>
+        <v xml:space="preserve"> ,obi</v>
+      </c>
+      <c r="J7" t="str">
+        <f>"private _"&amp;E7&amp;": string;"</f>
+        <v>private _obi: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="G8" t="str">
+        <f>" ," &amp; E8 &amp; " " &amp; F8 &amp; " "</f>
+        <v xml:space="preserve"> ,sa varchar(4) </v>
+      </c>
+      <c r="I8" t="str">
+        <f>" ," &amp; E8</f>
+        <v xml:space="preserve"> ,sa</v>
+      </c>
+      <c r="J8" t="str">
+        <f>"private _"&amp;E8&amp;": string;"</f>
+        <v>private _sa: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="27">
+      <c r="A9" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="G9" t="str">
+        <f>" ," &amp; E9 &amp; " " &amp; F9 &amp; " "</f>
+        <v xml:space="preserve"> ,sdt varchar(4) </v>
+      </c>
+      <c r="I9" t="str">
+        <f>" ," &amp; E9</f>
+        <v xml:space="preserve"> ,sdt</v>
+      </c>
+      <c r="J9" t="str">
+        <f>"private _"&amp;E9&amp;": string;"</f>
+        <v>private _sdt: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="J10" t="str">
+        <f>"private _"&amp;E10&amp;": string;"</f>
+        <v>private _tb: string;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="22" t="s">
+        <v>577</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="J11" t="str">
+        <f>"private _"&amp;E11&amp;": string;"</f>
+        <v>private _del: string;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="18" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="G15" t="e">
+        <f>CONCATENATE(G5,#REF!,#REF!,#REF!,G8,#REF!,#REF!,#REF!,G9,G12)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="G16" t="e">
+        <f>CONCATENATE(I5,#REF!,#REF!,#REF!,I8,#REF!,#REF!,#REF!,I9,I12)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A14" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A2:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>618</v>
+      </c>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> mki varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> mki</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private "&amp;E4&amp;": string;"</f>
+        <v>private mki: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="27">
+      <c r="A5" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,mkl varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,mkl</v>
+      </c>
+      <c r="J5" t="str">
+        <f>"private "&amp;E5&amp;": string;"</f>
+        <v>private mkl: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="G6" t="str">
+        <f>" " &amp; E6 &amp; " " &amp; F6</f>
+        <v xml:space="preserve"> obt integer</v>
+      </c>
+      <c r="I6" t="str">
+        <f>" " &amp; E6</f>
+        <v xml:space="preserve"> obt</v>
+      </c>
+      <c r="J6" t="str">
+        <f>"private _"&amp;E6&amp;": string;"</f>
+        <v>private _obt: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="G7" t="str">
+        <f>" ," &amp; E7 &amp; " " &amp; F7 &amp; " "</f>
+        <v xml:space="preserve"> ,obi varchar(50) </v>
+      </c>
+      <c r="I7" t="str">
+        <f>" ," &amp; E7</f>
+        <v xml:space="preserve"> ,obi</v>
+      </c>
+      <c r="J7" t="str">
+        <f>"private _"&amp;E7&amp;": string;"</f>
+        <v>private _obi: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="G8" t="str">
+        <f>" ," &amp; E8 &amp; " " &amp; F8 &amp; " "</f>
+        <v xml:space="preserve"> ,mkt varchar(50) </v>
+      </c>
+      <c r="I8" t="str">
+        <f>" ," &amp; E8</f>
+        <v xml:space="preserve"> ,mkt</v>
+      </c>
+      <c r="J8" t="str">
+        <f>"private "&amp;E8&amp;": string;"</f>
+        <v>private mkt: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="G9" t="str">
+        <f>" ," &amp; E9 &amp; " " &amp; F9 &amp; " "</f>
+        <v xml:space="preserve"> ,wtt integer </v>
+      </c>
+      <c r="I9" t="str">
+        <f>" ," &amp; E9</f>
+        <v xml:space="preserve"> ,wtt</v>
+      </c>
+      <c r="J9" t="str">
+        <f>"private "&amp;E9&amp;": string;"</f>
+        <v>private wtt: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1">
+      <c r="A13" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="C13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13" t="e">
+        <f>CONCATENATE(G4,#REF!,G5,G8,G9)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="G14" t="e">
+        <f>CONCATENATE(I4,#REF!,I5,I8,I9)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A13" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
@@ -7308,10 +8364,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -7626,7 +8682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J13"/>
   <sheetViews>
@@ -7653,10 +8709,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="38" t="s">
         <v>381</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -7849,665 +8905,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A12" location="一览!A1" display="返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="F2" s="37"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="str">
-        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> wi varchar(50) PRIMARY KEY</v>
-      </c>
-      <c r="I4" t="str">
-        <f>" " &amp; E4</f>
-        <v xml:space="preserve"> wi</v>
-      </c>
-      <c r="J4" t="str">
-        <f>"private _"&amp;E4&amp;": string;"</f>
-        <v>private _wi: string;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="str">
-        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,si varchar(50) </v>
-      </c>
-      <c r="I5" t="str">
-        <f>" ," &amp; E5</f>
-        <v xml:space="preserve"> ,si</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" ref="J5:J9" si="0">"private _"&amp;E5&amp;": string;"</f>
-        <v>private _si: string;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
-        <v xml:space="preserve"> ,st varchar(50) </v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" ref="I6:I9" si="2">" ," &amp; E6</f>
-        <v xml:space="preserve"> ,st</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>private _st: string;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,wd varchar(20) </v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,wd</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>private _wd: string;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,wt varchar(20) </v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,wt</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>private _wt: string;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,wtt integer </v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,wtt</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>private _wtt: string;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" t="str">
-        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
-        <v xml:space="preserve"> wi varchar(50) PRIMARY KEY ,si varchar(50)  ,st varchar(50)  ,wd varchar(20)  ,wt varchar(20)  ,wtt integer </v>
-      </c>
-    </row>
-    <row r="17" spans="7:7">
-      <c r="G17" t="str">
-        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
-        <v xml:space="preserve"> wi ,si ,st ,wd ,wt ,wtt</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A16" location="一览!A1" display="返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="F1" s="37"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" t="str">
-        <f>" " &amp; E3 &amp; " " &amp; F3 &amp; " PRIMARY KEY"</f>
-        <v xml:space="preserve"> ji VARCHAR(50) PRIMARY KEY</v>
-      </c>
-      <c r="I3" t="str">
-        <f>" " &amp; E3</f>
-        <v xml:space="preserve"> ji</v>
-      </c>
-      <c r="J3" t="str">
-        <f>"private _"&amp;E3&amp;": string;"</f>
-        <v>private _ji: string;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" t="str">
-        <f>" ," &amp; E4 &amp; " " &amp; F4 &amp; " "</f>
-        <v xml:space="preserve"> ,jn VARCHAR(100) </v>
-      </c>
-      <c r="I4" t="str">
-        <f>" ," &amp; E4</f>
-        <v xml:space="preserve"> ,jn</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" ref="J4:J5" si="0">"private _"&amp;E4&amp;": string;"</f>
-        <v>private _jn: string;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" ref="G5" si="1">" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
-        <v xml:space="preserve"> ,jg VARCHAR(100) </v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" ref="I5" si="2">" ," &amp; E5</f>
-        <v xml:space="preserve"> ,jg</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="0"/>
-        <v>private _jg: string;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="27">
-      <c r="A7" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="G15" t="str">
-        <f>CONCATENATE(G3,G4,G5,G6,G7,G8,G9,G10,G11,G12)</f>
-        <v xml:space="preserve"> ji VARCHAR(50) PRIMARY KEY ,jn VARCHAR(100)  ,jg VARCHAR(100) </v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="G16" t="str">
-        <f>CONCATENATE(I3,I4,I5,I6,I7,I8,I9,I10,I11,I12)</f>
-        <v xml:space="preserve"> ji ,jn ,jg</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E1:F1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A14" location="一览!A1" display="返回"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="F2" s="37"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1">
-      <c r="A11" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A11" location="一览!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -8592,6 +8989,665 @@
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" " &amp; E4 &amp; " " &amp; F4 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> wi varchar(50) PRIMARY KEY</v>
+      </c>
+      <c r="I4" t="str">
+        <f>" " &amp; E4</f>
+        <v xml:space="preserve"> wi</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"private _"&amp;E4&amp;": string;"</f>
+        <v>private _wi: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="str">
+        <f>" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,si varchar(50) </v>
+      </c>
+      <c r="I5" t="str">
+        <f>" ," &amp; E5</f>
+        <v xml:space="preserve"> ,si</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J9" si="0">"private _"&amp;E5&amp;": string;"</f>
+        <v>private _si: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G9" si="1">" ," &amp; E6 &amp; " " &amp; F6 &amp; " "</f>
+        <v xml:space="preserve"> ,st varchar(50) </v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I9" si="2">" ," &amp; E6</f>
+        <v xml:space="preserve"> ,st</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>private _st: string;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,wd varchar(20) </v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,wd</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>private _wd: string;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,wt varchar(20) </v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,wt</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>private _wt: string;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> ,wtt integer </v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,wtt</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>private _wtt: string;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="str">
+        <f>CONCATENATE(G4,G5,G6,G7,G8,G9,G10,G11,G12,G13)</f>
+        <v xml:space="preserve"> wi varchar(50) PRIMARY KEY ,si varchar(50)  ,st varchar(50)  ,wd varchar(20)  ,wt varchar(20)  ,wtt integer </v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" t="str">
+        <f>CONCATENATE(I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <v xml:space="preserve"> wi ,si ,st ,wd ,wt ,wtt</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A16" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" s="38"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="str">
+        <f>" " &amp; E3 &amp; " " &amp; F3 &amp; " PRIMARY KEY"</f>
+        <v xml:space="preserve"> ji VARCHAR(50) PRIMARY KEY</v>
+      </c>
+      <c r="I3" t="str">
+        <f>" " &amp; E3</f>
+        <v xml:space="preserve"> ji</v>
+      </c>
+      <c r="J3" t="str">
+        <f>"private _"&amp;E3&amp;": string;"</f>
+        <v>private _ji: string;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" t="str">
+        <f>" ," &amp; E4 &amp; " " &amp; F4 &amp; " "</f>
+        <v xml:space="preserve"> ,jn VARCHAR(100) </v>
+      </c>
+      <c r="I4" t="str">
+        <f>" ," &amp; E4</f>
+        <v xml:space="preserve"> ,jn</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J5" si="0">"private _"&amp;E4&amp;": string;"</f>
+        <v>private _jn: string;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5" si="1">" ," &amp; E5 &amp; " " &amp; F5 &amp; " "</f>
+        <v xml:space="preserve"> ,jg VARCHAR(100) </v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" ref="I5" si="2">" ," &amp; E5</f>
+        <v xml:space="preserve"> ,jg</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>private _jg: string;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="27">
+      <c r="A7" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="G15" t="str">
+        <f>CONCATENATE(G3,G4,G5,G6,G7,G8,G9,G10,G11,G12)</f>
+        <v xml:space="preserve"> ji VARCHAR(50) PRIMARY KEY ,jn VARCHAR(100)  ,jg VARCHAR(100) </v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="G16" t="str">
+        <f>CONCATENATE(I3,I4,I5,I6,I7,I8,I9,I10,I11,I12)</f>
+        <v xml:space="preserve"> ji ,jn ,jg</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A14" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1">
+      <c r="A11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A11" location="一览!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -8614,10 +9670,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -8929,7 +9985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
@@ -8956,10 +10012,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -9178,7 +10234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J17"/>
   <sheetViews>
@@ -9205,10 +10261,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -9353,7 +10409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J26"/>
   <sheetViews>
@@ -9380,10 +10436,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -9696,7 +10752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J22"/>
   <sheetViews>
@@ -9723,10 +10779,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -10005,7 +11061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -10174,7 +11230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J23"/>
   <sheetViews>
@@ -10201,10 +11257,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -10872,10 +11928,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
@@ -11092,10 +12148,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -11415,10 +12471,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="39" t="s">
         <v>302</v>
       </c>
-      <c r="F2" s="39"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -11726,10 +12782,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="F2" s="39"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -12183,10 +13239,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="F2" s="39"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -12601,10 +13657,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="F2" s="39"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">

--- a/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
+++ b/A-开发相关文档素材/6.二期文档/客户端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" firstSheet="2" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="891" firstSheet="5" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -23,28 +23,32 @@
     <sheet name="计划日程特殊表" sheetId="49" r:id="rId9"/>
     <sheet name="日历、日历项、事件、备忘设计" sheetId="54" r:id="rId10"/>
     <sheet name="事件表" sheetId="55" r:id="rId11"/>
-    <sheet name="任务表" sheetId="57" r:id="rId12"/>
-    <sheet name="附件表" sheetId="59" r:id="rId13"/>
-    <sheet name="备忘表" sheetId="53" r:id="rId14"/>
-    <sheet name="日历项表" sheetId="58" r:id="rId15"/>
-    <sheet name="参与人表" sheetId="60" r:id="rId16"/>
-    <sheet name="语义标签标注表" sheetId="61" r:id="rId17"/>
-    <sheet name="日程参与人表" sheetId="10" r:id="rId18"/>
-    <sheet name="日程语义标签标注表" sheetId="51" r:id="rId19"/>
-    <sheet name="提醒时间表" sheetId="11" r:id="rId20"/>
-    <sheet name="计划表" sheetId="41" r:id="rId21"/>
-    <sheet name="参与人头像" sheetId="48" r:id="rId22"/>
-    <sheet name="参与人" sheetId="24" r:id="rId23"/>
-    <sheet name="群组" sheetId="43" r:id="rId24"/>
-    <sheet name="群组参与人关系" sheetId="8" r:id="rId25"/>
-    <sheet name="系統設置表" sheetId="29" r:id="rId26"/>
-    <sheet name="用户偏好" sheetId="39" r:id="rId27"/>
-    <sheet name="系統設置表数据" sheetId="46" r:id="rId28"/>
-    <sheet name="语音表" sheetId="50" r:id="rId29"/>
+    <sheet name="日程表" sheetId="62" r:id="rId12"/>
+    <sheet name="任务表" sheetId="57" r:id="rId13"/>
+    <sheet name="附件表" sheetId="59" r:id="rId14"/>
+    <sheet name="备忘表" sheetId="53" r:id="rId15"/>
+    <sheet name="日历项表" sheetId="58" r:id="rId16"/>
+    <sheet name="参与人表" sheetId="60" r:id="rId17"/>
+    <sheet name="语义标签标注表" sheetId="61" r:id="rId18"/>
+    <sheet name="新消息表" sheetId="63" r:id="rId19"/>
+    <sheet name="日程参与人表" sheetId="10" r:id="rId20"/>
+    <sheet name="日程语义标签标注表" sheetId="51" r:id="rId21"/>
+    <sheet name="提醒时间表" sheetId="11" r:id="rId22"/>
+    <sheet name="计划表" sheetId="41" r:id="rId23"/>
+    <sheet name="参与人头像" sheetId="48" r:id="rId24"/>
+    <sheet name="参与人" sheetId="24" r:id="rId25"/>
+    <sheet name="群组" sheetId="43" r:id="rId26"/>
+    <sheet name="群组参与人关系" sheetId="8" r:id="rId27"/>
+    <sheet name="系統設置表" sheetId="29" r:id="rId28"/>
+    <sheet name="用户偏好" sheetId="39" r:id="rId29"/>
+    <sheet name="系統設置表数据" sheetId="46" r:id="rId30"/>
+    <sheet name="语音表" sheetId="50" r:id="rId31"/>
   </sheets>
   <definedNames>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="15" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="16" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="11" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="18" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="17" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -57,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="641">
   <si>
     <t>表名</t>
   </si>
@@ -2482,6 +2486,88 @@
   </si>
   <si>
     <t>日程语义标签标注表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送时间戳</t>
+  </si>
+  <si>
+    <t>发送时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mtt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system=冥王星消息,agenda=日程消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息关联ID</t>
+  </si>
+  <si>
+    <t>消息关联ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于消息关联的日历项、事件或备忘，根据消息类型判断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2674,7 +2760,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2792,12 +2878,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertic